--- a/database/industries/kashi/kazar/product/monthly.xlsx
+++ b/database/industries/kashi/kazar/product/monthly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\kashi\kazar\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\kashi\kazar\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1E9CED-0346-4EF7-A270-F3C28301CA6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9BE855F-A173-4EF1-A4DF-8E25883A81A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3301" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3328" uniqueCount="94">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 10 منتهی به 1397/10</t>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>سایر</t>
@@ -784,12 +784,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -844,7 +844,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -901,7 +901,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -958,7 +958,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1013,7 +1013,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1070,7 +1070,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1127,7 +1127,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1182,7 +1182,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1394,7 +1394,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1451,7 +1451,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1538,8 +1538,8 @@
       <c r="AE11" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="AF11" s="11" t="s">
-        <v>56</v>
+      <c r="AF11" s="11">
+        <v>0</v>
       </c>
       <c r="AG11" s="11">
         <v>0</v>
@@ -1608,7 +1608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>57</v>
       </c>
@@ -1617,16 +1617,16 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="F12" s="13">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="G12" s="13">
         <v>0</v>
       </c>
-      <c r="H12" s="13">
-        <v>0</v>
+      <c r="H12" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="I12" s="13" t="s">
         <v>56</v>
@@ -1767,7 +1767,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>59</v>
       </c>
@@ -1776,53 +1776,53 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>3110</v>
+        <v>2820</v>
       </c>
       <c r="F13" s="11">
-        <v>2820</v>
+        <v>2482</v>
       </c>
       <c r="G13" s="11">
-        <v>2482</v>
+        <v>2764</v>
       </c>
       <c r="H13" s="11">
-        <v>2764</v>
+        <v>3343</v>
       </c>
       <c r="I13" s="11">
-        <v>3343</v>
+        <v>3267</v>
       </c>
       <c r="J13" s="11">
-        <v>3267</v>
+        <v>2610</v>
       </c>
       <c r="K13" s="11">
-        <v>2610</v>
+        <v>2259</v>
       </c>
       <c r="L13" s="11">
-        <v>2259</v>
+        <v>2364</v>
       </c>
       <c r="M13" s="11">
-        <v>2364</v>
+        <v>2818</v>
       </c>
       <c r="N13" s="11">
-        <v>2818</v>
+        <v>2774</v>
       </c>
       <c r="O13" s="11">
-        <v>2774</v>
+        <v>2718</v>
       </c>
       <c r="P13" s="11">
-        <v>2718</v>
+        <v>1815</v>
       </c>
       <c r="Q13" s="11">
-        <v>1815</v>
+        <v>757</v>
       </c>
       <c r="R13" s="11">
-        <v>757</v>
+        <v>1721</v>
       </c>
       <c r="S13" s="11">
-        <v>1721</v>
-      </c>
-      <c r="T13" s="11">
         <v>2453</v>
       </c>
+      <c r="T13" s="11" t="s">
+        <v>56</v>
+      </c>
       <c r="U13" s="11" t="s">
         <v>56</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>60</v>
       </c>
@@ -1935,31 +1935,31 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F14" s="13">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G14" s="13">
-        <v>0</v>
-      </c>
-      <c r="H14" s="13">
         <v>7</v>
       </c>
+      <c r="H14" s="13" t="s">
+        <v>56</v>
+      </c>
       <c r="I14" s="13" t="s">
         <v>56</v>
       </c>
       <c r="J14" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="K14" s="13" t="s">
-        <v>56</v>
+      <c r="K14" s="13">
+        <v>37</v>
       </c>
       <c r="L14" s="13">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="M14" s="13">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="N14" s="13">
         <v>0</v>
@@ -1968,19 +1968,19 @@
         <v>0</v>
       </c>
       <c r="P14" s="13">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="Q14" s="13">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R14" s="13">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="S14" s="13">
         <v>0</v>
       </c>
-      <c r="T14" s="13">
-        <v>0</v>
+      <c r="T14" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="U14" s="13" t="s">
         <v>56</v>
@@ -2085,7 +2085,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>61</v>
       </c>
@@ -2109,38 +2109,38 @@
         <v>0</v>
       </c>
       <c r="J15" s="11">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K15" s="11">
+        <v>29</v>
+      </c>
+      <c r="L15" s="11">
+        <v>15</v>
+      </c>
+      <c r="M15" s="11">
         <v>20</v>
-      </c>
-      <c r="L15" s="11">
-        <v>29</v>
-      </c>
-      <c r="M15" s="11">
-        <v>15</v>
       </c>
       <c r="N15" s="11">
         <v>20</v>
       </c>
       <c r="O15" s="11">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="P15" s="11">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="Q15" s="11">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="R15" s="11">
         <v>0</v>
       </c>
       <c r="S15" s="11">
-        <v>0</v>
-      </c>
-      <c r="T15" s="11">
         <v>3</v>
       </c>
+      <c r="T15" s="11" t="s">
+        <v>56</v>
+      </c>
       <c r="U15" s="11" t="s">
         <v>56</v>
       </c>
@@ -2244,7 +2244,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>62</v>
       </c>
@@ -2253,53 +2253,53 @@
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13">
-        <v>2238</v>
+        <v>1982</v>
       </c>
       <c r="F16" s="13">
-        <v>1982</v>
+        <v>1860</v>
       </c>
       <c r="G16" s="13">
-        <v>1860</v>
+        <v>2108</v>
       </c>
       <c r="H16" s="13">
-        <v>2108</v>
+        <v>2167</v>
       </c>
       <c r="I16" s="13">
-        <v>2167</v>
+        <v>1821</v>
       </c>
       <c r="J16" s="13">
-        <v>1821</v>
+        <v>2227</v>
       </c>
       <c r="K16" s="13">
-        <v>2227</v>
+        <v>1539</v>
       </c>
       <c r="L16" s="13">
-        <v>1539</v>
+        <v>1450</v>
       </c>
       <c r="M16" s="13">
-        <v>1450</v>
+        <v>1761</v>
       </c>
       <c r="N16" s="13">
-        <v>1761</v>
+        <v>1933</v>
       </c>
       <c r="O16" s="13">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="P16" s="13">
-        <v>1934</v>
+        <v>1664</v>
       </c>
       <c r="Q16" s="13">
-        <v>1664</v>
+        <v>1283</v>
       </c>
       <c r="R16" s="13">
-        <v>1283</v>
+        <v>1097</v>
       </c>
       <c r="S16" s="13">
-        <v>1097</v>
-      </c>
-      <c r="T16" s="13">
         <v>1579</v>
       </c>
+      <c r="T16" s="13" t="s">
+        <v>56</v>
+      </c>
       <c r="U16" s="13" t="s">
         <v>56</v>
       </c>
@@ -2403,7 +2403,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>63</v>
       </c>
@@ -2420,23 +2420,23 @@
       <c r="G17" s="11">
         <v>0</v>
       </c>
-      <c r="H17" s="11">
-        <v>0</v>
+      <c r="H17" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="I17" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="J17" s="11" t="s">
-        <v>56</v>
+      <c r="J17" s="11">
+        <v>54</v>
       </c>
       <c r="K17" s="11">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="L17" s="11">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="M17" s="11">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="N17" s="11">
         <v>0</v>
@@ -2448,17 +2448,17 @@
         <v>0</v>
       </c>
       <c r="Q17" s="11">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="R17" s="11">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="S17" s="11">
-        <v>100</v>
-      </c>
-      <c r="T17" s="11">
         <v>99</v>
       </c>
+      <c r="T17" s="11" t="s">
+        <v>56</v>
+      </c>
       <c r="U17" s="11" t="s">
         <v>56</v>
       </c>
@@ -2562,7 +2562,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>64</v>
       </c>
@@ -2579,8 +2579,8 @@
       <c r="G18" s="13">
         <v>0</v>
       </c>
-      <c r="H18" s="13">
-        <v>0</v>
+      <c r="H18" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="I18" s="13" t="s">
         <v>56</v>
@@ -2721,7 +2721,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>65</v>
       </c>
@@ -2810,8 +2810,8 @@
       <c r="AE19" s="11">
         <v>0</v>
       </c>
-      <c r="AF19" s="11">
-        <v>0</v>
+      <c r="AF19" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="AG19" s="11" t="s">
         <v>56</v>
@@ -2880,7 +2880,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
         <v>66</v>
       </c>
@@ -2897,8 +2897,8 @@
       <c r="G20" s="13">
         <v>0</v>
       </c>
-      <c r="H20" s="13">
-        <v>0</v>
+      <c r="H20" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="I20" s="13" t="s">
         <v>56</v>
@@ -3039,7 +3039,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>67</v>
       </c>
@@ -3048,53 +3048,53 @@
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="F21" s="11">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G21" s="11">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="H21" s="11">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I21" s="11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J21" s="11">
+        <v>26</v>
+      </c>
+      <c r="K21" s="11">
+        <v>34</v>
+      </c>
+      <c r="L21" s="11">
+        <v>9</v>
+      </c>
+      <c r="M21" s="11">
+        <v>22</v>
+      </c>
+      <c r="N21" s="11">
+        <v>0</v>
+      </c>
+      <c r="O21" s="11">
+        <v>33</v>
+      </c>
+      <c r="P21" s="11">
         <v>6</v>
       </c>
-      <c r="K21" s="11">
-        <v>26</v>
-      </c>
-      <c r="L21" s="11">
-        <v>34</v>
-      </c>
-      <c r="M21" s="11">
-        <v>9</v>
-      </c>
-      <c r="N21" s="11">
-        <v>22</v>
-      </c>
-      <c r="O21" s="11">
-        <v>0</v>
-      </c>
-      <c r="P21" s="11">
-        <v>33</v>
-      </c>
       <c r="Q21" s="11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R21" s="11">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="S21" s="11">
-        <v>0</v>
-      </c>
-      <c r="T21" s="11">
         <v>21</v>
       </c>
+      <c r="T21" s="11" t="s">
+        <v>56</v>
+      </c>
       <c r="U21" s="11" t="s">
         <v>56</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
         <v>68</v>
       </c>
@@ -3207,53 +3207,53 @@
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="13">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F22" s="13">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="G22" s="13">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="H22" s="13">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="I22" s="13">
-        <v>151</v>
+        <v>224</v>
       </c>
       <c r="J22" s="13">
-        <v>224</v>
+        <v>178</v>
       </c>
       <c r="K22" s="13">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="L22" s="13">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="M22" s="13">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="N22" s="13">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="O22" s="13">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="P22" s="13">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="Q22" s="13">
-        <v>216</v>
+        <v>304</v>
       </c>
       <c r="R22" s="13">
-        <v>304</v>
+        <v>236</v>
       </c>
       <c r="S22" s="13">
-        <v>236</v>
-      </c>
-      <c r="T22" s="13">
         <v>148</v>
       </c>
+      <c r="T22" s="13" t="s">
+        <v>56</v>
+      </c>
       <c r="U22" s="13" t="s">
         <v>56</v>
       </c>
@@ -3357,7 +3357,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>69</v>
       </c>
@@ -3366,52 +3366,52 @@
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11">
-        <v>500</v>
+        <v>341</v>
       </c>
       <c r="F23" s="11">
-        <v>341</v>
+        <v>400</v>
       </c>
       <c r="G23" s="11">
-        <v>400</v>
+        <v>286</v>
       </c>
       <c r="H23" s="11">
-        <v>286</v>
+        <v>40</v>
       </c>
       <c r="I23" s="11">
         <v>40</v>
       </c>
       <c r="J23" s="11">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="K23" s="11">
-        <v>88</v>
+        <v>245</v>
       </c>
       <c r="L23" s="11">
-        <v>245</v>
+        <v>294</v>
       </c>
       <c r="M23" s="11">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="N23" s="11">
-        <v>303</v>
+        <v>209</v>
       </c>
       <c r="O23" s="11">
-        <v>209</v>
+        <v>158</v>
       </c>
       <c r="P23" s="11">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="Q23" s="11">
-        <v>150</v>
+        <v>2</v>
       </c>
       <c r="R23" s="11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S23" s="11">
         <v>0</v>
       </c>
-      <c r="T23" s="11">
-        <v>0</v>
+      <c r="T23" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="U23" s="11" t="s">
         <v>56</v>
@@ -3516,7 +3516,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
         <v>70</v>
       </c>
@@ -3533,8 +3533,8 @@
       <c r="G24" s="13">
         <v>0</v>
       </c>
-      <c r="H24" s="13">
-        <v>0</v>
+      <c r="H24" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="I24" s="13" t="s">
         <v>56</v>
@@ -3675,7 +3675,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>72</v>
       </c>
@@ -3728,113 +3728,113 @@
       <c r="S25" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="T25" s="11" t="s">
-        <v>56</v>
+      <c r="T25" s="11">
+        <v>2145</v>
       </c>
       <c r="U25" s="11">
-        <v>2145</v>
+        <v>1937</v>
       </c>
       <c r="V25" s="11">
-        <v>1937</v>
+        <v>1566</v>
       </c>
       <c r="W25" s="11">
-        <v>1566</v>
+        <v>1877</v>
       </c>
       <c r="X25" s="11">
-        <v>1877</v>
+        <v>1998</v>
       </c>
       <c r="Y25" s="11">
-        <v>1998</v>
+        <v>2081</v>
       </c>
       <c r="Z25" s="11">
-        <v>2081</v>
+        <v>1820</v>
       </c>
       <c r="AA25" s="11">
-        <v>1820</v>
+        <v>1553</v>
       </c>
       <c r="AB25" s="11">
-        <v>1553</v>
+        <v>1724</v>
       </c>
       <c r="AC25" s="11">
-        <v>1724</v>
+        <v>1914</v>
       </c>
       <c r="AD25" s="11">
-        <v>1914</v>
+        <v>2186</v>
       </c>
       <c r="AE25" s="11">
-        <v>2186</v>
+        <v>1610</v>
       </c>
       <c r="AF25" s="11">
-        <v>1610</v>
+        <v>1599</v>
       </c>
       <c r="AG25" s="11">
-        <v>1599</v>
+        <v>1778</v>
       </c>
       <c r="AH25" s="11">
-        <v>1778</v>
+        <v>1605</v>
       </c>
       <c r="AI25" s="11">
-        <v>1605</v>
+        <v>1722</v>
       </c>
       <c r="AJ25" s="11">
-        <v>1722</v>
+        <v>1323</v>
       </c>
       <c r="AK25" s="11">
-        <v>1323</v>
+        <v>1967</v>
       </c>
       <c r="AL25" s="11">
-        <v>1967</v>
+        <v>732</v>
       </c>
       <c r="AM25" s="11">
-        <v>732</v>
+        <v>1307</v>
       </c>
       <c r="AN25" s="11">
-        <v>1307</v>
+        <v>1122</v>
       </c>
       <c r="AO25" s="11">
-        <v>1122</v>
+        <v>1817</v>
       </c>
       <c r="AP25" s="11">
+        <v>1720</v>
+      </c>
+      <c r="AQ25" s="11">
+        <v>1413</v>
+      </c>
+      <c r="AR25" s="11">
+        <v>1917</v>
+      </c>
+      <c r="AS25" s="11">
+        <v>1559</v>
+      </c>
+      <c r="AT25" s="11">
+        <v>1545</v>
+      </c>
+      <c r="AU25" s="11">
+        <v>592</v>
+      </c>
+      <c r="AV25" s="11">
+        <v>987</v>
+      </c>
+      <c r="AW25" s="11">
         <v>1817</v>
       </c>
-      <c r="AQ25" s="11">
-        <v>1720</v>
-      </c>
-      <c r="AR25" s="11">
-        <v>1413</v>
-      </c>
-      <c r="AS25" s="11">
-        <v>1917</v>
-      </c>
-      <c r="AT25" s="11">
-        <v>1559</v>
-      </c>
-      <c r="AU25" s="11">
-        <v>1545</v>
-      </c>
-      <c r="AV25" s="11">
-        <v>592</v>
-      </c>
-      <c r="AW25" s="11">
-        <v>987</v>
-      </c>
       <c r="AX25" s="11">
-        <v>1817</v>
+        <v>1735</v>
       </c>
       <c r="AY25" s="11">
-        <v>1735</v>
+        <v>1745</v>
       </c>
       <c r="AZ25" s="11">
-        <v>1745</v>
+        <v>1709</v>
       </c>
       <c r="BA25" s="11">
-        <v>1709</v>
+        <v>1219</v>
       </c>
       <c r="BB25" s="11">
-        <v>1219</v>
+        <v>955</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="s">
         <v>73</v>
       </c>
@@ -3887,113 +3887,113 @@
       <c r="S26" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="T26" s="13" t="s">
-        <v>56</v>
+      <c r="T26" s="13">
+        <v>2985</v>
       </c>
       <c r="U26" s="13">
-        <v>2985</v>
+        <v>2343</v>
       </c>
       <c r="V26" s="13">
-        <v>2343</v>
+        <v>2939</v>
       </c>
       <c r="W26" s="13">
-        <v>2939</v>
+        <v>3132</v>
       </c>
       <c r="X26" s="13">
-        <v>3132</v>
+        <v>3133</v>
       </c>
       <c r="Y26" s="13">
-        <v>3133</v>
+        <v>3214</v>
       </c>
       <c r="Z26" s="13">
-        <v>3214</v>
+        <v>2640</v>
       </c>
       <c r="AA26" s="13">
-        <v>2640</v>
+        <v>2361</v>
       </c>
       <c r="AB26" s="13">
-        <v>2361</v>
+        <v>3294</v>
       </c>
       <c r="AC26" s="13">
-        <v>3294</v>
+        <v>1913</v>
       </c>
       <c r="AD26" s="13">
-        <v>1913</v>
+        <v>1843</v>
       </c>
       <c r="AE26" s="13">
-        <v>1843</v>
+        <v>2896</v>
       </c>
       <c r="AF26" s="13">
-        <v>2896</v>
+        <v>3006</v>
       </c>
       <c r="AG26" s="13">
-        <v>3006</v>
+        <v>3390</v>
       </c>
       <c r="AH26" s="13">
-        <v>3390</v>
+        <v>2806</v>
       </c>
       <c r="AI26" s="13">
-        <v>2806</v>
+        <v>1832</v>
       </c>
       <c r="AJ26" s="13">
-        <v>1832</v>
+        <v>1464</v>
       </c>
       <c r="AK26" s="13">
-        <v>1464</v>
+        <v>2174</v>
       </c>
       <c r="AL26" s="13">
-        <v>2174</v>
+        <v>1752</v>
       </c>
       <c r="AM26" s="13">
-        <v>1752</v>
+        <v>1457</v>
       </c>
       <c r="AN26" s="13">
-        <v>1457</v>
+        <v>1250</v>
       </c>
       <c r="AO26" s="13">
-        <v>1250</v>
+        <v>992</v>
       </c>
       <c r="AP26" s="13">
-        <v>992</v>
+        <v>1360</v>
       </c>
       <c r="AQ26" s="13">
-        <v>1360</v>
+        <v>1066</v>
       </c>
       <c r="AR26" s="13">
-        <v>1066</v>
+        <v>1731</v>
       </c>
       <c r="AS26" s="13">
-        <v>1731</v>
+        <v>1452</v>
       </c>
       <c r="AT26" s="13">
-        <v>1452</v>
+        <v>941</v>
       </c>
       <c r="AU26" s="13">
-        <v>941</v>
+        <v>736</v>
       </c>
       <c r="AV26" s="13">
-        <v>736</v>
+        <v>837</v>
       </c>
       <c r="AW26" s="13">
-        <v>837</v>
+        <v>779</v>
       </c>
       <c r="AX26" s="13">
-        <v>779</v>
+        <v>1094</v>
       </c>
       <c r="AY26" s="13">
-        <v>1094</v>
+        <v>1727</v>
       </c>
       <c r="AZ26" s="13">
-        <v>1727</v>
+        <v>2018</v>
       </c>
       <c r="BA26" s="13">
-        <v>2018</v>
+        <v>911</v>
       </c>
       <c r="BB26" s="13">
-        <v>911</v>
+        <v>745</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>74</v>
       </c>
@@ -4008,8 +4008,8 @@
       <c r="G27" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="H27" s="11" t="s">
-        <v>56</v>
+      <c r="H27" s="11">
+        <v>0</v>
       </c>
       <c r="I27" s="11">
         <v>0</v>
@@ -4044,8 +4044,8 @@
       <c r="S27" s="11">
         <v>0</v>
       </c>
-      <c r="T27" s="11">
-        <v>0</v>
+      <c r="T27" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="U27" s="11" t="s">
         <v>56</v>
@@ -4150,7 +4150,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
         <v>75</v>
       </c>
@@ -4263,53 +4263,53 @@
       <c r="AM28" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="AN28" s="13" t="s">
-        <v>56</v>
+      <c r="AN28" s="13">
+        <v>1032</v>
       </c>
       <c r="AO28" s="13">
-        <v>1032</v>
+        <v>1836</v>
       </c>
       <c r="AP28" s="13">
-        <v>1836</v>
+        <v>1864</v>
       </c>
       <c r="AQ28" s="13">
-        <v>1864</v>
+        <v>1769</v>
       </c>
       <c r="AR28" s="13">
-        <v>1769</v>
+        <v>1160</v>
       </c>
       <c r="AS28" s="13">
-        <v>1160</v>
+        <v>1415</v>
       </c>
       <c r="AT28" s="13">
-        <v>1415</v>
+        <v>1490</v>
       </c>
       <c r="AU28" s="13">
-        <v>1490</v>
+        <v>364</v>
       </c>
       <c r="AV28" s="13">
-        <v>364</v>
+        <v>1796</v>
       </c>
       <c r="AW28" s="13">
-        <v>1796</v>
+        <v>1634</v>
       </c>
       <c r="AX28" s="13">
-        <v>1634</v>
+        <v>1310</v>
       </c>
       <c r="AY28" s="13">
-        <v>1310</v>
+        <v>422</v>
       </c>
       <c r="AZ28" s="13">
-        <v>422</v>
+        <v>156</v>
       </c>
       <c r="BA28" s="13">
-        <v>156</v>
+        <v>1948</v>
       </c>
       <c r="BB28" s="13">
-        <v>1948</v>
+        <v>504</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
         <v>76</v>
       </c>
@@ -4366,7 +4366,7 @@
       <c r="BA29" s="9"/>
       <c r="BB29" s="9"/>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
         <v>55</v>
       </c>
@@ -4453,11 +4453,11 @@
       <c r="AE30" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="AF30" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG30" s="11">
-        <v>0</v>
+      <c r="AF30" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="AH30" s="11" t="s">
         <v>56</v>
@@ -4483,11 +4483,11 @@
       <c r="AO30" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="AP30" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="AQ30" s="11">
-        <v>0</v>
+      <c r="AP30" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ30" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="AR30" s="11" t="s">
         <v>56</v>
@@ -4523,7 +4523,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="12" t="s">
         <v>74</v>
       </c>
@@ -4610,11 +4610,11 @@
       <c r="AE31" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="AF31" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG31" s="13">
-        <v>0</v>
+      <c r="AF31" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="AH31" s="13" t="s">
         <v>56</v>
@@ -4640,11 +4640,11 @@
       <c r="AO31" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="AP31" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="AQ31" s="13">
-        <v>0</v>
+      <c r="AP31" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ31" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="AR31" s="13" t="s">
         <v>56</v>
@@ -4680,7 +4680,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="14" t="s">
         <v>77</v>
       </c>
@@ -4740,8 +4740,8 @@
       <c r="V32" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="W32" s="15" t="s">
-        <v>56</v>
+      <c r="W32" s="15">
+        <v>0</v>
       </c>
       <c r="X32" s="15">
         <v>0</v>
@@ -4837,164 +4837,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="16" t="s">
         <v>78</v>
       </c>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
       <c r="E33" s="17">
-        <v>6206</v>
+        <v>5490</v>
       </c>
       <c r="F33" s="17">
-        <v>5490</v>
+        <v>5013</v>
       </c>
       <c r="G33" s="17">
-        <v>5013</v>
+        <v>5408</v>
       </c>
       <c r="H33" s="17">
-        <v>5408</v>
+        <v>5701</v>
       </c>
       <c r="I33" s="17">
-        <v>5701</v>
+        <v>5358</v>
       </c>
       <c r="J33" s="17">
-        <v>5358</v>
+        <v>5203</v>
       </c>
       <c r="K33" s="17">
-        <v>5203</v>
+        <v>4309</v>
       </c>
       <c r="L33" s="17">
-        <v>4309</v>
+        <v>4392</v>
       </c>
       <c r="M33" s="17">
-        <v>4392</v>
+        <v>5108</v>
       </c>
       <c r="N33" s="17">
-        <v>5108</v>
+        <v>5140</v>
       </c>
       <c r="O33" s="17">
-        <v>5140</v>
+        <v>5051</v>
       </c>
       <c r="P33" s="17">
-        <v>5051</v>
+        <v>3905</v>
       </c>
       <c r="Q33" s="17">
-        <v>3905</v>
+        <v>2551</v>
       </c>
       <c r="R33" s="17">
-        <v>2551</v>
+        <v>3154</v>
       </c>
       <c r="S33" s="17">
-        <v>3154</v>
+        <v>4303</v>
       </c>
       <c r="T33" s="17">
-        <v>4303</v>
+        <v>5130</v>
       </c>
       <c r="U33" s="17">
-        <v>5130</v>
+        <v>4280</v>
       </c>
       <c r="V33" s="17">
-        <v>4280</v>
+        <v>4505</v>
       </c>
       <c r="W33" s="17">
-        <v>4505</v>
+        <v>5009</v>
       </c>
       <c r="X33" s="17">
-        <v>5009</v>
+        <v>5131</v>
       </c>
       <c r="Y33" s="17">
-        <v>5131</v>
+        <v>5295</v>
       </c>
       <c r="Z33" s="17">
-        <v>5295</v>
+        <v>4460</v>
       </c>
       <c r="AA33" s="17">
-        <v>4460</v>
+        <v>3914</v>
       </c>
       <c r="AB33" s="17">
-        <v>3914</v>
+        <v>5018</v>
       </c>
       <c r="AC33" s="17">
-        <v>5018</v>
+        <v>3827</v>
       </c>
       <c r="AD33" s="17">
-        <v>3827</v>
+        <v>4029</v>
       </c>
       <c r="AE33" s="17">
-        <v>4029</v>
+        <v>4506</v>
       </c>
       <c r="AF33" s="17">
-        <v>4506</v>
+        <v>4605</v>
       </c>
       <c r="AG33" s="17">
-        <v>4605</v>
+        <v>5168</v>
       </c>
       <c r="AH33" s="17">
-        <v>5168</v>
+        <v>4411</v>
       </c>
       <c r="AI33" s="17">
-        <v>4411</v>
+        <v>3554</v>
       </c>
       <c r="AJ33" s="17">
-        <v>3554</v>
+        <v>2787</v>
       </c>
       <c r="AK33" s="17">
-        <v>2787</v>
+        <v>4141</v>
       </c>
       <c r="AL33" s="17">
-        <v>4141</v>
+        <v>2484</v>
       </c>
       <c r="AM33" s="17">
-        <v>2484</v>
+        <v>2764</v>
       </c>
       <c r="AN33" s="17">
-        <v>2764</v>
+        <v>3404</v>
       </c>
       <c r="AO33" s="17">
-        <v>3404</v>
+        <v>4645</v>
       </c>
       <c r="AP33" s="17">
-        <v>4645</v>
+        <v>4944</v>
       </c>
       <c r="AQ33" s="17">
-        <v>4944</v>
+        <v>4248</v>
       </c>
       <c r="AR33" s="17">
-        <v>4248</v>
+        <v>4808</v>
       </c>
       <c r="AS33" s="17">
-        <v>4808</v>
+        <v>4426</v>
       </c>
       <c r="AT33" s="17">
-        <v>4426</v>
+        <v>3976</v>
       </c>
       <c r="AU33" s="17">
-        <v>3976</v>
+        <v>1692</v>
       </c>
       <c r="AV33" s="17">
-        <v>1692</v>
+        <v>3620</v>
       </c>
       <c r="AW33" s="17">
-        <v>3620</v>
+        <v>4230</v>
       </c>
       <c r="AX33" s="17">
-        <v>4230</v>
+        <v>4139</v>
       </c>
       <c r="AY33" s="17">
-        <v>4139</v>
+        <v>3894</v>
       </c>
       <c r="AZ33" s="17">
-        <v>3894</v>
+        <v>3883</v>
       </c>
       <c r="BA33" s="17">
-        <v>3883</v>
+        <v>4078</v>
       </c>
       <c r="BB33" s="17">
-        <v>4078</v>
+        <v>2204</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -5049,7 +5049,7 @@
       <c r="BA34" s="1"/>
       <c r="BB34" s="1"/>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -5104,7 +5104,7 @@
       <c r="BA35" s="1"/>
       <c r="BB35" s="1"/>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -5159,7 +5159,7 @@
       <c r="BA36" s="1"/>
       <c r="BB36" s="1"/>
     </row>
-    <row r="37" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
         <v>79</v>
       </c>
@@ -5316,7 +5316,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -5371,7 +5371,7 @@
       <c r="BA38" s="1"/>
       <c r="BB38" s="1"/>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
         <v>79</v>
       </c>
@@ -5428,7 +5428,7 @@
       <c r="BA39" s="9"/>
       <c r="BB39" s="9"/>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
         <v>55</v>
       </c>
@@ -5515,8 +5515,8 @@
       <c r="AE40" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="AF40" s="11" t="s">
-        <v>56</v>
+      <c r="AF40" s="11">
+        <v>0</v>
       </c>
       <c r="AG40" s="11">
         <v>0</v>
@@ -5528,13 +5528,13 @@
         <v>0</v>
       </c>
       <c r="AJ40" s="11">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="AK40" s="11">
-        <v>189</v>
+        <v>55</v>
       </c>
       <c r="AL40" s="11">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AM40" s="11">
         <v>0</v>
@@ -5585,7 +5585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="12" t="s">
         <v>57</v>
       </c>
@@ -5594,16 +5594,16 @@
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="13">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F41" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G41" s="13">
         <v>0</v>
       </c>
-      <c r="H41" s="13">
-        <v>0</v>
+      <c r="H41" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="I41" s="13" t="s">
         <v>56</v>
@@ -5744,7 +5744,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
         <v>59</v>
       </c>
@@ -5753,53 +5753,53 @@
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11">
-        <v>2157</v>
+        <v>5383</v>
       </c>
       <c r="F42" s="11">
-        <v>5383</v>
+        <v>2174</v>
       </c>
       <c r="G42" s="11">
-        <v>2174</v>
+        <v>1785</v>
       </c>
       <c r="H42" s="11">
-        <v>1785</v>
+        <v>3791</v>
       </c>
       <c r="I42" s="11">
-        <v>3791</v>
+        <v>2329</v>
       </c>
       <c r="J42" s="11">
-        <v>2329</v>
+        <v>3452</v>
       </c>
       <c r="K42" s="11">
-        <v>3452</v>
+        <v>2421</v>
       </c>
       <c r="L42" s="11">
-        <v>2421</v>
+        <v>2990</v>
       </c>
       <c r="M42" s="11">
-        <v>2990</v>
+        <v>2977</v>
       </c>
       <c r="N42" s="11">
-        <v>2977</v>
+        <v>2842</v>
       </c>
       <c r="O42" s="11">
-        <v>2842</v>
+        <v>2608</v>
       </c>
       <c r="P42" s="11">
-        <v>2608</v>
+        <v>1850</v>
       </c>
       <c r="Q42" s="11">
-        <v>1850</v>
+        <v>1009</v>
       </c>
       <c r="R42" s="11">
-        <v>1009</v>
+        <v>1700</v>
       </c>
       <c r="S42" s="11">
-        <v>1700</v>
-      </c>
-      <c r="T42" s="11">
         <v>1927</v>
       </c>
+      <c r="T42" s="11" t="s">
+        <v>56</v>
+      </c>
       <c r="U42" s="11" t="s">
         <v>56</v>
       </c>
@@ -5903,7 +5903,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="12" t="s">
         <v>60</v>
       </c>
@@ -5912,52 +5912,52 @@
       </c>
       <c r="D43" s="13"/>
       <c r="E43" s="13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F43" s="13">
+        <v>2</v>
+      </c>
+      <c r="G43" s="13">
+        <v>7</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I43" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="J43" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="K43" s="13">
+        <v>37</v>
+      </c>
+      <c r="L43" s="13">
+        <v>0</v>
+      </c>
+      <c r="M43" s="13">
+        <v>4</v>
+      </c>
+      <c r="N43" s="13">
+        <v>1</v>
+      </c>
+      <c r="O43" s="13">
+        <v>2</v>
+      </c>
+      <c r="P43" s="13">
         <v>5</v>
       </c>
-      <c r="G43" s="13">
-        <v>2</v>
-      </c>
-      <c r="H43" s="13">
-        <v>7</v>
-      </c>
-      <c r="I43" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="J43" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="K43" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="L43" s="13">
-        <v>37</v>
-      </c>
-      <c r="M43" s="13">
-        <v>0</v>
-      </c>
-      <c r="N43" s="13">
-        <v>4</v>
-      </c>
-      <c r="O43" s="13">
+      <c r="Q43" s="13">
+        <v>27</v>
+      </c>
+      <c r="R43" s="13">
         <v>1</v>
       </c>
-      <c r="P43" s="13">
-        <v>2</v>
-      </c>
-      <c r="Q43" s="13">
-        <v>5</v>
-      </c>
-      <c r="R43" s="13">
-        <v>27</v>
-      </c>
       <c r="S43" s="13">
-        <v>1</v>
-      </c>
-      <c r="T43" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="T43" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="U43" s="13" t="s">
         <v>56</v>
@@ -6062,7 +6062,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
         <v>61</v>
       </c>
@@ -6071,52 +6071,52 @@
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F44" s="11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G44" s="11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H44" s="11">
+        <v>4</v>
+      </c>
+      <c r="I44" s="11">
+        <v>8</v>
+      </c>
+      <c r="J44" s="11">
+        <v>9</v>
+      </c>
+      <c r="K44" s="11">
+        <v>33</v>
+      </c>
+      <c r="L44" s="11">
+        <v>17</v>
+      </c>
+      <c r="M44" s="11">
+        <v>16</v>
+      </c>
+      <c r="N44" s="11">
+        <v>4</v>
+      </c>
+      <c r="O44" s="11">
         <v>10</v>
       </c>
-      <c r="I44" s="11">
+      <c r="P44" s="11">
+        <v>3</v>
+      </c>
+      <c r="Q44" s="11">
+        <v>11</v>
+      </c>
+      <c r="R44" s="11">
+        <v>15</v>
+      </c>
+      <c r="S44" s="11">
         <v>4</v>
       </c>
-      <c r="J44" s="11">
-        <v>8</v>
-      </c>
-      <c r="K44" s="11">
-        <v>9</v>
-      </c>
-      <c r="L44" s="11">
-        <v>33</v>
-      </c>
-      <c r="M44" s="11">
-        <v>17</v>
-      </c>
-      <c r="N44" s="11">
-        <v>16</v>
-      </c>
-      <c r="O44" s="11">
-        <v>4</v>
-      </c>
-      <c r="P44" s="11">
-        <v>10</v>
-      </c>
-      <c r="Q44" s="11">
-        <v>3</v>
-      </c>
-      <c r="R44" s="11">
-        <v>11</v>
-      </c>
-      <c r="S44" s="11">
-        <v>15</v>
-      </c>
-      <c r="T44" s="11">
-        <v>4</v>
+      <c r="T44" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="U44" s="11" t="s">
         <v>56</v>
@@ -6221,7 +6221,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="12" t="s">
         <v>62</v>
       </c>
@@ -6230,53 +6230,53 @@
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="13">
-        <v>2021</v>
+        <v>1747</v>
       </c>
       <c r="F45" s="13">
-        <v>1747</v>
+        <v>1694</v>
       </c>
       <c r="G45" s="13">
-        <v>1694</v>
+        <v>2364</v>
       </c>
       <c r="H45" s="13">
-        <v>2364</v>
+        <v>2090</v>
       </c>
       <c r="I45" s="13">
-        <v>2090</v>
+        <v>1780</v>
       </c>
       <c r="J45" s="13">
-        <v>1780</v>
+        <v>1754</v>
       </c>
       <c r="K45" s="13">
-        <v>1754</v>
+        <v>2297</v>
       </c>
       <c r="L45" s="13">
-        <v>2297</v>
+        <v>1700</v>
       </c>
       <c r="M45" s="13">
-        <v>1700</v>
+        <v>1854</v>
       </c>
       <c r="N45" s="13">
-        <v>1854</v>
+        <v>1945</v>
       </c>
       <c r="O45" s="13">
-        <v>1945</v>
+        <v>1668</v>
       </c>
       <c r="P45" s="13">
-        <v>1668</v>
+        <v>1664</v>
       </c>
       <c r="Q45" s="13">
-        <v>1664</v>
+        <v>1517</v>
       </c>
       <c r="R45" s="13">
-        <v>1517</v>
+        <v>522</v>
       </c>
       <c r="S45" s="13">
-        <v>522</v>
-      </c>
-      <c r="T45" s="13">
         <v>2235</v>
       </c>
+      <c r="T45" s="13" t="s">
+        <v>56</v>
+      </c>
       <c r="U45" s="13" t="s">
         <v>56</v>
       </c>
@@ -6380,7 +6380,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
         <v>63</v>
       </c>
@@ -6389,28 +6389,28 @@
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="F46" s="11">
         <v>0</v>
       </c>
       <c r="G46" s="11">
-        <v>0</v>
-      </c>
-      <c r="H46" s="11">
         <v>8</v>
       </c>
+      <c r="H46" s="11" t="s">
+        <v>56</v>
+      </c>
       <c r="I46" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="J46" s="11" t="s">
-        <v>56</v>
+      <c r="J46" s="11">
+        <v>0</v>
       </c>
       <c r="K46" s="11">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L46" s="11">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="M46" s="11">
         <v>0</v>
@@ -6433,8 +6433,8 @@
       <c r="S46" s="11">
         <v>0</v>
       </c>
-      <c r="T46" s="11">
-        <v>0</v>
+      <c r="T46" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="U46" s="11" t="s">
         <v>56</v>
@@ -6539,7 +6539,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="12" t="s">
         <v>64</v>
       </c>
@@ -6556,8 +6556,8 @@
       <c r="G47" s="13">
         <v>0</v>
       </c>
-      <c r="H47" s="13">
-        <v>0</v>
+      <c r="H47" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="I47" s="13" t="s">
         <v>56</v>
@@ -6698,7 +6698,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>65</v>
       </c>
@@ -6787,8 +6787,8 @@
       <c r="AE48" s="11">
         <v>0</v>
       </c>
-      <c r="AF48" s="11">
-        <v>0</v>
+      <c r="AF48" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="AG48" s="11" t="s">
         <v>56</v>
@@ -6857,7 +6857,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="12" t="s">
         <v>66</v>
       </c>
@@ -6874,8 +6874,8 @@
       <c r="G49" s="13">
         <v>0</v>
       </c>
-      <c r="H49" s="13">
-        <v>0</v>
+      <c r="H49" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="I49" s="13" t="s">
         <v>56</v>
@@ -7016,7 +7016,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
         <v>67</v>
       </c>
@@ -7025,52 +7025,52 @@
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="F50" s="11">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="G50" s="11">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="H50" s="11">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="I50" s="11">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J50" s="11">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="K50" s="11">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="L50" s="11">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="M50" s="11">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="N50" s="11">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="O50" s="11">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="P50" s="11">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Q50" s="11">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="R50" s="11">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="S50" s="11">
         <v>14</v>
       </c>
-      <c r="T50" s="11">
-        <v>14</v>
+      <c r="T50" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="U50" s="11" t="s">
         <v>56</v>
@@ -7175,7 +7175,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="12" t="s">
         <v>68</v>
       </c>
@@ -7184,53 +7184,53 @@
       </c>
       <c r="D51" s="13"/>
       <c r="E51" s="13">
-        <v>390</v>
+        <v>102</v>
       </c>
       <c r="F51" s="13">
+        <v>314</v>
+      </c>
+      <c r="G51" s="13">
+        <v>321</v>
+      </c>
+      <c r="H51" s="13">
+        <v>524</v>
+      </c>
+      <c r="I51" s="13">
+        <v>643</v>
+      </c>
+      <c r="J51" s="13">
+        <v>216</v>
+      </c>
+      <c r="K51" s="13">
+        <v>50</v>
+      </c>
+      <c r="L51" s="13">
+        <v>227</v>
+      </c>
+      <c r="M51" s="13">
         <v>102</v>
       </c>
-      <c r="G51" s="13">
-        <v>314</v>
-      </c>
-      <c r="H51" s="13">
-        <v>321</v>
-      </c>
-      <c r="I51" s="13">
-        <v>524</v>
-      </c>
-      <c r="J51" s="13">
-        <v>643</v>
-      </c>
-      <c r="K51" s="13">
-        <v>216</v>
-      </c>
-      <c r="L51" s="13">
-        <v>50</v>
-      </c>
-      <c r="M51" s="13">
-        <v>227</v>
-      </c>
       <c r="N51" s="13">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="O51" s="13">
-        <v>43</v>
+        <v>169</v>
       </c>
       <c r="P51" s="13">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Q51" s="13">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="R51" s="13">
-        <v>171</v>
+        <v>251</v>
       </c>
       <c r="S51" s="13">
-        <v>251</v>
-      </c>
-      <c r="T51" s="13">
         <v>258</v>
       </c>
+      <c r="T51" s="13" t="s">
+        <v>56</v>
+      </c>
       <c r="U51" s="13" t="s">
         <v>56</v>
       </c>
@@ -7334,7 +7334,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
         <v>69</v>
       </c>
@@ -7343,19 +7343,19 @@
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11">
-        <v>1148</v>
+        <v>228</v>
       </c>
       <c r="F52" s="11">
-        <v>228</v>
+        <v>455</v>
       </c>
       <c r="G52" s="11">
-        <v>455</v>
+        <v>87</v>
       </c>
       <c r="H52" s="11">
-        <v>87</v>
+        <v>241</v>
       </c>
       <c r="I52" s="11">
-        <v>241</v>
+        <v>0</v>
       </c>
       <c r="J52" s="11">
         <v>0</v>
@@ -7364,31 +7364,31 @@
         <v>0</v>
       </c>
       <c r="L52" s="11">
-        <v>0</v>
+        <v>704</v>
       </c>
       <c r="M52" s="11">
-        <v>704</v>
+        <v>196</v>
       </c>
       <c r="N52" s="11">
-        <v>196</v>
+        <v>36</v>
       </c>
       <c r="O52" s="11">
-        <v>36</v>
+        <v>337</v>
       </c>
       <c r="P52" s="11">
-        <v>337</v>
+        <v>202</v>
       </c>
       <c r="Q52" s="11">
-        <v>202</v>
+        <v>16</v>
       </c>
       <c r="R52" s="11">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="S52" s="11">
-        <v>11</v>
-      </c>
-      <c r="T52" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="T52" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="U52" s="11" t="s">
         <v>56</v>
@@ -7493,7 +7493,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="12" t="s">
         <v>70</v>
       </c>
@@ -7510,8 +7510,8 @@
       <c r="G53" s="13">
         <v>0</v>
       </c>
-      <c r="H53" s="13">
-        <v>0</v>
+      <c r="H53" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="I53" s="13" t="s">
         <v>56</v>
@@ -7652,7 +7652,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
         <v>72</v>
       </c>
@@ -7705,113 +7705,113 @@
       <c r="S54" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="T54" s="11" t="s">
-        <v>56</v>
+      <c r="T54" s="11">
+        <v>2148</v>
       </c>
       <c r="U54" s="11">
-        <v>2148</v>
+        <v>1809</v>
       </c>
       <c r="V54" s="11">
-        <v>1809</v>
+        <v>1981</v>
       </c>
       <c r="W54" s="11">
-        <v>1981</v>
+        <v>2286</v>
       </c>
       <c r="X54" s="11">
-        <v>2286</v>
+        <v>1728</v>
       </c>
       <c r="Y54" s="11">
-        <v>1728</v>
+        <v>2059</v>
       </c>
       <c r="Z54" s="11">
-        <v>2059</v>
+        <v>1906</v>
       </c>
       <c r="AA54" s="11">
-        <v>1906</v>
+        <v>1664</v>
       </c>
       <c r="AB54" s="11">
-        <v>1664</v>
+        <v>1632</v>
       </c>
       <c r="AC54" s="11">
-        <v>1632</v>
+        <v>2038</v>
       </c>
       <c r="AD54" s="11">
-        <v>2038</v>
+        <v>1995</v>
       </c>
       <c r="AE54" s="11">
-        <v>1995</v>
+        <v>1734</v>
       </c>
       <c r="AF54" s="11">
-        <v>1734</v>
+        <v>1529</v>
       </c>
       <c r="AG54" s="11">
-        <v>1529</v>
+        <v>1506</v>
       </c>
       <c r="AH54" s="11">
-        <v>1506</v>
+        <v>2083</v>
       </c>
       <c r="AI54" s="11">
-        <v>2083</v>
+        <v>1564</v>
       </c>
       <c r="AJ54" s="11">
-        <v>1564</v>
+        <v>1165</v>
       </c>
       <c r="AK54" s="11">
-        <v>1165</v>
+        <v>1685</v>
       </c>
       <c r="AL54" s="11">
-        <v>1685</v>
+        <v>895</v>
       </c>
       <c r="AM54" s="11">
-        <v>895</v>
+        <v>1453</v>
       </c>
       <c r="AN54" s="11">
-        <v>1453</v>
+        <v>1201</v>
       </c>
       <c r="AO54" s="11">
-        <v>1201</v>
+        <v>1451</v>
       </c>
       <c r="AP54" s="11">
-        <v>1451</v>
+        <v>1496</v>
       </c>
       <c r="AQ54" s="11">
-        <v>1496</v>
+        <v>2242</v>
       </c>
       <c r="AR54" s="11">
-        <v>2242</v>
+        <v>1562</v>
       </c>
       <c r="AS54" s="11">
-        <v>1562</v>
+        <v>1580</v>
       </c>
       <c r="AT54" s="11">
-        <v>1580</v>
+        <v>1279</v>
       </c>
       <c r="AU54" s="11">
-        <v>1279</v>
+        <v>910</v>
       </c>
       <c r="AV54" s="11">
-        <v>910</v>
+        <v>996</v>
       </c>
       <c r="AW54" s="11">
-        <v>996</v>
+        <v>1866</v>
       </c>
       <c r="AX54" s="11">
-        <v>1866</v>
+        <v>1722</v>
       </c>
       <c r="AY54" s="11">
-        <v>1722</v>
+        <v>1616</v>
       </c>
       <c r="AZ54" s="11">
-        <v>1616</v>
+        <v>1363</v>
       </c>
       <c r="BA54" s="11">
-        <v>1363</v>
+        <v>929</v>
       </c>
       <c r="BB54" s="11">
-        <v>929</v>
+        <v>1029</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="12" t="s">
         <v>73</v>
       </c>
@@ -7864,113 +7864,113 @@
       <c r="S55" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="T55" s="13" t="s">
-        <v>56</v>
+      <c r="T55" s="13">
+        <v>3059</v>
       </c>
       <c r="U55" s="13">
-        <v>3059</v>
+        <v>2267</v>
       </c>
       <c r="V55" s="13">
-        <v>2267</v>
+        <v>2981</v>
       </c>
       <c r="W55" s="13">
-        <v>2981</v>
+        <v>2912</v>
       </c>
       <c r="X55" s="13">
-        <v>2912</v>
+        <v>3247</v>
       </c>
       <c r="Y55" s="13">
-        <v>3247</v>
+        <v>2939</v>
       </c>
       <c r="Z55" s="13">
-        <v>2939</v>
+        <v>2606</v>
       </c>
       <c r="AA55" s="13">
-        <v>2606</v>
+        <v>2382</v>
       </c>
       <c r="AB55" s="13">
-        <v>2382</v>
+        <v>2721</v>
       </c>
       <c r="AC55" s="13">
-        <v>2721</v>
+        <v>2462</v>
       </c>
       <c r="AD55" s="13">
-        <v>2462</v>
+        <v>1586</v>
       </c>
       <c r="AE55" s="13">
-        <v>1586</v>
+        <v>2729</v>
       </c>
       <c r="AF55" s="13">
-        <v>2729</v>
+        <v>3122</v>
       </c>
       <c r="AG55" s="13">
-        <v>3122</v>
+        <v>3573</v>
       </c>
       <c r="AH55" s="13">
-        <v>3573</v>
+        <v>2442</v>
       </c>
       <c r="AI55" s="13">
-        <v>2442</v>
+        <v>2152</v>
       </c>
       <c r="AJ55" s="13">
-        <v>2152</v>
+        <v>1232</v>
       </c>
       <c r="AK55" s="13">
-        <v>1232</v>
+        <v>2961</v>
       </c>
       <c r="AL55" s="13">
-        <v>2961</v>
+        <v>1799</v>
       </c>
       <c r="AM55" s="13">
-        <v>1799</v>
+        <v>1458</v>
       </c>
       <c r="AN55" s="13">
-        <v>1458</v>
+        <v>1312</v>
       </c>
       <c r="AO55" s="13">
-        <v>1312</v>
+        <v>1028</v>
       </c>
       <c r="AP55" s="13">
-        <v>1028</v>
+        <v>985</v>
       </c>
       <c r="AQ55" s="13">
-        <v>985</v>
+        <v>1412</v>
       </c>
       <c r="AR55" s="13">
-        <v>1412</v>
+        <v>1381</v>
       </c>
       <c r="AS55" s="13">
-        <v>1381</v>
+        <v>1332</v>
       </c>
       <c r="AT55" s="13">
-        <v>1332</v>
+        <v>1292</v>
       </c>
       <c r="AU55" s="13">
-        <v>1292</v>
+        <v>586</v>
       </c>
       <c r="AV55" s="13">
-        <v>586</v>
+        <v>715</v>
       </c>
       <c r="AW55" s="13">
-        <v>715</v>
+        <v>1016</v>
       </c>
       <c r="AX55" s="13">
-        <v>1016</v>
+        <v>1406</v>
       </c>
       <c r="AY55" s="13">
-        <v>1406</v>
+        <v>1167</v>
       </c>
       <c r="AZ55" s="13">
-        <v>1167</v>
+        <v>1696</v>
       </c>
       <c r="BA55" s="13">
-        <v>1696</v>
+        <v>685</v>
       </c>
       <c r="BB55" s="13">
-        <v>685</v>
+        <v>1131</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
         <v>74</v>
       </c>
@@ -7985,8 +7985,8 @@
       <c r="G56" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="H56" s="11" t="s">
-        <v>56</v>
+      <c r="H56" s="11">
+        <v>0</v>
       </c>
       <c r="I56" s="11">
         <v>0</v>
@@ -8021,8 +8021,8 @@
       <c r="S56" s="11">
         <v>0</v>
       </c>
-      <c r="T56" s="11">
-        <v>0</v>
+      <c r="T56" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="U56" s="11" t="s">
         <v>56</v>
@@ -8127,7 +8127,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="12" t="s">
         <v>75</v>
       </c>
@@ -8240,53 +8240,53 @@
       <c r="AM57" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="AN57" s="13" t="s">
-        <v>56</v>
+      <c r="AN57" s="13">
+        <v>992</v>
       </c>
       <c r="AO57" s="13">
-        <v>992</v>
+        <v>1650</v>
       </c>
       <c r="AP57" s="13">
-        <v>1650</v>
+        <v>1959</v>
       </c>
       <c r="AQ57" s="13">
-        <v>1959</v>
+        <v>1628</v>
       </c>
       <c r="AR57" s="13">
-        <v>1628</v>
+        <v>1161</v>
       </c>
       <c r="AS57" s="13">
-        <v>1161</v>
+        <v>1312</v>
       </c>
       <c r="AT57" s="13">
-        <v>1312</v>
+        <v>1513</v>
       </c>
       <c r="AU57" s="13">
-        <v>1513</v>
+        <v>657</v>
       </c>
       <c r="AV57" s="13">
-        <v>657</v>
+        <v>1510</v>
       </c>
       <c r="AW57" s="13">
-        <v>1510</v>
+        <v>1499</v>
       </c>
       <c r="AX57" s="13">
-        <v>1499</v>
+        <v>1383</v>
       </c>
       <c r="AY57" s="13">
-        <v>1383</v>
+        <v>44</v>
       </c>
       <c r="AZ57" s="13">
-        <v>44</v>
+        <v>579</v>
       </c>
       <c r="BA57" s="13">
-        <v>579</v>
+        <v>1632</v>
       </c>
       <c r="BB57" s="13">
-        <v>1632</v>
+        <v>586</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="8" t="s">
         <v>76</v>
       </c>
@@ -8343,7 +8343,7 @@
       <c r="BA58" s="9"/>
       <c r="BB58" s="9"/>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>55</v>
       </c>
@@ -8430,11 +8430,11 @@
       <c r="AE59" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="AF59" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG59" s="11">
-        <v>0</v>
+      <c r="AF59" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG59" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="AH59" s="11" t="s">
         <v>56</v>
@@ -8460,11 +8460,11 @@
       <c r="AO59" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="AP59" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="AQ59" s="11">
-        <v>0</v>
+      <c r="AP59" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ59" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="AR59" s="11" t="s">
         <v>56</v>
@@ -8500,7 +8500,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="12" t="s">
         <v>74</v>
       </c>
@@ -8587,11 +8587,11 @@
       <c r="AE60" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="AF60" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG60" s="13">
-        <v>0</v>
+      <c r="AF60" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG60" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="AH60" s="13" t="s">
         <v>56</v>
@@ -8617,11 +8617,11 @@
       <c r="AO60" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="AP60" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="AQ60" s="13">
-        <v>0</v>
+      <c r="AP60" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ60" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="AR60" s="13" t="s">
         <v>56</v>
@@ -8657,7 +8657,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="14" t="s">
         <v>77</v>
       </c>
@@ -8717,8 +8717,8 @@
       <c r="V61" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="W61" s="15" t="s">
-        <v>56</v>
+      <c r="W61" s="15">
+        <v>0</v>
       </c>
       <c r="X61" s="15">
         <v>0</v>
@@ -8814,7 +8814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="18" t="s">
         <v>80</v>
       </c>
@@ -8871,7 +8871,7 @@
       <c r="BA62" s="19"/>
       <c r="BB62" s="19"/>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="14" t="s">
         <v>81</v>
       </c>
@@ -8931,8 +8931,8 @@
       <c r="V63" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="W63" s="15" t="s">
-        <v>56</v>
+      <c r="W63" s="15">
+        <v>0</v>
       </c>
       <c r="X63" s="15">
         <v>0</v>
@@ -9028,164 +9028,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="16" t="s">
         <v>78</v>
       </c>
       <c r="C64" s="17"/>
       <c r="D64" s="17"/>
       <c r="E64" s="17">
-        <v>5892</v>
+        <v>7534</v>
       </c>
       <c r="F64" s="17">
-        <v>7534</v>
+        <v>4736</v>
       </c>
       <c r="G64" s="17">
-        <v>4736</v>
+        <v>4633</v>
       </c>
       <c r="H64" s="17">
-        <v>4633</v>
+        <v>6672</v>
       </c>
       <c r="I64" s="17">
-        <v>6672</v>
+        <v>4790</v>
       </c>
       <c r="J64" s="17">
-        <v>4790</v>
+        <v>5439</v>
       </c>
       <c r="K64" s="17">
-        <v>5439</v>
+        <v>4920</v>
       </c>
       <c r="L64" s="17">
-        <v>4920</v>
+        <v>5640</v>
       </c>
       <c r="M64" s="17">
-        <v>5640</v>
+        <v>5172</v>
       </c>
       <c r="N64" s="17">
-        <v>5172</v>
+        <v>4877</v>
       </c>
       <c r="O64" s="17">
-        <v>4877</v>
+        <v>4821</v>
       </c>
       <c r="P64" s="17">
-        <v>4821</v>
+        <v>3915</v>
       </c>
       <c r="Q64" s="17">
-        <v>3915</v>
+        <v>2752</v>
       </c>
       <c r="R64" s="17">
-        <v>2752</v>
+        <v>2514</v>
       </c>
       <c r="S64" s="17">
-        <v>2514</v>
+        <v>4438</v>
       </c>
       <c r="T64" s="17">
-        <v>4438</v>
+        <v>5207</v>
       </c>
       <c r="U64" s="17">
-        <v>5207</v>
+        <v>4076</v>
       </c>
       <c r="V64" s="17">
-        <v>4076</v>
+        <v>4962</v>
       </c>
       <c r="W64" s="17">
-        <v>4962</v>
+        <v>5198</v>
       </c>
       <c r="X64" s="17">
-        <v>5198</v>
+        <v>4975</v>
       </c>
       <c r="Y64" s="17">
-        <v>4975</v>
+        <v>4998</v>
       </c>
       <c r="Z64" s="17">
-        <v>4998</v>
+        <v>4512</v>
       </c>
       <c r="AA64" s="17">
-        <v>4512</v>
+        <v>4046</v>
       </c>
       <c r="AB64" s="17">
-        <v>4046</v>
+        <v>4353</v>
       </c>
       <c r="AC64" s="17">
-        <v>4353</v>
+        <v>4500</v>
       </c>
       <c r="AD64" s="17">
-        <v>4500</v>
+        <v>3581</v>
       </c>
       <c r="AE64" s="17">
-        <v>3581</v>
+        <v>4463</v>
       </c>
       <c r="AF64" s="17">
-        <v>4463</v>
+        <v>4651</v>
       </c>
       <c r="AG64" s="17">
-        <v>4651</v>
+        <v>5079</v>
       </c>
       <c r="AH64" s="17">
-        <v>5079</v>
+        <v>4525</v>
       </c>
       <c r="AI64" s="17">
-        <v>4525</v>
+        <v>3716</v>
       </c>
       <c r="AJ64" s="17">
-        <v>3716</v>
+        <v>2586</v>
       </c>
       <c r="AK64" s="17">
-        <v>2586</v>
+        <v>4701</v>
       </c>
       <c r="AL64" s="17">
-        <v>4701</v>
+        <v>2694</v>
       </c>
       <c r="AM64" s="17">
-        <v>2694</v>
+        <v>2911</v>
       </c>
       <c r="AN64" s="17">
-        <v>2911</v>
+        <v>3505</v>
       </c>
       <c r="AO64" s="17">
-        <v>3505</v>
+        <v>4129</v>
       </c>
       <c r="AP64" s="17">
-        <v>4129</v>
+        <v>4440</v>
       </c>
       <c r="AQ64" s="17">
-        <v>4440</v>
+        <v>5282</v>
       </c>
       <c r="AR64" s="17">
-        <v>5282</v>
+        <v>4104</v>
       </c>
       <c r="AS64" s="17">
-        <v>4104</v>
+        <v>4224</v>
       </c>
       <c r="AT64" s="17">
-        <v>4224</v>
+        <v>4084</v>
       </c>
       <c r="AU64" s="17">
-        <v>4084</v>
+        <v>2153</v>
       </c>
       <c r="AV64" s="17">
-        <v>2153</v>
+        <v>3221</v>
       </c>
       <c r="AW64" s="17">
-        <v>3221</v>
+        <v>4381</v>
       </c>
       <c r="AX64" s="17">
-        <v>4381</v>
+        <v>4511</v>
       </c>
       <c r="AY64" s="17">
-        <v>4511</v>
+        <v>2827</v>
       </c>
       <c r="AZ64" s="17">
-        <v>2827</v>
+        <v>3638</v>
       </c>
       <c r="BA64" s="17">
-        <v>3638</v>
+        <v>3246</v>
       </c>
       <c r="BB64" s="17">
-        <v>3246</v>
+        <v>2746</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -9240,7 +9240,7 @@
       <c r="BA65" s="1"/>
       <c r="BB65" s="1"/>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -9295,7 +9295,7 @@
       <c r="BA66" s="1"/>
       <c r="BB66" s="1"/>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -9350,7 +9350,7 @@
       <c r="BA67" s="1"/>
       <c r="BB67" s="1"/>
     </row>
-    <row r="68" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B68" s="7" t="s">
         <v>82</v>
       </c>
@@ -9507,7 +9507,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -9562,7 +9562,7 @@
       <c r="BA69" s="1"/>
       <c r="BB69" s="1"/>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="8" t="s">
         <v>82</v>
       </c>
@@ -9619,7 +9619,7 @@
       <c r="BA70" s="9"/>
       <c r="BB70" s="9"/>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
         <v>55</v>
       </c>
@@ -9708,77 +9708,77 @@
       <c r="AE71" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="AF71" s="11" t="s">
-        <v>56</v>
+      <c r="AF71" s="11">
+        <v>0</v>
       </c>
       <c r="AG71" s="11">
         <v>0</v>
       </c>
       <c r="AH71" s="11">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="AI71" s="11">
-        <v>232</v>
+        <v>0</v>
       </c>
       <c r="AJ71" s="11">
-        <v>0</v>
+        <v>3209</v>
       </c>
       <c r="AK71" s="11">
-        <v>3209</v>
+        <v>699</v>
       </c>
       <c r="AL71" s="11">
-        <v>699</v>
+        <v>2268</v>
       </c>
       <c r="AM71" s="11">
-        <v>2268</v>
+        <v>67</v>
       </c>
       <c r="AN71" s="11">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="AO71" s="11">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="AP71" s="11">
-        <v>87</v>
+        <v>1</v>
       </c>
       <c r="AQ71" s="11">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AR71" s="11">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="AS71" s="11">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="AT71" s="11">
-        <v>117</v>
+        <v>4</v>
       </c>
       <c r="AU71" s="11">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="AV71" s="11">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AW71" s="11">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="AX71" s="11">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="AY71" s="11">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AZ71" s="11">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="BA71" s="11">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="BB71" s="11">
-        <v>13</v>
+        <v>198</v>
       </c>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="12" t="s">
         <v>57</v>
       </c>
@@ -9787,16 +9787,16 @@
       </c>
       <c r="D72" s="13"/>
       <c r="E72" s="13">
-        <v>163</v>
+        <v>22</v>
       </c>
       <c r="F72" s="13">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G72" s="13">
         <v>0</v>
       </c>
-      <c r="H72" s="13">
-        <v>0</v>
+      <c r="H72" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="I72" s="13" t="s">
         <v>56</v>
@@ -9937,7 +9937,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
         <v>59</v>
       </c>
@@ -9946,53 +9946,53 @@
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11">
-        <v>33588</v>
+        <v>85512</v>
       </c>
       <c r="F73" s="11">
-        <v>85512</v>
+        <v>33914</v>
       </c>
       <c r="G73" s="11">
-        <v>33914</v>
+        <v>28444</v>
       </c>
       <c r="H73" s="11">
-        <v>28444</v>
+        <v>66483</v>
       </c>
       <c r="I73" s="11">
-        <v>66483</v>
+        <v>43626</v>
       </c>
       <c r="J73" s="11">
-        <v>43626</v>
+        <v>63730</v>
       </c>
       <c r="K73" s="11">
-        <v>63730</v>
+        <v>46814</v>
       </c>
       <c r="L73" s="11">
-        <v>46814</v>
+        <v>54195</v>
       </c>
       <c r="M73" s="11">
-        <v>54195</v>
+        <v>58003</v>
       </c>
       <c r="N73" s="11">
-        <v>58003</v>
+        <v>51406</v>
       </c>
       <c r="O73" s="11">
-        <v>51406</v>
+        <v>69111</v>
       </c>
       <c r="P73" s="11">
-        <v>69111</v>
+        <v>43103</v>
       </c>
       <c r="Q73" s="11">
-        <v>43103</v>
+        <v>25479</v>
       </c>
       <c r="R73" s="11">
-        <v>25479</v>
+        <v>42289</v>
       </c>
       <c r="S73" s="11">
-        <v>42289</v>
-      </c>
-      <c r="T73" s="11">
         <v>44658</v>
       </c>
+      <c r="T73" s="11" t="s">
+        <v>56</v>
+      </c>
       <c r="U73" s="11" t="s">
         <v>56</v>
       </c>
@@ -10096,7 +10096,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B74" s="12" t="s">
         <v>60</v>
       </c>
@@ -10105,52 +10105,52 @@
       </c>
       <c r="D74" s="13"/>
       <c r="E74" s="13">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="F74" s="13">
-        <v>119</v>
+        <v>6</v>
       </c>
       <c r="G74" s="13">
-        <v>6</v>
-      </c>
-      <c r="H74" s="13">
         <v>117</v>
       </c>
+      <c r="H74" s="13" t="s">
+        <v>56</v>
+      </c>
       <c r="I74" s="13" t="s">
         <v>56</v>
       </c>
       <c r="J74" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="K74" s="13" t="s">
-        <v>56</v>
+      <c r="K74" s="13">
+        <v>785</v>
       </c>
       <c r="L74" s="13">
-        <v>785</v>
+        <v>0</v>
       </c>
       <c r="M74" s="13">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="N74" s="13">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="O74" s="13">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="P74" s="13">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="Q74" s="13">
-        <v>106</v>
+        <v>590</v>
       </c>
       <c r="R74" s="13">
-        <v>590</v>
+        <v>28</v>
       </c>
       <c r="S74" s="13">
-        <v>28</v>
-      </c>
-      <c r="T74" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="T74" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="U74" s="13" t="s">
         <v>56</v>
@@ -10255,7 +10255,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
         <v>61</v>
       </c>
@@ -10264,53 +10264,53 @@
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="F75" s="11">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="G75" s="11">
-        <v>6</v>
+        <v>122</v>
       </c>
       <c r="H75" s="11">
+        <v>46</v>
+      </c>
+      <c r="I75" s="11">
+        <v>107</v>
+      </c>
+      <c r="J75" s="11">
         <v>122</v>
       </c>
-      <c r="I75" s="11">
-        <v>46</v>
-      </c>
-      <c r="J75" s="11">
-        <v>107</v>
-      </c>
       <c r="K75" s="11">
-        <v>122</v>
+        <v>458</v>
       </c>
       <c r="L75" s="11">
-        <v>458</v>
+        <v>228</v>
       </c>
       <c r="M75" s="11">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="N75" s="11">
-        <v>246</v>
+        <v>61</v>
       </c>
       <c r="O75" s="11">
-        <v>61</v>
+        <v>139</v>
       </c>
       <c r="P75" s="11">
-        <v>139</v>
+        <v>49</v>
       </c>
       <c r="Q75" s="11">
-        <v>49</v>
+        <v>156</v>
       </c>
       <c r="R75" s="11">
-        <v>156</v>
+        <v>218</v>
       </c>
       <c r="S75" s="11">
-        <v>218</v>
-      </c>
-      <c r="T75" s="11">
         <v>50</v>
       </c>
+      <c r="T75" s="11" t="s">
+        <v>56</v>
+      </c>
       <c r="U75" s="11" t="s">
         <v>56</v>
       </c>
@@ -10414,7 +10414,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="12" t="s">
         <v>62</v>
       </c>
@@ -10423,53 +10423,53 @@
       </c>
       <c r="D76" s="13"/>
       <c r="E76" s="13">
-        <v>52486</v>
+        <v>41471</v>
       </c>
       <c r="F76" s="13">
-        <v>41471</v>
+        <v>40914</v>
       </c>
       <c r="G76" s="13">
-        <v>40914</v>
+        <v>65937</v>
       </c>
       <c r="H76" s="13">
-        <v>65937</v>
+        <v>68567</v>
       </c>
       <c r="I76" s="13">
-        <v>68567</v>
+        <v>66345</v>
       </c>
       <c r="J76" s="13">
-        <v>66345</v>
+        <v>72154</v>
       </c>
       <c r="K76" s="13">
-        <v>72154</v>
+        <v>70173</v>
       </c>
       <c r="L76" s="13">
-        <v>70173</v>
+        <v>54267</v>
       </c>
       <c r="M76" s="13">
-        <v>54267</v>
+        <v>73087</v>
       </c>
       <c r="N76" s="13">
-        <v>73087</v>
+        <v>66895</v>
       </c>
       <c r="O76" s="13">
-        <v>66895</v>
+        <v>61491</v>
       </c>
       <c r="P76" s="13">
-        <v>61491</v>
+        <v>63058</v>
       </c>
       <c r="Q76" s="13">
-        <v>63058</v>
+        <v>50234</v>
       </c>
       <c r="R76" s="13">
-        <v>50234</v>
+        <v>23122</v>
       </c>
       <c r="S76" s="13">
-        <v>23122</v>
-      </c>
-      <c r="T76" s="13">
         <v>68965</v>
       </c>
+      <c r="T76" s="13" t="s">
+        <v>56</v>
+      </c>
       <c r="U76" s="13" t="s">
         <v>56</v>
       </c>
@@ -10573,7 +10573,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
         <v>63</v>
       </c>
@@ -10582,28 +10582,28 @@
       </c>
       <c r="D77" s="11"/>
       <c r="E77" s="11">
-        <v>7995</v>
+        <v>0</v>
       </c>
       <c r="F77" s="11">
         <v>0</v>
       </c>
       <c r="G77" s="11">
-        <v>0</v>
-      </c>
-      <c r="H77" s="11">
         <v>432</v>
       </c>
+      <c r="H77" s="11" t="s">
+        <v>56</v>
+      </c>
       <c r="I77" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="J77" s="11" t="s">
-        <v>56</v>
+      <c r="J77" s="11">
+        <v>0</v>
       </c>
       <c r="K77" s="11">
-        <v>0</v>
+        <v>3160</v>
       </c>
       <c r="L77" s="11">
-        <v>3160</v>
+        <v>0</v>
       </c>
       <c r="M77" s="11">
         <v>0</v>
@@ -10626,8 +10626,8 @@
       <c r="S77" s="11">
         <v>0</v>
       </c>
-      <c r="T77" s="11">
-        <v>0</v>
+      <c r="T77" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="U77" s="11" t="s">
         <v>56</v>
@@ -10732,7 +10732,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B78" s="12" t="s">
         <v>64</v>
       </c>
@@ -10749,8 +10749,8 @@
       <c r="G78" s="13">
         <v>0</v>
       </c>
-      <c r="H78" s="13">
-        <v>0</v>
+      <c r="H78" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="I78" s="13" t="s">
         <v>56</v>
@@ -10891,7 +10891,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
         <v>65</v>
       </c>
@@ -10900,89 +10900,89 @@
       </c>
       <c r="D79" s="11"/>
       <c r="E79" s="11">
-        <v>1436</v>
+        <v>854</v>
       </c>
       <c r="F79" s="11">
-        <v>854</v>
+        <v>1135</v>
       </c>
       <c r="G79" s="11">
-        <v>1135</v>
+        <v>3298</v>
       </c>
       <c r="H79" s="11">
-        <v>3298</v>
+        <v>76</v>
       </c>
       <c r="I79" s="11">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="J79" s="11">
-        <v>139</v>
+        <v>2258</v>
       </c>
       <c r="K79" s="11">
-        <v>2258</v>
+        <v>6922</v>
       </c>
       <c r="L79" s="11">
-        <v>6922</v>
+        <v>1524</v>
       </c>
       <c r="M79" s="11">
-        <v>1524</v>
+        <v>88</v>
       </c>
       <c r="N79" s="11">
-        <v>88</v>
+        <v>16937</v>
       </c>
       <c r="O79" s="11">
-        <v>16937</v>
+        <v>42879</v>
       </c>
       <c r="P79" s="11">
-        <v>42879</v>
+        <v>24347</v>
       </c>
       <c r="Q79" s="11">
-        <v>24347</v>
+        <v>145</v>
       </c>
       <c r="R79" s="11">
-        <v>145</v>
+        <v>303</v>
       </c>
       <c r="S79" s="11">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="T79" s="11">
-        <v>276</v>
+        <v>27</v>
       </c>
       <c r="U79" s="11">
-        <v>27</v>
+        <v>4433</v>
       </c>
       <c r="V79" s="11">
-        <v>4433</v>
+        <v>160</v>
       </c>
       <c r="W79" s="11">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="X79" s="11">
-        <v>0</v>
+        <v>23500</v>
       </c>
       <c r="Y79" s="11">
-        <v>23500</v>
+        <v>17</v>
       </c>
       <c r="Z79" s="11">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="AA79" s="11">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="AB79" s="11">
-        <v>107</v>
+        <v>8360</v>
       </c>
       <c r="AC79" s="11">
-        <v>8360</v>
+        <v>1878</v>
       </c>
       <c r="AD79" s="11">
-        <v>1878</v>
+        <v>56</v>
       </c>
       <c r="AE79" s="11">
-        <v>56</v>
-      </c>
-      <c r="AF79" s="11">
         <v>80</v>
       </c>
+      <c r="AF79" s="11" t="s">
+        <v>56</v>
+      </c>
       <c r="AG79" s="11" t="s">
         <v>56</v>
       </c>
@@ -11050,7 +11050,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B80" s="12" t="s">
         <v>66</v>
       </c>
@@ -11067,8 +11067,8 @@
       <c r="G80" s="13">
         <v>0</v>
       </c>
-      <c r="H80" s="13">
-        <v>0</v>
+      <c r="H80" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="I80" s="13" t="s">
         <v>56</v>
@@ -11209,7 +11209,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
         <v>67</v>
       </c>
@@ -11218,53 +11218,53 @@
       </c>
       <c r="D81" s="11"/>
       <c r="E81" s="11">
-        <v>2379</v>
+        <v>2759</v>
       </c>
       <c r="F81" s="11">
-        <v>2759</v>
+        <v>2454</v>
       </c>
       <c r="G81" s="11">
-        <v>2454</v>
+        <v>1802</v>
       </c>
       <c r="H81" s="11">
-        <v>1802</v>
+        <v>664</v>
       </c>
       <c r="I81" s="11">
-        <v>664</v>
+        <v>1933</v>
       </c>
       <c r="J81" s="11">
-        <v>1933</v>
+        <v>505</v>
       </c>
       <c r="K81" s="11">
-        <v>505</v>
+        <v>3548</v>
       </c>
       <c r="L81" s="11">
-        <v>3548</v>
+        <v>122</v>
       </c>
       <c r="M81" s="11">
-        <v>122</v>
+        <v>1381</v>
       </c>
       <c r="N81" s="11">
-        <v>1381</v>
+        <v>353</v>
       </c>
       <c r="O81" s="11">
-        <v>353</v>
+        <v>780</v>
       </c>
       <c r="P81" s="11">
-        <v>780</v>
+        <v>1770</v>
       </c>
       <c r="Q81" s="11">
-        <v>1770</v>
+        <v>533</v>
       </c>
       <c r="R81" s="11">
-        <v>533</v>
+        <v>1780</v>
       </c>
       <c r="S81" s="11">
-        <v>1780</v>
-      </c>
-      <c r="T81" s="11">
         <v>1175</v>
       </c>
+      <c r="T81" s="11" t="s">
+        <v>56</v>
+      </c>
       <c r="U81" s="11" t="s">
         <v>56</v>
       </c>
@@ -11368,7 +11368,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B82" s="12" t="s">
         <v>68</v>
       </c>
@@ -11377,53 +11377,53 @@
       </c>
       <c r="D82" s="13"/>
       <c r="E82" s="13">
-        <v>3434</v>
+        <v>1154</v>
       </c>
       <c r="F82" s="13">
-        <v>1154</v>
+        <v>3186</v>
       </c>
       <c r="G82" s="13">
-        <v>3186</v>
+        <v>3573</v>
       </c>
       <c r="H82" s="13">
-        <v>3573</v>
+        <v>5242</v>
       </c>
       <c r="I82" s="13">
-        <v>5242</v>
+        <v>6818</v>
       </c>
       <c r="J82" s="13">
-        <v>6818</v>
+        <v>3668</v>
       </c>
       <c r="K82" s="13">
-        <v>3668</v>
+        <v>920</v>
       </c>
       <c r="L82" s="13">
-        <v>920</v>
+        <v>4236</v>
       </c>
       <c r="M82" s="13">
-        <v>4236</v>
+        <v>1984</v>
       </c>
       <c r="N82" s="13">
-        <v>1984</v>
+        <v>1124</v>
       </c>
       <c r="O82" s="13">
-        <v>1124</v>
+        <v>2575</v>
       </c>
       <c r="P82" s="13">
-        <v>2575</v>
+        <v>3346</v>
       </c>
       <c r="Q82" s="13">
-        <v>3346</v>
+        <v>3830</v>
       </c>
       <c r="R82" s="13">
-        <v>3830</v>
+        <v>5571</v>
       </c>
       <c r="S82" s="13">
-        <v>5571</v>
-      </c>
-      <c r="T82" s="13">
         <v>5948</v>
       </c>
+      <c r="T82" s="13" t="s">
+        <v>56</v>
+      </c>
       <c r="U82" s="13" t="s">
         <v>56</v>
       </c>
@@ -11527,7 +11527,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B83" s="10" t="s">
         <v>69</v>
       </c>
@@ -11536,19 +11536,19 @@
       </c>
       <c r="D83" s="11"/>
       <c r="E83" s="11">
-        <v>25142</v>
+        <v>4246</v>
       </c>
       <c r="F83" s="11">
-        <v>4246</v>
+        <v>8158</v>
       </c>
       <c r="G83" s="11">
-        <v>8158</v>
+        <v>1638</v>
       </c>
       <c r="H83" s="11">
-        <v>1638</v>
+        <v>5538</v>
       </c>
       <c r="I83" s="11">
-        <v>5538</v>
+        <v>0</v>
       </c>
       <c r="J83" s="11">
         <v>0</v>
@@ -11557,31 +11557,31 @@
         <v>0</v>
       </c>
       <c r="L83" s="11">
-        <v>0</v>
+        <v>19390</v>
       </c>
       <c r="M83" s="11">
-        <v>19390</v>
+        <v>2335</v>
       </c>
       <c r="N83" s="11">
-        <v>2335</v>
+        <v>1680</v>
       </c>
       <c r="O83" s="11">
-        <v>1680</v>
+        <v>13085</v>
       </c>
       <c r="P83" s="11">
-        <v>13085</v>
+        <v>7381</v>
       </c>
       <c r="Q83" s="11">
-        <v>7381</v>
+        <v>650</v>
       </c>
       <c r="R83" s="11">
-        <v>650</v>
+        <v>472</v>
       </c>
       <c r="S83" s="11">
-        <v>472</v>
-      </c>
-      <c r="T83" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="T83" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="U83" s="11" t="s">
         <v>56</v>
@@ -11686,7 +11686,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B84" s="12" t="s">
         <v>70</v>
       </c>
@@ -11695,16 +11695,16 @@
       </c>
       <c r="D84" s="13"/>
       <c r="E84" s="13">
-        <v>1710</v>
+        <v>0</v>
       </c>
       <c r="F84" s="13">
-        <v>0</v>
+        <v>4112</v>
       </c>
       <c r="G84" s="13">
-        <v>4112</v>
-      </c>
-      <c r="H84" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H84" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="I84" s="13" t="s">
         <v>56</v>
@@ -11845,7 +11845,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
         <v>72</v>
       </c>
@@ -11898,113 +11898,113 @@
       <c r="S85" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="T85" s="11" t="s">
-        <v>56</v>
+      <c r="T85" s="11">
+        <v>94011</v>
       </c>
       <c r="U85" s="11">
-        <v>94011</v>
+        <v>73945</v>
       </c>
       <c r="V85" s="11">
-        <v>73945</v>
+        <v>79937</v>
       </c>
       <c r="W85" s="11">
-        <v>79937</v>
+        <v>95548</v>
       </c>
       <c r="X85" s="11">
-        <v>95548</v>
+        <v>82113</v>
       </c>
       <c r="Y85" s="11">
-        <v>82113</v>
+        <v>96648</v>
       </c>
       <c r="Z85" s="11">
-        <v>96648</v>
+        <v>93449</v>
       </c>
       <c r="AA85" s="11">
-        <v>93449</v>
+        <v>78069</v>
       </c>
       <c r="AB85" s="11">
-        <v>78069</v>
+        <v>87642</v>
       </c>
       <c r="AC85" s="11">
-        <v>87642</v>
+        <v>113109</v>
       </c>
       <c r="AD85" s="11">
-        <v>113109</v>
+        <v>106505</v>
       </c>
       <c r="AE85" s="11">
-        <v>106505</v>
+        <v>88485</v>
       </c>
       <c r="AF85" s="11">
-        <v>88485</v>
+        <v>100316</v>
       </c>
       <c r="AG85" s="11">
-        <v>100316</v>
+        <v>121252</v>
       </c>
       <c r="AH85" s="11">
-        <v>121252</v>
+        <v>163838</v>
       </c>
       <c r="AI85" s="11">
-        <v>163838</v>
+        <v>132081</v>
       </c>
       <c r="AJ85" s="11">
-        <v>132081</v>
+        <v>93840</v>
       </c>
       <c r="AK85" s="11">
-        <v>93840</v>
+        <v>144235</v>
       </c>
       <c r="AL85" s="11">
-        <v>144235</v>
+        <v>84545</v>
       </c>
       <c r="AM85" s="11">
-        <v>84545</v>
+        <v>112058</v>
       </c>
       <c r="AN85" s="11">
-        <v>112058</v>
+        <v>121188</v>
       </c>
       <c r="AO85" s="11">
-        <v>121188</v>
+        <v>205854</v>
       </c>
       <c r="AP85" s="11">
-        <v>205854</v>
+        <v>198388</v>
       </c>
       <c r="AQ85" s="11">
-        <v>198388</v>
+        <v>247488</v>
       </c>
       <c r="AR85" s="11">
-        <v>247488</v>
+        <v>231122</v>
       </c>
       <c r="AS85" s="11">
-        <v>231122</v>
+        <v>249075</v>
       </c>
       <c r="AT85" s="11">
-        <v>249075</v>
+        <v>184744</v>
       </c>
       <c r="AU85" s="11">
-        <v>184744</v>
+        <v>129067</v>
       </c>
       <c r="AV85" s="11">
-        <v>129067</v>
+        <v>143575</v>
       </c>
       <c r="AW85" s="11">
-        <v>143575</v>
+        <v>280420</v>
       </c>
       <c r="AX85" s="11">
-        <v>280420</v>
+        <v>262114</v>
       </c>
       <c r="AY85" s="11">
-        <v>262114</v>
+        <v>241008</v>
       </c>
       <c r="AZ85" s="11">
-        <v>241008</v>
+        <v>198431</v>
       </c>
       <c r="BA85" s="11">
-        <v>198431</v>
+        <v>146356</v>
       </c>
       <c r="BB85" s="11">
-        <v>146356</v>
+        <v>158671</v>
       </c>
     </row>
-    <row r="86" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B86" s="12" t="s">
         <v>73</v>
       </c>
@@ -12057,113 +12057,113 @@
       <c r="S86" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="T86" s="13" t="s">
-        <v>56</v>
+      <c r="T86" s="13">
+        <v>76715</v>
       </c>
       <c r="U86" s="13">
-        <v>76715</v>
+        <v>57529</v>
       </c>
       <c r="V86" s="13">
-        <v>57529</v>
+        <v>83026</v>
       </c>
       <c r="W86" s="13">
-        <v>83026</v>
+        <v>82971</v>
       </c>
       <c r="X86" s="13">
-        <v>82971</v>
+        <v>102665</v>
       </c>
       <c r="Y86" s="13">
-        <v>102665</v>
+        <v>121223</v>
       </c>
       <c r="Z86" s="13">
-        <v>121223</v>
+        <v>84959</v>
       </c>
       <c r="AA86" s="13">
-        <v>84959</v>
+        <v>79579</v>
       </c>
       <c r="AB86" s="13">
-        <v>79579</v>
+        <v>99804</v>
       </c>
       <c r="AC86" s="13">
-        <v>99804</v>
+        <v>84884</v>
       </c>
       <c r="AD86" s="13">
-        <v>84884</v>
+        <v>55835</v>
       </c>
       <c r="AE86" s="13">
-        <v>55835</v>
+        <v>98828</v>
       </c>
       <c r="AF86" s="13">
-        <v>98828</v>
+        <v>165657</v>
       </c>
       <c r="AG86" s="13">
-        <v>165657</v>
+        <v>179585</v>
       </c>
       <c r="AH86" s="13">
-        <v>179585</v>
+        <v>115945</v>
       </c>
       <c r="AI86" s="13">
-        <v>115945</v>
+        <v>115065</v>
       </c>
       <c r="AJ86" s="13">
-        <v>115065</v>
+        <v>61421</v>
       </c>
       <c r="AK86" s="13">
-        <v>61421</v>
+        <v>135126</v>
       </c>
       <c r="AL86" s="13">
-        <v>135126</v>
+        <v>71677</v>
       </c>
       <c r="AM86" s="13">
-        <v>71677</v>
+        <v>65301</v>
       </c>
       <c r="AN86" s="13">
-        <v>65301</v>
+        <v>98477</v>
       </c>
       <c r="AO86" s="13">
-        <v>98477</v>
+        <v>74436</v>
       </c>
       <c r="AP86" s="13">
-        <v>74436</v>
+        <v>73649</v>
       </c>
       <c r="AQ86" s="13">
-        <v>73649</v>
+        <v>96443</v>
       </c>
       <c r="AR86" s="13">
-        <v>96443</v>
+        <v>136975</v>
       </c>
       <c r="AS86" s="13">
-        <v>136975</v>
+        <v>132620</v>
       </c>
       <c r="AT86" s="13">
-        <v>132620</v>
+        <v>128120</v>
       </c>
       <c r="AU86" s="13">
-        <v>128120</v>
+        <v>62055</v>
       </c>
       <c r="AV86" s="13">
-        <v>62055</v>
+        <v>68661</v>
       </c>
       <c r="AW86" s="13">
-        <v>68661</v>
+        <v>96641</v>
       </c>
       <c r="AX86" s="13">
-        <v>96641</v>
+        <v>136364</v>
       </c>
       <c r="AY86" s="13">
-        <v>136364</v>
+        <v>113045</v>
       </c>
       <c r="AZ86" s="13">
-        <v>113045</v>
+        <v>162370</v>
       </c>
       <c r="BA86" s="13">
-        <v>162370</v>
+        <v>71304</v>
       </c>
       <c r="BB86" s="13">
-        <v>71304</v>
+        <v>111970</v>
       </c>
     </row>
-    <row r="87" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B87" s="10" t="s">
         <v>74</v>
       </c>
@@ -12180,26 +12180,26 @@
       <c r="G87" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="H87" s="11" t="s">
-        <v>56</v>
+      <c r="H87" s="11">
+        <v>4377</v>
       </c>
       <c r="I87" s="11">
-        <v>4377</v>
+        <v>0</v>
       </c>
       <c r="J87" s="11">
-        <v>0</v>
+        <v>2424</v>
       </c>
       <c r="K87" s="11">
-        <v>2424</v>
+        <v>0</v>
       </c>
       <c r="L87" s="11">
         <v>0</v>
       </c>
       <c r="M87" s="11">
-        <v>0</v>
+        <v>9630</v>
       </c>
       <c r="N87" s="11">
-        <v>9630</v>
+        <v>0</v>
       </c>
       <c r="O87" s="11">
         <v>0</v>
@@ -12216,8 +12216,8 @@
       <c r="S87" s="11">
         <v>0</v>
       </c>
-      <c r="T87" s="11">
-        <v>0</v>
+      <c r="T87" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="U87" s="11" t="s">
         <v>56</v>
@@ -12322,7 +12322,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="88" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B88" s="12" t="s">
         <v>75</v>
       </c>
@@ -12435,53 +12435,53 @@
       <c r="AM88" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="AN88" s="13" t="s">
-        <v>56</v>
+      <c r="AN88" s="13">
+        <v>10914</v>
       </c>
       <c r="AO88" s="13">
-        <v>10914</v>
+        <v>18152</v>
       </c>
       <c r="AP88" s="13">
-        <v>18152</v>
+        <v>21550</v>
       </c>
       <c r="AQ88" s="13">
-        <v>21550</v>
+        <v>17904</v>
       </c>
       <c r="AR88" s="13">
-        <v>17904</v>
+        <v>17299</v>
       </c>
       <c r="AS88" s="13">
-        <v>17299</v>
+        <v>19557</v>
       </c>
       <c r="AT88" s="13">
-        <v>19557</v>
+        <v>22545</v>
       </c>
       <c r="AU88" s="13">
-        <v>22545</v>
+        <v>9790</v>
       </c>
       <c r="AV88" s="13">
-        <v>9790</v>
+        <v>22505</v>
       </c>
       <c r="AW88" s="13">
-        <v>22505</v>
+        <v>22342</v>
       </c>
       <c r="AX88" s="13">
-        <v>22342</v>
+        <v>20610</v>
       </c>
       <c r="AY88" s="13">
-        <v>20610</v>
+        <v>2210</v>
       </c>
       <c r="AZ88" s="13">
-        <v>2210</v>
+        <v>11289</v>
       </c>
       <c r="BA88" s="13">
-        <v>11289</v>
+        <v>31819</v>
       </c>
       <c r="BB88" s="13">
-        <v>31819</v>
+        <v>11437</v>
       </c>
     </row>
-    <row r="89" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B89" s="8" t="s">
         <v>84</v>
       </c>
@@ -12538,7 +12538,7 @@
       <c r="BA89" s="9"/>
       <c r="BB89" s="9"/>
     </row>
-    <row r="90" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B90" s="10" t="s">
         <v>55</v>
       </c>
@@ -12627,8 +12627,8 @@
       <c r="AE90" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="AF90" s="11" t="s">
-        <v>56</v>
+      <c r="AF90" s="11">
+        <v>0</v>
       </c>
       <c r="AG90" s="11">
         <v>0</v>
@@ -12697,7 +12697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B91" s="12" t="s">
         <v>74</v>
       </c>
@@ -12786,8 +12786,8 @@
       <c r="AE91" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="AF91" s="13" t="s">
-        <v>56</v>
+      <c r="AF91" s="13">
+        <v>0</v>
       </c>
       <c r="AG91" s="13">
         <v>0</v>
@@ -12856,7 +12856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B92" s="14" t="s">
         <v>77</v>
       </c>
@@ -12918,8 +12918,8 @@
       <c r="V92" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="W92" s="15" t="s">
-        <v>56</v>
+      <c r="W92" s="15">
+        <v>0</v>
       </c>
       <c r="X92" s="15">
         <v>0</v>
@@ -13015,7 +13015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B93" s="18" t="s">
         <v>85</v>
       </c>
@@ -13072,7 +13072,7 @@
       <c r="BA93" s="19"/>
       <c r="BB93" s="19"/>
     </row>
-    <row r="94" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B94" s="14" t="s">
         <v>81</v>
       </c>
@@ -13134,8 +13134,8 @@
       <c r="V94" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="W94" s="15" t="s">
-        <v>56</v>
+      <c r="W94" s="15">
+        <v>0</v>
       </c>
       <c r="X94" s="15">
         <v>0</v>
@@ -13231,7 +13231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B95" s="8" t="s">
         <v>86</v>
       </c>
@@ -13288,7 +13288,7 @@
       <c r="BA95" s="9"/>
       <c r="BB95" s="9"/>
     </row>
-    <row r="96" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B96" s="10" t="s">
         <v>87</v>
       </c>
@@ -13350,8 +13350,8 @@
       <c r="V96" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="W96" s="11" t="s">
-        <v>56</v>
+      <c r="W96" s="11">
+        <v>0</v>
       </c>
       <c r="X96" s="11">
         <v>0</v>
@@ -13447,164 +13447,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B97" s="16" t="s">
         <v>78</v>
       </c>
       <c r="C97" s="17"/>
       <c r="D97" s="17"/>
       <c r="E97" s="17">
-        <v>128482</v>
+        <v>136191</v>
       </c>
       <c r="F97" s="17">
-        <v>136191</v>
+        <v>93885</v>
       </c>
       <c r="G97" s="17">
-        <v>93885</v>
+        <v>105363</v>
       </c>
       <c r="H97" s="17">
-        <v>105363</v>
+        <v>150993</v>
       </c>
       <c r="I97" s="17">
-        <v>150993</v>
+        <v>118968</v>
       </c>
       <c r="J97" s="17">
-        <v>118968</v>
+        <v>144861</v>
       </c>
       <c r="K97" s="17">
-        <v>144861</v>
+        <v>132780</v>
       </c>
       <c r="L97" s="17">
-        <v>132780</v>
+        <v>133962</v>
       </c>
       <c r="M97" s="17">
-        <v>133962</v>
+        <v>146838</v>
       </c>
       <c r="N97" s="17">
-        <v>146838</v>
+        <v>138480</v>
       </c>
       <c r="O97" s="17">
-        <v>138480</v>
+        <v>190115</v>
       </c>
       <c r="P97" s="17">
-        <v>190115</v>
+        <v>143160</v>
       </c>
       <c r="Q97" s="17">
-        <v>143160</v>
+        <v>81617</v>
       </c>
       <c r="R97" s="17">
-        <v>81617</v>
+        <v>73783</v>
       </c>
       <c r="S97" s="17">
-        <v>73783</v>
+        <v>121072</v>
       </c>
       <c r="T97" s="17">
-        <v>121072</v>
+        <v>170753</v>
       </c>
       <c r="U97" s="17">
-        <v>170753</v>
+        <v>135907</v>
       </c>
       <c r="V97" s="17">
-        <v>135907</v>
+        <v>163123</v>
       </c>
       <c r="W97" s="17">
-        <v>163123</v>
+        <v>178519</v>
       </c>
       <c r="X97" s="17">
-        <v>178519</v>
+        <v>208278</v>
       </c>
       <c r="Y97" s="17">
-        <v>208278</v>
+        <v>217888</v>
       </c>
       <c r="Z97" s="17">
-        <v>217888</v>
+        <v>178438</v>
       </c>
       <c r="AA97" s="17">
-        <v>178438</v>
+        <v>157755</v>
       </c>
       <c r="AB97" s="17">
-        <v>157755</v>
+        <v>195806</v>
       </c>
       <c r="AC97" s="17">
-        <v>195806</v>
+        <v>199871</v>
       </c>
       <c r="AD97" s="17">
-        <v>199871</v>
+        <v>162396</v>
       </c>
       <c r="AE97" s="17">
-        <v>162396</v>
+        <v>187393</v>
       </c>
       <c r="AF97" s="17">
-        <v>187393</v>
+        <v>265973</v>
       </c>
       <c r="AG97" s="17">
-        <v>265973</v>
+        <v>300837</v>
       </c>
       <c r="AH97" s="17">
-        <v>300837</v>
+        <v>280015</v>
       </c>
       <c r="AI97" s="17">
-        <v>280015</v>
+        <v>247146</v>
       </c>
       <c r="AJ97" s="17">
-        <v>247146</v>
+        <v>158470</v>
       </c>
       <c r="AK97" s="17">
-        <v>158470</v>
+        <v>280060</v>
       </c>
       <c r="AL97" s="17">
-        <v>280060</v>
+        <v>158490</v>
       </c>
       <c r="AM97" s="17">
-        <v>158490</v>
+        <v>177426</v>
       </c>
       <c r="AN97" s="17">
-        <v>177426</v>
+        <v>230683</v>
       </c>
       <c r="AO97" s="17">
-        <v>230683</v>
+        <v>298529</v>
       </c>
       <c r="AP97" s="17">
-        <v>298529</v>
+        <v>293588</v>
       </c>
       <c r="AQ97" s="17">
-        <v>293588</v>
+        <v>361844</v>
       </c>
       <c r="AR97" s="17">
-        <v>361844</v>
+        <v>385436</v>
       </c>
       <c r="AS97" s="17">
-        <v>385436</v>
+        <v>401369</v>
       </c>
       <c r="AT97" s="17">
-        <v>401369</v>
+        <v>335413</v>
       </c>
       <c r="AU97" s="17">
-        <v>335413</v>
+        <v>200936</v>
       </c>
       <c r="AV97" s="17">
-        <v>200936</v>
+        <v>234768</v>
       </c>
       <c r="AW97" s="17">
-        <v>234768</v>
+        <v>399471</v>
       </c>
       <c r="AX97" s="17">
-        <v>399471</v>
+        <v>419118</v>
       </c>
       <c r="AY97" s="17">
-        <v>419118</v>
+        <v>356289</v>
       </c>
       <c r="AZ97" s="17">
-        <v>356289</v>
+        <v>372153</v>
       </c>
       <c r="BA97" s="17">
-        <v>372153</v>
+        <v>249492</v>
       </c>
       <c r="BB97" s="17">
-        <v>249492</v>
+        <v>282276</v>
       </c>
     </row>
-    <row r="98" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -13659,7 +13659,7 @@
       <c r="BA98" s="1"/>
       <c r="BB98" s="1"/>
     </row>
-    <row r="99" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -13714,7 +13714,7 @@
       <c r="BA99" s="1"/>
       <c r="BB99" s="1"/>
     </row>
-    <row r="100" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -13769,7 +13769,7 @@
       <c r="BA100" s="1"/>
       <c r="BB100" s="1"/>
     </row>
-    <row r="101" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B101" s="7" t="s">
         <v>88</v>
       </c>
@@ -13926,7 +13926,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="102" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -13981,7 +13981,7 @@
       <c r="BA102" s="1"/>
       <c r="BB102" s="1"/>
     </row>
-    <row r="103" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B103" s="8" t="s">
         <v>89</v>
       </c>
@@ -14038,7 +14038,7 @@
       <c r="BA103" s="9"/>
       <c r="BB103" s="9"/>
     </row>
-    <row r="104" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B104" s="10" t="s">
         <v>55</v>
       </c>
@@ -14139,15 +14139,15 @@
       <c r="AI104" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="AJ104" s="11" t="s">
-        <v>56</v>
+      <c r="AJ104" s="11">
+        <v>16978836</v>
       </c>
       <c r="AK104" s="11">
-        <v>16978836</v>
-      </c>
-      <c r="AL104" s="11">
         <v>12709091</v>
       </c>
+      <c r="AL104" s="11" t="s">
+        <v>56</v>
+      </c>
       <c r="AM104" s="11" t="s">
         <v>56</v>
       </c>
@@ -14197,7 +14197,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="105" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B105" s="12" t="s">
         <v>57</v>
       </c>
@@ -14206,16 +14206,16 @@
       </c>
       <c r="D105" s="13"/>
       <c r="E105" s="13">
-        <v>10866667</v>
+        <v>11000000</v>
       </c>
       <c r="F105" s="13">
-        <v>11000000</v>
+        <v>0</v>
       </c>
       <c r="G105" s="13">
         <v>0</v>
       </c>
-      <c r="H105" s="13">
-        <v>0</v>
+      <c r="H105" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="I105" s="13" t="s">
         <v>56</v>
@@ -14356,7 +14356,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="106" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B106" s="10" t="s">
         <v>59</v>
       </c>
@@ -14365,53 +14365,53 @@
       </c>
       <c r="D106" s="11"/>
       <c r="E106" s="11">
-        <v>15571627</v>
+        <v>15885566</v>
       </c>
       <c r="F106" s="11">
-        <v>15885566</v>
+        <v>15599816</v>
       </c>
       <c r="G106" s="11">
-        <v>15599816</v>
+        <v>15935014</v>
       </c>
       <c r="H106" s="11">
-        <v>15935014</v>
+        <v>17537061</v>
       </c>
       <c r="I106" s="11">
-        <v>17537061</v>
+        <v>18731644</v>
       </c>
       <c r="J106" s="11">
-        <v>18731644</v>
+        <v>18461761</v>
       </c>
       <c r="K106" s="11">
-        <v>18461761</v>
+        <v>19336638</v>
       </c>
       <c r="L106" s="11">
-        <v>19336638</v>
+        <v>18125418</v>
       </c>
       <c r="M106" s="11">
-        <v>18125418</v>
+        <v>19483708</v>
       </c>
       <c r="N106" s="11">
-        <v>19483708</v>
+        <v>18087966</v>
       </c>
       <c r="O106" s="11">
-        <v>18087966</v>
+        <v>26499617</v>
       </c>
       <c r="P106" s="11">
-        <v>26499617</v>
+        <v>23298919</v>
       </c>
       <c r="Q106" s="11">
-        <v>23298919</v>
+        <v>25251734</v>
       </c>
       <c r="R106" s="11">
-        <v>25251734</v>
+        <v>24875882</v>
       </c>
       <c r="S106" s="11">
-        <v>24875882</v>
-      </c>
-      <c r="T106" s="11">
         <v>23174883</v>
       </c>
+      <c r="T106" s="11" t="s">
+        <v>56</v>
+      </c>
       <c r="U106" s="11" t="s">
         <v>56</v>
       </c>
@@ -14515,7 +14515,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="107" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B107" s="12" t="s">
         <v>60</v>
       </c>
@@ -14524,52 +14524,52 @@
       </c>
       <c r="D107" s="13"/>
       <c r="E107" s="13">
-        <v>24833333</v>
+        <v>23800000</v>
       </c>
       <c r="F107" s="13">
-        <v>23800000</v>
+        <v>3000000</v>
       </c>
       <c r="G107" s="13">
-        <v>3000000</v>
-      </c>
-      <c r="H107" s="13">
         <v>16714286</v>
       </c>
+      <c r="H107" s="13" t="s">
+        <v>56</v>
+      </c>
       <c r="I107" s="13" t="s">
         <v>56</v>
       </c>
       <c r="J107" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="K107" s="13" t="s">
-        <v>56</v>
+      <c r="K107" s="13">
+        <v>21216216</v>
       </c>
       <c r="L107" s="13">
-        <v>21216216</v>
+        <v>0</v>
       </c>
       <c r="M107" s="13">
-        <v>0</v>
+        <v>21000000</v>
       </c>
       <c r="N107" s="13">
-        <v>21000000</v>
+        <v>24000000</v>
       </c>
       <c r="O107" s="13">
-        <v>24000000</v>
+        <v>27500000</v>
       </c>
       <c r="P107" s="13">
-        <v>27500000</v>
+        <v>21200000</v>
       </c>
       <c r="Q107" s="13">
-        <v>21200000</v>
+        <v>21851852</v>
       </c>
       <c r="R107" s="13">
-        <v>21851852</v>
+        <v>28000000</v>
       </c>
       <c r="S107" s="13">
-        <v>28000000</v>
-      </c>
-      <c r="T107" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="T107" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="U107" s="13" t="s">
         <v>56</v>
@@ -14674,7 +14674,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="108" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B108" s="10" t="s">
         <v>61</v>
       </c>
@@ -14683,53 +14683,53 @@
       </c>
       <c r="D108" s="11"/>
       <c r="E108" s="11">
-        <v>0</v>
+        <v>10800000</v>
       </c>
       <c r="F108" s="11">
-        <v>10800000</v>
+        <v>6000000</v>
       </c>
       <c r="G108" s="11">
-        <v>6000000</v>
+        <v>12200000</v>
       </c>
       <c r="H108" s="11">
-        <v>12200000</v>
+        <v>11500000</v>
       </c>
       <c r="I108" s="11">
-        <v>11500000</v>
+        <v>13375000</v>
       </c>
       <c r="J108" s="11">
-        <v>13375000</v>
+        <v>13555556</v>
       </c>
       <c r="K108" s="11">
-        <v>13555556</v>
+        <v>13878788</v>
       </c>
       <c r="L108" s="11">
-        <v>13878788</v>
+        <v>13411765</v>
       </c>
       <c r="M108" s="11">
-        <v>13411765</v>
+        <v>15375000</v>
       </c>
       <c r="N108" s="11">
-        <v>15375000</v>
+        <v>15250000</v>
       </c>
       <c r="O108" s="11">
-        <v>15250000</v>
+        <v>13900000</v>
       </c>
       <c r="P108" s="11">
-        <v>13900000</v>
+        <v>16333333</v>
       </c>
       <c r="Q108" s="11">
-        <v>16333333</v>
+        <v>14181818</v>
       </c>
       <c r="R108" s="11">
-        <v>14181818</v>
+        <v>14533333</v>
       </c>
       <c r="S108" s="11">
-        <v>14533333</v>
-      </c>
-      <c r="T108" s="11">
         <v>12500000</v>
       </c>
+      <c r="T108" s="11" t="s">
+        <v>56</v>
+      </c>
       <c r="U108" s="11" t="s">
         <v>56</v>
       </c>
@@ -14833,7 +14833,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="109" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B109" s="12" t="s">
         <v>62</v>
       </c>
@@ -14842,53 +14842,53 @@
       </c>
       <c r="D109" s="13"/>
       <c r="E109" s="13">
-        <v>25970312</v>
+        <v>23738409</v>
       </c>
       <c r="F109" s="13">
-        <v>23738409</v>
+        <v>24152302</v>
       </c>
       <c r="G109" s="13">
-        <v>24152302</v>
+        <v>27892132</v>
       </c>
       <c r="H109" s="13">
-        <v>27892132</v>
+        <v>32807177</v>
       </c>
       <c r="I109" s="13">
-        <v>32807177</v>
+        <v>37272472</v>
       </c>
       <c r="J109" s="13">
-        <v>37272472</v>
+        <v>41136830</v>
       </c>
       <c r="K109" s="13">
-        <v>41136830</v>
+        <v>30549848</v>
       </c>
       <c r="L109" s="13">
-        <v>30549848</v>
+        <v>31921765</v>
       </c>
       <c r="M109" s="13">
-        <v>31921765</v>
+        <v>39421251</v>
       </c>
       <c r="N109" s="13">
-        <v>39421251</v>
+        <v>34393316</v>
       </c>
       <c r="O109" s="13">
-        <v>34393316</v>
+        <v>36865108</v>
       </c>
       <c r="P109" s="13">
-        <v>36865108</v>
+        <v>37895433</v>
       </c>
       <c r="Q109" s="13">
-        <v>37895433</v>
+        <v>33114041</v>
       </c>
       <c r="R109" s="13">
-        <v>33114041</v>
+        <v>44295019</v>
       </c>
       <c r="S109" s="13">
-        <v>44295019</v>
-      </c>
-      <c r="T109" s="13">
         <v>30856823</v>
       </c>
+      <c r="T109" s="13" t="s">
+        <v>56</v>
+      </c>
       <c r="U109" s="13" t="s">
         <v>56</v>
       </c>
@@ -14992,7 +14992,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="110" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B110" s="10" t="s">
         <v>63</v>
       </c>
@@ -15001,28 +15001,28 @@
       </c>
       <c r="D110" s="11"/>
       <c r="E110" s="11">
-        <v>124921875</v>
+        <v>0</v>
       </c>
       <c r="F110" s="11">
         <v>0</v>
       </c>
       <c r="G110" s="11">
-        <v>0</v>
-      </c>
-      <c r="H110" s="11">
         <v>54000000</v>
       </c>
+      <c r="H110" s="11" t="s">
+        <v>56</v>
+      </c>
       <c r="I110" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="J110" s="11" t="s">
-        <v>56</v>
+      <c r="J110" s="11">
+        <v>0</v>
       </c>
       <c r="K110" s="11">
-        <v>0</v>
+        <v>150476190</v>
       </c>
       <c r="L110" s="11">
-        <v>150476190</v>
+        <v>0</v>
       </c>
       <c r="M110" s="11">
         <v>0</v>
@@ -15045,8 +15045,8 @@
       <c r="S110" s="11">
         <v>0</v>
       </c>
-      <c r="T110" s="11">
-        <v>0</v>
+      <c r="T110" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="U110" s="11" t="s">
         <v>56</v>
@@ -15151,7 +15151,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="111" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B111" s="12" t="s">
         <v>64</v>
       </c>
@@ -15168,8 +15168,8 @@
       <c r="G111" s="13">
         <v>0</v>
       </c>
-      <c r="H111" s="13">
-        <v>0</v>
+      <c r="H111" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="I111" s="13" t="s">
         <v>56</v>
@@ -15310,7 +15310,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="112" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B112" s="10" t="s">
         <v>65</v>
       </c>
@@ -15363,8 +15363,8 @@
       <c r="S112" s="11">
         <v>0</v>
       </c>
-      <c r="T112" s="11">
-        <v>0</v>
+      <c r="T112" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="U112" s="11" t="s">
         <v>56</v>
@@ -15469,7 +15469,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="113" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B113" s="12" t="s">
         <v>66</v>
       </c>
@@ -15486,8 +15486,8 @@
       <c r="G113" s="13">
         <v>0</v>
       </c>
-      <c r="H113" s="13">
-        <v>0</v>
+      <c r="H113" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="I113" s="13" t="s">
         <v>56</v>
@@ -15628,7 +15628,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="114" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B114" s="10" t="s">
         <v>67</v>
       </c>
@@ -15637,53 +15637,53 @@
       </c>
       <c r="D114" s="11"/>
       <c r="E114" s="11">
-        <v>26142857</v>
+        <v>44500000</v>
       </c>
       <c r="F114" s="11">
-        <v>44500000</v>
+        <v>25562500</v>
       </c>
       <c r="G114" s="11">
-        <v>25562500</v>
+        <v>35333333</v>
       </c>
       <c r="H114" s="11">
-        <v>35333333</v>
+        <v>30181818</v>
       </c>
       <c r="I114" s="11">
-        <v>30181818</v>
+        <v>64433333</v>
       </c>
       <c r="J114" s="11">
-        <v>64433333</v>
+        <v>63125000</v>
       </c>
       <c r="K114" s="11">
-        <v>63125000</v>
+        <v>58163934</v>
       </c>
       <c r="L114" s="11">
-        <v>58163934</v>
+        <v>61000000</v>
       </c>
       <c r="M114" s="11">
-        <v>61000000</v>
+        <v>60043478</v>
       </c>
       <c r="N114" s="11">
-        <v>60043478</v>
+        <v>58833333</v>
       </c>
       <c r="O114" s="11">
-        <v>58833333</v>
+        <v>28888889</v>
       </c>
       <c r="P114" s="11">
-        <v>28888889</v>
+        <v>73750000</v>
       </c>
       <c r="Q114" s="11">
-        <v>73750000</v>
+        <v>533000000</v>
       </c>
       <c r="R114" s="11">
-        <v>533000000</v>
+        <v>127142857</v>
       </c>
       <c r="S114" s="11">
-        <v>127142857</v>
-      </c>
-      <c r="T114" s="11">
         <v>83928571</v>
       </c>
+      <c r="T114" s="11" t="s">
+        <v>56</v>
+      </c>
       <c r="U114" s="11" t="s">
         <v>56</v>
       </c>
@@ -15787,7 +15787,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="115" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B115" s="12" t="s">
         <v>68</v>
       </c>
@@ -15796,53 +15796,53 @@
       </c>
       <c r="D115" s="13"/>
       <c r="E115" s="13">
-        <v>8805128</v>
+        <v>11313725</v>
       </c>
       <c r="F115" s="13">
-        <v>11313725</v>
+        <v>10146497</v>
       </c>
       <c r="G115" s="13">
-        <v>10146497</v>
+        <v>11130841</v>
       </c>
       <c r="H115" s="13">
-        <v>11130841</v>
+        <v>10003817</v>
       </c>
       <c r="I115" s="13">
-        <v>10003817</v>
+        <v>10603421</v>
       </c>
       <c r="J115" s="13">
-        <v>10603421</v>
+        <v>16981481</v>
       </c>
       <c r="K115" s="13">
-        <v>16981481</v>
+        <v>18400000</v>
       </c>
       <c r="L115" s="13">
-        <v>18400000</v>
+        <v>18660793</v>
       </c>
       <c r="M115" s="13">
-        <v>18660793</v>
+        <v>19450980</v>
       </c>
       <c r="N115" s="13">
-        <v>19450980</v>
+        <v>26139535</v>
       </c>
       <c r="O115" s="13">
-        <v>26139535</v>
+        <v>15236686</v>
       </c>
       <c r="P115" s="13">
-        <v>15236686</v>
+        <v>20035928</v>
       </c>
       <c r="Q115" s="13">
-        <v>20035928</v>
+        <v>22397661</v>
       </c>
       <c r="R115" s="13">
-        <v>22397661</v>
+        <v>22195219</v>
       </c>
       <c r="S115" s="13">
-        <v>22195219</v>
-      </c>
-      <c r="T115" s="13">
         <v>23054264</v>
       </c>
+      <c r="T115" s="13" t="s">
+        <v>56</v>
+      </c>
       <c r="U115" s="13" t="s">
         <v>56</v>
       </c>
@@ -15946,7 +15946,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="116" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B116" s="10" t="s">
         <v>69</v>
       </c>
@@ -15955,19 +15955,19 @@
       </c>
       <c r="D116" s="11"/>
       <c r="E116" s="11">
-        <v>21900697</v>
+        <v>18622807</v>
       </c>
       <c r="F116" s="11">
-        <v>18622807</v>
+        <v>17929670</v>
       </c>
       <c r="G116" s="11">
-        <v>17929670</v>
+        <v>18827586</v>
       </c>
       <c r="H116" s="11">
-        <v>18827586</v>
+        <v>22979253</v>
       </c>
       <c r="I116" s="11">
-        <v>22979253</v>
+        <v>0</v>
       </c>
       <c r="J116" s="11">
         <v>0</v>
@@ -15976,31 +15976,31 @@
         <v>0</v>
       </c>
       <c r="L116" s="11">
-        <v>0</v>
+        <v>27542614</v>
       </c>
       <c r="M116" s="11">
-        <v>27542614</v>
+        <v>11913265</v>
       </c>
       <c r="N116" s="11">
-        <v>11913265</v>
+        <v>46666667</v>
       </c>
       <c r="O116" s="11">
-        <v>46666667</v>
+        <v>38827893</v>
       </c>
       <c r="P116" s="11">
-        <v>38827893</v>
+        <v>36539604</v>
       </c>
       <c r="Q116" s="11">
-        <v>36539604</v>
+        <v>40625000</v>
       </c>
       <c r="R116" s="11">
-        <v>40625000</v>
+        <v>42909091</v>
       </c>
       <c r="S116" s="11">
-        <v>42909091</v>
-      </c>
-      <c r="T116" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="T116" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="U116" s="11" t="s">
         <v>56</v>
@@ -16105,7 +16105,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="117" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B117" s="12" t="s">
         <v>70</v>
       </c>
@@ -16122,8 +16122,8 @@
       <c r="G117" s="13">
         <v>0</v>
       </c>
-      <c r="H117" s="13">
-        <v>0</v>
+      <c r="H117" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="I117" s="13" t="s">
         <v>56</v>
@@ -16264,7 +16264,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="118" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B118" s="10" t="s">
         <v>72</v>
       </c>
@@ -16317,113 +16317,113 @@
       <c r="S118" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="T118" s="11" t="s">
-        <v>56</v>
+      <c r="T118" s="11">
+        <v>43766760</v>
       </c>
       <c r="U118" s="11">
-        <v>43766760</v>
+        <v>40876175</v>
       </c>
       <c r="V118" s="11">
-        <v>40876175</v>
+        <v>40351843</v>
       </c>
       <c r="W118" s="11">
-        <v>40351843</v>
+        <v>41797025</v>
       </c>
       <c r="X118" s="11">
-        <v>41797025</v>
+        <v>47519097</v>
       </c>
       <c r="Y118" s="11">
-        <v>47519097</v>
+        <v>46939291</v>
       </c>
       <c r="Z118" s="11">
-        <v>46939291</v>
+        <v>49028856</v>
       </c>
       <c r="AA118" s="11">
-        <v>49028856</v>
+        <v>46916466</v>
       </c>
       <c r="AB118" s="11">
-        <v>46916466</v>
+        <v>53702206</v>
       </c>
       <c r="AC118" s="11">
-        <v>53702206</v>
+        <v>55500000</v>
       </c>
       <c r="AD118" s="11">
-        <v>55500000</v>
+        <v>53385965</v>
       </c>
       <c r="AE118" s="11">
-        <v>53385965</v>
+        <v>51029412</v>
       </c>
       <c r="AF118" s="11">
-        <v>51029412</v>
+        <v>65608895</v>
       </c>
       <c r="AG118" s="11">
-        <v>65608895</v>
+        <v>80512616</v>
       </c>
       <c r="AH118" s="11">
-        <v>80512616</v>
+        <v>78654825</v>
       </c>
       <c r="AI118" s="11">
-        <v>78654825</v>
+        <v>84450767</v>
       </c>
       <c r="AJ118" s="11">
-        <v>84450767</v>
+        <v>80549356</v>
       </c>
       <c r="AK118" s="11">
-        <v>80549356</v>
+        <v>85599407</v>
       </c>
       <c r="AL118" s="11">
-        <v>85599407</v>
+        <v>94463687</v>
       </c>
       <c r="AM118" s="11">
-        <v>94463687</v>
+        <v>77121817</v>
       </c>
       <c r="AN118" s="11">
-        <v>77121817</v>
+        <v>100905912</v>
       </c>
       <c r="AO118" s="11">
-        <v>100905912</v>
+        <v>141870434</v>
       </c>
       <c r="AP118" s="11">
-        <v>141870434</v>
+        <v>132612299</v>
       </c>
       <c r="AQ118" s="11">
-        <v>132612299</v>
+        <v>110387154</v>
       </c>
       <c r="AR118" s="11">
-        <v>110387154</v>
+        <v>147965429</v>
       </c>
       <c r="AS118" s="11">
-        <v>147965429</v>
+        <v>157642405</v>
       </c>
       <c r="AT118" s="11">
-        <v>157642405</v>
+        <v>144444097</v>
       </c>
       <c r="AU118" s="11">
-        <v>144444097</v>
+        <v>141831868</v>
       </c>
       <c r="AV118" s="11">
-        <v>141831868</v>
+        <v>144151606</v>
       </c>
       <c r="AW118" s="11">
-        <v>144151606</v>
+        <v>150278671</v>
       </c>
       <c r="AX118" s="11">
-        <v>150278671</v>
+        <v>152214866</v>
       </c>
       <c r="AY118" s="11">
-        <v>152214866</v>
+        <v>149138614</v>
       </c>
       <c r="AZ118" s="11">
-        <v>149138614</v>
+        <v>145584006</v>
       </c>
       <c r="BA118" s="11">
-        <v>145584006</v>
+        <v>157541442</v>
       </c>
       <c r="BB118" s="11">
-        <v>157541442</v>
+        <v>154199223</v>
       </c>
     </row>
-    <row r="119" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B119" s="12" t="s">
         <v>73</v>
       </c>
@@ -16476,113 +16476,113 @@
       <c r="S119" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="T119" s="13" t="s">
-        <v>56</v>
+      <c r="T119" s="13">
+        <v>25078457</v>
       </c>
       <c r="U119" s="13">
-        <v>25078457</v>
+        <v>25376709</v>
       </c>
       <c r="V119" s="13">
-        <v>25376709</v>
+        <v>27851728</v>
       </c>
       <c r="W119" s="13">
-        <v>27851728</v>
+        <v>28492788</v>
       </c>
       <c r="X119" s="13">
-        <v>28492788</v>
+        <v>31618417</v>
       </c>
       <c r="Y119" s="13">
-        <v>31618417</v>
+        <v>41246342</v>
       </c>
       <c r="Z119" s="13">
-        <v>41246342</v>
+        <v>32601305</v>
       </c>
       <c r="AA119" s="13">
-        <v>32601305</v>
+        <v>33408480</v>
       </c>
       <c r="AB119" s="13">
-        <v>33408480</v>
+        <v>36679162</v>
       </c>
       <c r="AC119" s="13">
-        <v>36679162</v>
+        <v>34477660</v>
       </c>
       <c r="AD119" s="13">
-        <v>34477660</v>
+        <v>35204918</v>
       </c>
       <c r="AE119" s="13">
-        <v>35204918</v>
+        <v>36213998</v>
       </c>
       <c r="AF119" s="13">
-        <v>36213998</v>
+        <v>53061179</v>
       </c>
       <c r="AG119" s="13">
-        <v>53061179</v>
+        <v>50261685</v>
       </c>
       <c r="AH119" s="13">
-        <v>50261685</v>
+        <v>47479525</v>
       </c>
       <c r="AI119" s="13">
-        <v>47479525</v>
+        <v>53468866</v>
       </c>
       <c r="AJ119" s="13">
-        <v>53468866</v>
+        <v>49854708</v>
       </c>
       <c r="AK119" s="13">
-        <v>49854708</v>
+        <v>45635258</v>
       </c>
       <c r="AL119" s="13">
-        <v>45635258</v>
+        <v>39842690</v>
       </c>
       <c r="AM119" s="13">
-        <v>39842690</v>
+        <v>44788066</v>
       </c>
       <c r="AN119" s="13">
-        <v>44788066</v>
+        <v>75058689</v>
       </c>
       <c r="AO119" s="13">
-        <v>75058689</v>
+        <v>72408560</v>
       </c>
       <c r="AP119" s="13">
-        <v>72408560</v>
+        <v>74770558</v>
       </c>
       <c r="AQ119" s="13">
-        <v>74770558</v>
+        <v>68302408</v>
       </c>
       <c r="AR119" s="13">
-        <v>68302408</v>
+        <v>99185373</v>
       </c>
       <c r="AS119" s="13">
-        <v>99185373</v>
+        <v>99564565</v>
       </c>
       <c r="AT119" s="13">
-        <v>99564565</v>
+        <v>99164087</v>
       </c>
       <c r="AU119" s="13">
-        <v>99164087</v>
+        <v>105895904</v>
       </c>
       <c r="AV119" s="13">
-        <v>105895904</v>
+        <v>96029371</v>
       </c>
       <c r="AW119" s="13">
-        <v>96029371</v>
+        <v>95119094</v>
       </c>
       <c r="AX119" s="13">
-        <v>95119094</v>
+        <v>96987198</v>
       </c>
       <c r="AY119" s="13">
-        <v>96987198</v>
+        <v>96868038</v>
       </c>
       <c r="AZ119" s="13">
-        <v>96868038</v>
+        <v>95737028</v>
       </c>
       <c r="BA119" s="13">
-        <v>95737028</v>
+        <v>104093431</v>
       </c>
       <c r="BB119" s="13">
-        <v>104093431</v>
+        <v>99000884</v>
       </c>
     </row>
-    <row r="120" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B120" s="10" t="s">
         <v>74</v>
       </c>
@@ -16599,8 +16599,8 @@
       <c r="G120" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="H120" s="11" t="s">
-        <v>56</v>
+      <c r="H120" s="11">
+        <v>0</v>
       </c>
       <c r="I120" s="11">
         <v>0</v>
@@ -16635,8 +16635,8 @@
       <c r="S120" s="11">
         <v>0</v>
       </c>
-      <c r="T120" s="11">
-        <v>0</v>
+      <c r="T120" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="U120" s="11" t="s">
         <v>56</v>
@@ -16741,7 +16741,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="121" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B121" s="12" t="s">
         <v>75</v>
       </c>
@@ -16854,53 +16854,53 @@
       <c r="AM121" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="AN121" s="13" t="s">
-        <v>56</v>
+      <c r="AN121" s="13">
+        <v>11002016</v>
       </c>
       <c r="AO121" s="13">
-        <v>11002016</v>
+        <v>11001212</v>
       </c>
       <c r="AP121" s="13">
-        <v>11001212</v>
+        <v>11000510</v>
       </c>
       <c r="AQ121" s="13">
-        <v>11000510</v>
+        <v>10997543</v>
       </c>
       <c r="AR121" s="13">
-        <v>10997543</v>
+        <v>14900086</v>
       </c>
       <c r="AS121" s="13">
-        <v>14900086</v>
+        <v>14906250</v>
       </c>
       <c r="AT121" s="13">
-        <v>14906250</v>
+        <v>14900859</v>
       </c>
       <c r="AU121" s="13">
-        <v>14900859</v>
+        <v>14901065</v>
       </c>
       <c r="AV121" s="13">
-        <v>14901065</v>
+        <v>14903974</v>
       </c>
       <c r="AW121" s="13">
-        <v>14903974</v>
+        <v>14904603</v>
       </c>
       <c r="AX121" s="13">
-        <v>14904603</v>
+        <v>14902386</v>
       </c>
       <c r="AY121" s="13">
-        <v>14902386</v>
+        <v>50227273</v>
       </c>
       <c r="AZ121" s="13">
-        <v>50227273</v>
+        <v>19497409</v>
       </c>
       <c r="BA121" s="13">
-        <v>19497409</v>
+        <v>19496936</v>
       </c>
       <c r="BB121" s="13">
-        <v>19496936</v>
+        <v>19517065</v>
       </c>
     </row>
-    <row r="122" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B122" s="8" t="s">
         <v>93</v>
       </c>
@@ -16957,7 +16957,7 @@
       <c r="BA122" s="9"/>
       <c r="BB122" s="9"/>
     </row>
-    <row r="123" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B123" s="10" t="s">
         <v>55</v>
       </c>
@@ -17046,8 +17046,8 @@
       <c r="AE123" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="AF123" s="11" t="s">
-        <v>56</v>
+      <c r="AF123" s="11">
+        <v>0</v>
       </c>
       <c r="AG123" s="11">
         <v>0</v>
@@ -17116,7 +17116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B124" s="12" t="s">
         <v>74</v>
       </c>
@@ -17205,8 +17205,8 @@
       <c r="AE124" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="AF124" s="13" t="s">
-        <v>56</v>
+      <c r="AF124" s="13">
+        <v>0</v>
       </c>
       <c r="AG124" s="13">
         <v>0</v>

--- a/database/industries/kashi/kazar/product/monthly.xlsx
+++ b/database/industries/kashi/kazar/product/monthly.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3355" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3382" uniqueCount="94">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3384,8 +3384,8 @@
       <c r="AC11" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="AD11" s="12" t="s">
-        <v>56</v>
+      <c r="AD11" s="12" t="n">
+        <v>0</v>
       </c>
       <c r="AE11" s="12" t="n">
         <v>0</v>
@@ -3471,8 +3471,8 @@
       <c r="E12" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="F12" s="14" t="n">
-        <v>0</v>
+      <c r="F12" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="G12" s="15" t="s">
         <v>56</v>
@@ -3628,46 +3628,46 @@
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12" t="n">
-        <v>2482</v>
+        <v>2764</v>
       </c>
       <c r="F13" s="12" t="n">
-        <v>2764</v>
+        <v>3343</v>
       </c>
       <c r="G13" s="12" t="n">
-        <v>3343</v>
+        <v>3267</v>
       </c>
       <c r="H13" s="12" t="n">
-        <v>3267</v>
+        <v>2610</v>
       </c>
       <c r="I13" s="12" t="n">
-        <v>2610</v>
+        <v>2259</v>
       </c>
       <c r="J13" s="12" t="n">
-        <v>2259</v>
+        <v>2364</v>
       </c>
       <c r="K13" s="12" t="n">
-        <v>2364</v>
+        <v>2818</v>
       </c>
       <c r="L13" s="12" t="n">
-        <v>2818</v>
+        <v>2774</v>
       </c>
       <c r="M13" s="12" t="n">
-        <v>2774</v>
+        <v>2718</v>
       </c>
       <c r="N13" s="12" t="n">
-        <v>2718</v>
+        <v>1815</v>
       </c>
       <c r="O13" s="12" t="n">
-        <v>1815</v>
+        <v>757</v>
       </c>
       <c r="P13" s="12" t="n">
-        <v>757</v>
+        <v>1721</v>
       </c>
       <c r="Q13" s="12" t="n">
-        <v>1721</v>
-      </c>
-      <c r="R13" s="12" t="n">
         <v>2453</v>
+      </c>
+      <c r="R13" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="S13" s="12" t="s">
         <v>56</v>
@@ -3787,25 +3787,25 @@
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="15" t="n">
         <v>7</v>
       </c>
+      <c r="F14" s="15" t="s">
+        <v>56</v>
+      </c>
       <c r="G14" s="15" t="s">
         <v>56</v>
       </c>
       <c r="H14" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="I14" s="15" t="s">
-        <v>56</v>
+      <c r="I14" s="15" t="n">
+        <v>37</v>
       </c>
       <c r="J14" s="15" t="n">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="K14" s="15" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L14" s="15" t="n">
         <v>0</v>
@@ -3814,19 +3814,19 @@
         <v>0</v>
       </c>
       <c r="N14" s="15" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="O14" s="15" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P14" s="15" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="R14" s="15" t="n">
-        <v>0</v>
+      <c r="R14" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="S14" s="15" t="s">
         <v>56</v>
@@ -3955,37 +3955,37 @@
         <v>0</v>
       </c>
       <c r="H15" s="12" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I15" s="12" t="n">
+        <v>29</v>
+      </c>
+      <c r="J15" s="12" t="n">
+        <v>15</v>
+      </c>
+      <c r="K15" s="12" t="n">
         <v>20</v>
-      </c>
-      <c r="J15" s="12" t="n">
-        <v>29</v>
-      </c>
-      <c r="K15" s="12" t="n">
-        <v>15</v>
       </c>
       <c r="L15" s="12" t="n">
         <v>20</v>
       </c>
       <c r="M15" s="12" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="N15" s="12" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="O15" s="12" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="P15" s="12" t="n">
         <v>0</v>
       </c>
       <c r="Q15" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" s="12" t="n">
         <v>3</v>
+      </c>
+      <c r="R15" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="S15" s="12" t="s">
         <v>56</v>
@@ -4105,46 +4105,46 @@
       </c>
       <c r="D16" s="15"/>
       <c r="E16" s="15" t="n">
-        <v>1860</v>
+        <v>2108</v>
       </c>
       <c r="F16" s="15" t="n">
-        <v>2108</v>
+        <v>2167</v>
       </c>
       <c r="G16" s="15" t="n">
-        <v>2167</v>
+        <v>1821</v>
       </c>
       <c r="H16" s="15" t="n">
-        <v>1821</v>
+        <v>2227</v>
       </c>
       <c r="I16" s="15" t="n">
-        <v>2227</v>
+        <v>1539</v>
       </c>
       <c r="J16" s="15" t="n">
-        <v>1539</v>
+        <v>1450</v>
       </c>
       <c r="K16" s="15" t="n">
-        <v>1450</v>
+        <v>1761</v>
       </c>
       <c r="L16" s="15" t="n">
-        <v>1761</v>
+        <v>1933</v>
       </c>
       <c r="M16" s="15" t="n">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="N16" s="15" t="n">
-        <v>1934</v>
+        <v>1664</v>
       </c>
       <c r="O16" s="15" t="n">
-        <v>1664</v>
+        <v>1283</v>
       </c>
       <c r="P16" s="15" t="n">
-        <v>1283</v>
+        <v>1097</v>
       </c>
       <c r="Q16" s="15" t="n">
-        <v>1097</v>
-      </c>
-      <c r="R16" s="15" t="n">
         <v>1579</v>
+      </c>
+      <c r="R16" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="S16" s="15" t="s">
         <v>56</v>
@@ -4266,23 +4266,23 @@
       <c r="E17" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="F17" s="12" t="n">
-        <v>0</v>
+      <c r="F17" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="G17" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="H17" s="12" t="s">
-        <v>56</v>
+      <c r="H17" s="12" t="n">
+        <v>54</v>
       </c>
       <c r="I17" s="12" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="J17" s="12" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="K17" s="12" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L17" s="12" t="n">
         <v>0</v>
@@ -4294,16 +4294,16 @@
         <v>0</v>
       </c>
       <c r="O17" s="12" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="P17" s="12" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="12" t="n">
-        <v>100</v>
-      </c>
-      <c r="R17" s="12" t="n">
         <v>99</v>
+      </c>
+      <c r="R17" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="S17" s="12" t="s">
         <v>56</v>
@@ -4425,8 +4425,8 @@
       <c r="E18" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="F18" s="15" t="n">
-        <v>0</v>
+      <c r="F18" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="G18" s="15" t="s">
         <v>56</v>
@@ -4656,8 +4656,8 @@
       <c r="AC19" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AD19" s="12" t="n">
-        <v>0</v>
+      <c r="AD19" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="AE19" s="12" t="s">
         <v>56</v>
@@ -4743,8 +4743,8 @@
       <c r="E20" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="F20" s="15" t="n">
-        <v>0</v>
+      <c r="F20" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="G20" s="15" t="s">
         <v>56</v>
@@ -4900,46 +4900,46 @@
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="12" t="n">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="F21" s="12" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G21" s="12" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H21" s="12" t="n">
+        <v>26</v>
+      </c>
+      <c r="I21" s="12" t="n">
+        <v>34</v>
+      </c>
+      <c r="J21" s="12" t="n">
+        <v>9</v>
+      </c>
+      <c r="K21" s="12" t="n">
+        <v>22</v>
+      </c>
+      <c r="L21" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" s="12" t="n">
+        <v>33</v>
+      </c>
+      <c r="N21" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="I21" s="12" t="n">
-        <v>26</v>
-      </c>
-      <c r="J21" s="12" t="n">
-        <v>34</v>
-      </c>
-      <c r="K21" s="12" t="n">
-        <v>9</v>
-      </c>
-      <c r="L21" s="12" t="n">
-        <v>22</v>
-      </c>
-      <c r="M21" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" s="12" t="n">
-        <v>33</v>
-      </c>
       <c r="O21" s="12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P21" s="12" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" s="12" t="n">
         <v>21</v>
+      </c>
+      <c r="R21" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="S21" s="12" t="s">
         <v>56</v>
@@ -5059,46 +5059,46 @@
       </c>
       <c r="D22" s="15"/>
       <c r="E22" s="15" t="n">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="F22" s="15" t="n">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="G22" s="15" t="n">
-        <v>151</v>
+        <v>224</v>
       </c>
       <c r="H22" s="15" t="n">
-        <v>224</v>
+        <v>178</v>
       </c>
       <c r="I22" s="15" t="n">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="J22" s="15" t="n">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="K22" s="15" t="n">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="L22" s="15" t="n">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="M22" s="15" t="n">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="N22" s="15" t="n">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="O22" s="15" t="n">
-        <v>216</v>
+        <v>304</v>
       </c>
       <c r="P22" s="15" t="n">
-        <v>304</v>
+        <v>236</v>
       </c>
       <c r="Q22" s="15" t="n">
-        <v>236</v>
-      </c>
-      <c r="R22" s="15" t="n">
         <v>148</v>
+      </c>
+      <c r="R22" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="S22" s="15" t="s">
         <v>56</v>
@@ -5218,46 +5218,46 @@
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="12" t="n">
-        <v>400</v>
+        <v>286</v>
       </c>
       <c r="F23" s="12" t="n">
-        <v>286</v>
+        <v>40</v>
       </c>
       <c r="G23" s="12" t="n">
         <v>40</v>
       </c>
       <c r="H23" s="12" t="n">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="I23" s="12" t="n">
-        <v>88</v>
+        <v>245</v>
       </c>
       <c r="J23" s="12" t="n">
-        <v>245</v>
+        <v>294</v>
       </c>
       <c r="K23" s="12" t="n">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="L23" s="12" t="n">
-        <v>303</v>
+        <v>209</v>
       </c>
       <c r="M23" s="12" t="n">
-        <v>209</v>
+        <v>158</v>
       </c>
       <c r="N23" s="12" t="n">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="O23" s="12" t="n">
-        <v>150</v>
+        <v>2</v>
       </c>
       <c r="P23" s="12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="R23" s="12" t="n">
-        <v>0</v>
+      <c r="R23" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="S23" s="12" t="s">
         <v>56</v>
@@ -5379,8 +5379,8 @@
       <c r="E24" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="F24" s="15" t="n">
-        <v>0</v>
+      <c r="F24" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="G24" s="15" t="s">
         <v>56</v>
@@ -5574,116 +5574,116 @@
       <c r="Q25" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="R25" s="12" t="s">
-        <v>56</v>
+      <c r="R25" s="12" t="n">
+        <v>2145</v>
       </c>
       <c r="S25" s="12" t="n">
-        <v>2145</v>
+        <v>1937</v>
       </c>
       <c r="T25" s="12" t="n">
-        <v>1937</v>
+        <v>1566</v>
       </c>
       <c r="U25" s="12" t="n">
-        <v>1566</v>
+        <v>1877</v>
       </c>
       <c r="V25" s="12" t="n">
-        <v>1877</v>
+        <v>1998</v>
       </c>
       <c r="W25" s="12" t="n">
-        <v>1998</v>
+        <v>2081</v>
       </c>
       <c r="X25" s="12" t="n">
-        <v>2081</v>
+        <v>1820</v>
       </c>
       <c r="Y25" s="12" t="n">
-        <v>1820</v>
+        <v>1553</v>
       </c>
       <c r="Z25" s="12" t="n">
-        <v>1553</v>
+        <v>1724</v>
       </c>
       <c r="AA25" s="12" t="n">
-        <v>1724</v>
+        <v>1914</v>
       </c>
       <c r="AB25" s="12" t="n">
-        <v>1914</v>
+        <v>2186</v>
       </c>
       <c r="AC25" s="12" t="n">
-        <v>2186</v>
+        <v>1610</v>
       </c>
       <c r="AD25" s="12" t="n">
-        <v>1610</v>
+        <v>1599</v>
       </c>
       <c r="AE25" s="12" t="n">
-        <v>1599</v>
+        <v>1778</v>
       </c>
       <c r="AF25" s="12" t="n">
-        <v>1778</v>
+        <v>1605</v>
       </c>
       <c r="AG25" s="12" t="n">
-        <v>1605</v>
+        <v>1722</v>
       </c>
       <c r="AH25" s="12" t="n">
-        <v>1722</v>
+        <v>1323</v>
       </c>
       <c r="AI25" s="12" t="n">
-        <v>1323</v>
+        <v>1967</v>
       </c>
       <c r="AJ25" s="12" t="n">
-        <v>1967</v>
+        <v>732</v>
       </c>
       <c r="AK25" s="12" t="n">
-        <v>732</v>
+        <v>1307</v>
       </c>
       <c r="AL25" s="12" t="n">
-        <v>1307</v>
+        <v>1122</v>
       </c>
       <c r="AM25" s="12" t="n">
-        <v>1122</v>
+        <v>1817</v>
       </c>
       <c r="AN25" s="12" t="n">
+        <v>1720</v>
+      </c>
+      <c r="AO25" s="12" t="n">
+        <v>1413</v>
+      </c>
+      <c r="AP25" s="12" t="n">
+        <v>1917</v>
+      </c>
+      <c r="AQ25" s="12" t="n">
+        <v>1559</v>
+      </c>
+      <c r="AR25" s="12" t="n">
+        <v>1545</v>
+      </c>
+      <c r="AS25" s="12" t="n">
+        <v>592</v>
+      </c>
+      <c r="AT25" s="12" t="n">
+        <v>987</v>
+      </c>
+      <c r="AU25" s="12" t="n">
         <v>1817</v>
       </c>
-      <c r="AO25" s="12" t="n">
-        <v>1720</v>
-      </c>
-      <c r="AP25" s="12" t="n">
-        <v>1413</v>
-      </c>
-      <c r="AQ25" s="12" t="n">
-        <v>1917</v>
-      </c>
-      <c r="AR25" s="12" t="n">
-        <v>1559</v>
-      </c>
-      <c r="AS25" s="12" t="n">
-        <v>1545</v>
-      </c>
-      <c r="AT25" s="12" t="n">
-        <v>592</v>
-      </c>
-      <c r="AU25" s="12" t="n">
-        <v>987</v>
-      </c>
       <c r="AV25" s="12" t="n">
-        <v>1817</v>
+        <v>1735</v>
       </c>
       <c r="AW25" s="12" t="n">
-        <v>1735</v>
+        <v>1745</v>
       </c>
       <c r="AX25" s="12" t="n">
-        <v>1745</v>
+        <v>1709</v>
       </c>
       <c r="AY25" s="12" t="n">
-        <v>1709</v>
+        <v>1219</v>
       </c>
       <c r="AZ25" s="12" t="n">
-        <v>1219</v>
+        <v>955</v>
       </c>
       <c r="BA25" s="12" t="n">
-        <v>955</v>
+        <v>1770</v>
       </c>
       <c r="BB25" s="12" t="n">
-        <v>1770</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5733,116 +5733,116 @@
       <c r="Q26" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="R26" s="15" t="s">
-        <v>56</v>
+      <c r="R26" s="15" t="n">
+        <v>2985</v>
       </c>
       <c r="S26" s="15" t="n">
-        <v>2985</v>
+        <v>2343</v>
       </c>
       <c r="T26" s="15" t="n">
-        <v>2343</v>
+        <v>2939</v>
       </c>
       <c r="U26" s="15" t="n">
-        <v>2939</v>
+        <v>3132</v>
       </c>
       <c r="V26" s="15" t="n">
-        <v>3132</v>
+        <v>3133</v>
       </c>
       <c r="W26" s="15" t="n">
-        <v>3133</v>
+        <v>3214</v>
       </c>
       <c r="X26" s="15" t="n">
-        <v>3214</v>
+        <v>2640</v>
       </c>
       <c r="Y26" s="15" t="n">
-        <v>2640</v>
+        <v>2361</v>
       </c>
       <c r="Z26" s="15" t="n">
-        <v>2361</v>
+        <v>3294</v>
       </c>
       <c r="AA26" s="15" t="n">
-        <v>3294</v>
+        <v>1913</v>
       </c>
       <c r="AB26" s="15" t="n">
-        <v>1913</v>
+        <v>1843</v>
       </c>
       <c r="AC26" s="15" t="n">
-        <v>1843</v>
+        <v>2896</v>
       </c>
       <c r="AD26" s="15" t="n">
-        <v>2896</v>
+        <v>3006</v>
       </c>
       <c r="AE26" s="15" t="n">
-        <v>3006</v>
+        <v>3390</v>
       </c>
       <c r="AF26" s="15" t="n">
-        <v>3390</v>
+        <v>2806</v>
       </c>
       <c r="AG26" s="15" t="n">
-        <v>2806</v>
+        <v>1832</v>
       </c>
       <c r="AH26" s="15" t="n">
-        <v>1832</v>
+        <v>1464</v>
       </c>
       <c r="AI26" s="15" t="n">
-        <v>1464</v>
+        <v>2174</v>
       </c>
       <c r="AJ26" s="15" t="n">
-        <v>2174</v>
+        <v>1752</v>
       </c>
       <c r="AK26" s="15" t="n">
-        <v>1752</v>
+        <v>1457</v>
       </c>
       <c r="AL26" s="15" t="n">
-        <v>1457</v>
+        <v>1250</v>
       </c>
       <c r="AM26" s="15" t="n">
-        <v>1250</v>
+        <v>992</v>
       </c>
       <c r="AN26" s="15" t="n">
-        <v>992</v>
+        <v>1360</v>
       </c>
       <c r="AO26" s="15" t="n">
-        <v>1360</v>
+        <v>1066</v>
       </c>
       <c r="AP26" s="15" t="n">
-        <v>1066</v>
+        <v>1731</v>
       </c>
       <c r="AQ26" s="15" t="n">
-        <v>1731</v>
+        <v>1452</v>
       </c>
       <c r="AR26" s="15" t="n">
+        <v>941</v>
+      </c>
+      <c r="AS26" s="15" t="n">
+        <v>736</v>
+      </c>
+      <c r="AT26" s="15" t="n">
+        <v>837</v>
+      </c>
+      <c r="AU26" s="15" t="n">
+        <v>779</v>
+      </c>
+      <c r="AV26" s="15" t="n">
+        <v>1094</v>
+      </c>
+      <c r="AW26" s="15" t="n">
+        <v>1727</v>
+      </c>
+      <c r="AX26" s="15" t="n">
+        <v>2018</v>
+      </c>
+      <c r="AY26" s="15" t="n">
+        <v>911</v>
+      </c>
+      <c r="AZ26" s="15" t="n">
+        <v>745</v>
+      </c>
+      <c r="BA26" s="15" t="n">
+        <v>1833</v>
+      </c>
+      <c r="BB26" s="15" t="n">
         <v>1452</v>
-      </c>
-      <c r="AS26" s="15" t="n">
-        <v>941</v>
-      </c>
-      <c r="AT26" s="15" t="n">
-        <v>736</v>
-      </c>
-      <c r="AU26" s="15" t="n">
-        <v>837</v>
-      </c>
-      <c r="AV26" s="15" t="n">
-        <v>779</v>
-      </c>
-      <c r="AW26" s="15" t="n">
-        <v>1094</v>
-      </c>
-      <c r="AX26" s="15" t="n">
-        <v>1727</v>
-      </c>
-      <c r="AY26" s="15" t="n">
-        <v>2018</v>
-      </c>
-      <c r="AZ26" s="15" t="n">
-        <v>911</v>
-      </c>
-      <c r="BA26" s="15" t="n">
-        <v>745</v>
-      </c>
-      <c r="BB26" s="15" t="n">
-        <v>1833</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5854,8 +5854,8 @@
       <c r="E27" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="12" t="s">
-        <v>56</v>
+      <c r="F27" s="12" t="n">
+        <v>0</v>
       </c>
       <c r="G27" s="12" t="n">
         <v>0</v>
@@ -5890,8 +5890,8 @@
       <c r="Q27" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="R27" s="12" t="n">
-        <v>0</v>
+      <c r="R27" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="S27" s="12" t="s">
         <v>56</v>
@@ -6109,56 +6109,56 @@
       <c r="AK28" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AL28" s="15" t="s">
-        <v>56</v>
+      <c r="AL28" s="15" t="n">
+        <v>1032</v>
       </c>
       <c r="AM28" s="15" t="n">
-        <v>1032</v>
+        <v>1836</v>
       </c>
       <c r="AN28" s="15" t="n">
-        <v>1836</v>
+        <v>1864</v>
       </c>
       <c r="AO28" s="15" t="n">
-        <v>1864</v>
+        <v>1769</v>
       </c>
       <c r="AP28" s="15" t="n">
-        <v>1769</v>
+        <v>1160</v>
       </c>
       <c r="AQ28" s="15" t="n">
-        <v>1160</v>
+        <v>1415</v>
       </c>
       <c r="AR28" s="15" t="n">
-        <v>1415</v>
+        <v>1490</v>
       </c>
       <c r="AS28" s="15" t="n">
-        <v>1490</v>
+        <v>364</v>
       </c>
       <c r="AT28" s="15" t="n">
-        <v>364</v>
+        <v>1796</v>
       </c>
       <c r="AU28" s="15" t="n">
-        <v>1796</v>
+        <v>1634</v>
       </c>
       <c r="AV28" s="15" t="n">
-        <v>1634</v>
+        <v>1310</v>
       </c>
       <c r="AW28" s="15" t="n">
-        <v>1310</v>
+        <v>422</v>
       </c>
       <c r="AX28" s="15" t="n">
-        <v>422</v>
+        <v>156</v>
       </c>
       <c r="AY28" s="15" t="n">
-        <v>156</v>
+        <v>1948</v>
       </c>
       <c r="AZ28" s="15" t="n">
-        <v>1948</v>
+        <v>504</v>
       </c>
       <c r="BA28" s="15" t="n">
-        <v>504</v>
+        <v>1401</v>
       </c>
       <c r="BB28" s="15" t="n">
-        <v>1401</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6299,11 +6299,11 @@
       <c r="AC30" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="AD30" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE30" s="12" t="n">
-        <v>0</v>
+      <c r="AD30" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="AF30" s="12" t="s">
         <v>56</v>
@@ -6329,11 +6329,11 @@
       <c r="AM30" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="AN30" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="AO30" s="12" t="n">
-        <v>0</v>
+      <c r="AN30" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO30" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="AP30" s="12" t="s">
         <v>56</v>
@@ -6456,11 +6456,11 @@
       <c r="AC31" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AD31" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE31" s="15" t="n">
-        <v>0</v>
+      <c r="AD31" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="AF31" s="15" t="s">
         <v>56</v>
@@ -6486,11 +6486,11 @@
       <c r="AM31" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AN31" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="AO31" s="15" t="n">
-        <v>0</v>
+      <c r="AN31" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO31" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="AP31" s="15" t="s">
         <v>56</v>
@@ -6586,8 +6586,8 @@
       <c r="T32" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="U32" s="18" t="s">
-        <v>56</v>
+      <c r="U32" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="V32" s="18" t="n">
         <v>0</v>
@@ -6696,154 +6696,154 @@
       <c r="C33" s="20"/>
       <c r="D33" s="20"/>
       <c r="E33" s="20" t="n">
-        <v>5013</v>
+        <v>5408</v>
       </c>
       <c r="F33" s="20" t="n">
-        <v>5408</v>
+        <v>5701</v>
       </c>
       <c r="G33" s="20" t="n">
-        <v>5701</v>
+        <v>5358</v>
       </c>
       <c r="H33" s="20" t="n">
-        <v>5358</v>
+        <v>5203</v>
       </c>
       <c r="I33" s="20" t="n">
-        <v>5203</v>
+        <v>4309</v>
       </c>
       <c r="J33" s="20" t="n">
-        <v>4309</v>
+        <v>4392</v>
       </c>
       <c r="K33" s="20" t="n">
-        <v>4392</v>
+        <v>5108</v>
       </c>
       <c r="L33" s="20" t="n">
-        <v>5108</v>
+        <v>5140</v>
       </c>
       <c r="M33" s="20" t="n">
-        <v>5140</v>
+        <v>5051</v>
       </c>
       <c r="N33" s="20" t="n">
-        <v>5051</v>
+        <v>3905</v>
       </c>
       <c r="O33" s="20" t="n">
-        <v>3905</v>
+        <v>2551</v>
       </c>
       <c r="P33" s="20" t="n">
-        <v>2551</v>
+        <v>3154</v>
       </c>
       <c r="Q33" s="20" t="n">
-        <v>3154</v>
+        <v>4303</v>
       </c>
       <c r="R33" s="20" t="n">
-        <v>4303</v>
+        <v>5130</v>
       </c>
       <c r="S33" s="20" t="n">
-        <v>5130</v>
+        <v>4280</v>
       </c>
       <c r="T33" s="20" t="n">
-        <v>4280</v>
+        <v>4505</v>
       </c>
       <c r="U33" s="20" t="n">
-        <v>4505</v>
+        <v>5009</v>
       </c>
       <c r="V33" s="20" t="n">
-        <v>5009</v>
+        <v>5131</v>
       </c>
       <c r="W33" s="20" t="n">
-        <v>5131</v>
+        <v>5295</v>
       </c>
       <c r="X33" s="20" t="n">
-        <v>5295</v>
+        <v>4460</v>
       </c>
       <c r="Y33" s="20" t="n">
-        <v>4460</v>
+        <v>3914</v>
       </c>
       <c r="Z33" s="20" t="n">
-        <v>3914</v>
+        <v>5018</v>
       </c>
       <c r="AA33" s="20" t="n">
-        <v>5018</v>
+        <v>3827</v>
       </c>
       <c r="AB33" s="20" t="n">
-        <v>3827</v>
+        <v>4029</v>
       </c>
       <c r="AC33" s="20" t="n">
-        <v>4029</v>
+        <v>4506</v>
       </c>
       <c r="AD33" s="20" t="n">
-        <v>4506</v>
+        <v>4605</v>
       </c>
       <c r="AE33" s="20" t="n">
-        <v>4605</v>
+        <v>5168</v>
       </c>
       <c r="AF33" s="20" t="n">
-        <v>5168</v>
+        <v>4411</v>
       </c>
       <c r="AG33" s="20" t="n">
-        <v>4411</v>
+        <v>3554</v>
       </c>
       <c r="AH33" s="20" t="n">
-        <v>3554</v>
+        <v>2787</v>
       </c>
       <c r="AI33" s="20" t="n">
-        <v>2787</v>
+        <v>4141</v>
       </c>
       <c r="AJ33" s="20" t="n">
-        <v>4141</v>
+        <v>2484</v>
       </c>
       <c r="AK33" s="20" t="n">
-        <v>2484</v>
+        <v>2764</v>
       </c>
       <c r="AL33" s="20" t="n">
-        <v>2764</v>
+        <v>3404</v>
       </c>
       <c r="AM33" s="20" t="n">
-        <v>3404</v>
+        <v>4645</v>
       </c>
       <c r="AN33" s="20" t="n">
-        <v>4645</v>
+        <v>4944</v>
       </c>
       <c r="AO33" s="20" t="n">
-        <v>4944</v>
+        <v>4248</v>
       </c>
       <c r="AP33" s="20" t="n">
-        <v>4248</v>
+        <v>4808</v>
       </c>
       <c r="AQ33" s="20" t="n">
-        <v>4808</v>
+        <v>4426</v>
       </c>
       <c r="AR33" s="20" t="n">
-        <v>4426</v>
+        <v>3976</v>
       </c>
       <c r="AS33" s="20" t="n">
-        <v>3976</v>
+        <v>1692</v>
       </c>
       <c r="AT33" s="20" t="n">
-        <v>1692</v>
+        <v>3620</v>
       </c>
       <c r="AU33" s="20" t="n">
-        <v>3620</v>
+        <v>4230</v>
       </c>
       <c r="AV33" s="20" t="n">
-        <v>4230</v>
+        <v>4139</v>
       </c>
       <c r="AW33" s="20" t="n">
-        <v>4139</v>
+        <v>3894</v>
       </c>
       <c r="AX33" s="20" t="n">
-        <v>3894</v>
+        <v>3883</v>
       </c>
       <c r="AY33" s="20" t="n">
-        <v>3883</v>
+        <v>4078</v>
       </c>
       <c r="AZ33" s="20" t="n">
-        <v>4078</v>
+        <v>2204</v>
       </c>
       <c r="BA33" s="20" t="n">
-        <v>2204</v>
+        <v>5004</v>
       </c>
       <c r="BB33" s="20" t="n">
-        <v>5004</v>
+        <v>4904</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7361,8 +7361,8 @@
       <c r="AC40" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="AD40" s="12" t="s">
-        <v>56</v>
+      <c r="AD40" s="12" t="n">
+        <v>0</v>
       </c>
       <c r="AE40" s="12" t="n">
         <v>0</v>
@@ -7374,13 +7374,13 @@
         <v>0</v>
       </c>
       <c r="AH40" s="12" t="n">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="AI40" s="12" t="n">
-        <v>189</v>
+        <v>55</v>
       </c>
       <c r="AJ40" s="12" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AK40" s="12" t="n">
         <v>0</v>
@@ -7448,8 +7448,8 @@
       <c r="E41" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="F41" s="15" t="n">
-        <v>0</v>
+      <c r="F41" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="G41" s="15" t="s">
         <v>56</v>
@@ -7605,46 +7605,46 @@
       </c>
       <c r="D42" s="12"/>
       <c r="E42" s="12" t="n">
-        <v>2174</v>
+        <v>1785</v>
       </c>
       <c r="F42" s="12" t="n">
-        <v>1785</v>
+        <v>3791</v>
       </c>
       <c r="G42" s="12" t="n">
-        <v>3791</v>
+        <v>2329</v>
       </c>
       <c r="H42" s="12" t="n">
-        <v>2329</v>
+        <v>3452</v>
       </c>
       <c r="I42" s="12" t="n">
-        <v>3452</v>
+        <v>2421</v>
       </c>
       <c r="J42" s="12" t="n">
-        <v>2421</v>
+        <v>2990</v>
       </c>
       <c r="K42" s="12" t="n">
-        <v>2990</v>
+        <v>2977</v>
       </c>
       <c r="L42" s="12" t="n">
-        <v>2977</v>
+        <v>2842</v>
       </c>
       <c r="M42" s="12" t="n">
-        <v>2842</v>
+        <v>2608</v>
       </c>
       <c r="N42" s="12" t="n">
-        <v>2608</v>
+        <v>1850</v>
       </c>
       <c r="O42" s="12" t="n">
-        <v>1850</v>
+        <v>1009</v>
       </c>
       <c r="P42" s="12" t="n">
-        <v>1009</v>
+        <v>1700</v>
       </c>
       <c r="Q42" s="12" t="n">
-        <v>1700</v>
-      </c>
-      <c r="R42" s="12" t="n">
         <v>1927</v>
+      </c>
+      <c r="R42" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="S42" s="12" t="s">
         <v>56</v>
@@ -7764,46 +7764,46 @@
       </c>
       <c r="D43" s="15"/>
       <c r="E43" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G43" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H43" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="I43" s="15" t="n">
+        <v>37</v>
+      </c>
+      <c r="J43" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="L43" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="F43" s="15" t="n">
-        <v>7</v>
-      </c>
-      <c r="G43" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="H43" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="I43" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="J43" s="15" t="n">
-        <v>37</v>
-      </c>
-      <c r="K43" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="M43" s="15" t="n">
+      <c r="N43" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="O43" s="15" t="n">
+        <v>27</v>
+      </c>
+      <c r="P43" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="N43" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="O43" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="P43" s="15" t="n">
-        <v>27</v>
-      </c>
       <c r="Q43" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R43" s="15" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R43" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="S43" s="15" t="s">
         <v>56</v>
@@ -7923,46 +7923,46 @@
       </c>
       <c r="D44" s="12"/>
       <c r="E44" s="12" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F44" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="G44" s="12" t="n">
+        <v>8</v>
+      </c>
+      <c r="H44" s="12" t="n">
+        <v>9</v>
+      </c>
+      <c r="I44" s="12" t="n">
+        <v>33</v>
+      </c>
+      <c r="J44" s="12" t="n">
+        <v>17</v>
+      </c>
+      <c r="K44" s="12" t="n">
+        <v>16</v>
+      </c>
+      <c r="L44" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="M44" s="12" t="n">
         <v>10</v>
       </c>
-      <c r="G44" s="12" t="n">
+      <c r="N44" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="O44" s="12" t="n">
+        <v>11</v>
+      </c>
+      <c r="P44" s="12" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q44" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="H44" s="12" t="n">
-        <v>8</v>
-      </c>
-      <c r="I44" s="12" t="n">
-        <v>9</v>
-      </c>
-      <c r="J44" s="12" t="n">
-        <v>33</v>
-      </c>
-      <c r="K44" s="12" t="n">
-        <v>17</v>
-      </c>
-      <c r="L44" s="12" t="n">
-        <v>16</v>
-      </c>
-      <c r="M44" s="12" t="n">
-        <v>4</v>
-      </c>
-      <c r="N44" s="12" t="n">
-        <v>10</v>
-      </c>
-      <c r="O44" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="P44" s="12" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q44" s="12" t="n">
-        <v>15</v>
-      </c>
-      <c r="R44" s="12" t="n">
-        <v>4</v>
+      <c r="R44" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="S44" s="12" t="s">
         <v>56</v>
@@ -8082,46 +8082,46 @@
       </c>
       <c r="D45" s="15"/>
       <c r="E45" s="15" t="n">
-        <v>1694</v>
+        <v>2364</v>
       </c>
       <c r="F45" s="15" t="n">
-        <v>2364</v>
+        <v>2090</v>
       </c>
       <c r="G45" s="15" t="n">
-        <v>2090</v>
+        <v>1780</v>
       </c>
       <c r="H45" s="15" t="n">
-        <v>1780</v>
+        <v>1754</v>
       </c>
       <c r="I45" s="15" t="n">
-        <v>1754</v>
+        <v>2297</v>
       </c>
       <c r="J45" s="15" t="n">
-        <v>2297</v>
+        <v>1700</v>
       </c>
       <c r="K45" s="15" t="n">
-        <v>1700</v>
+        <v>1854</v>
       </c>
       <c r="L45" s="15" t="n">
-        <v>1854</v>
+        <v>1945</v>
       </c>
       <c r="M45" s="15" t="n">
-        <v>1945</v>
+        <v>1668</v>
       </c>
       <c r="N45" s="15" t="n">
-        <v>1668</v>
+        <v>1664</v>
       </c>
       <c r="O45" s="15" t="n">
-        <v>1664</v>
+        <v>1517</v>
       </c>
       <c r="P45" s="15" t="n">
-        <v>1517</v>
+        <v>522</v>
       </c>
       <c r="Q45" s="15" t="n">
-        <v>522</v>
-      </c>
-      <c r="R45" s="15" t="n">
         <v>2235</v>
+      </c>
+      <c r="R45" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="S45" s="15" t="s">
         <v>56</v>
@@ -8241,22 +8241,22 @@
       </c>
       <c r="D46" s="12"/>
       <c r="E46" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" s="12" t="n">
         <v>8</v>
       </c>
+      <c r="F46" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="G46" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="H46" s="12" t="s">
-        <v>56</v>
+      <c r="H46" s="12" t="n">
+        <v>0</v>
       </c>
       <c r="I46" s="12" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J46" s="12" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="K46" s="12" t="n">
         <v>0</v>
@@ -8279,8 +8279,8 @@
       <c r="Q46" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="R46" s="12" t="n">
-        <v>0</v>
+      <c r="R46" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="S46" s="12" t="s">
         <v>56</v>
@@ -8402,8 +8402,8 @@
       <c r="E47" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="F47" s="15" t="n">
-        <v>0</v>
+      <c r="F47" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="G47" s="15" t="s">
         <v>56</v>
@@ -8633,8 +8633,8 @@
       <c r="AC48" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AD48" s="12" t="n">
-        <v>0</v>
+      <c r="AD48" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="AE48" s="12" t="s">
         <v>56</v>
@@ -8720,8 +8720,8 @@
       <c r="E49" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="F49" s="15" t="n">
-        <v>0</v>
+      <c r="F49" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="G49" s="15" t="s">
         <v>56</v>
@@ -8877,46 +8877,46 @@
       </c>
       <c r="D50" s="12"/>
       <c r="E50" s="12" t="n">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="F50" s="12" t="n">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="G50" s="12" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H50" s="12" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="I50" s="12" t="n">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="J50" s="12" t="n">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="K50" s="12" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="L50" s="12" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="M50" s="12" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="N50" s="12" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="O50" s="12" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="P50" s="12" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="Q50" s="12" t="n">
         <v>14</v>
       </c>
-      <c r="R50" s="12" t="n">
-        <v>14</v>
+      <c r="R50" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="S50" s="12" t="s">
         <v>56</v>
@@ -9036,46 +9036,46 @@
       </c>
       <c r="D51" s="15"/>
       <c r="E51" s="15" t="n">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="F51" s="15" t="n">
-        <v>321</v>
+        <v>524</v>
       </c>
       <c r="G51" s="15" t="n">
-        <v>524</v>
+        <v>643</v>
       </c>
       <c r="H51" s="15" t="n">
-        <v>643</v>
+        <v>216</v>
       </c>
       <c r="I51" s="15" t="n">
-        <v>216</v>
+        <v>50</v>
       </c>
       <c r="J51" s="15" t="n">
-        <v>50</v>
+        <v>227</v>
       </c>
       <c r="K51" s="15" t="n">
-        <v>227</v>
+        <v>102</v>
       </c>
       <c r="L51" s="15" t="n">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="M51" s="15" t="n">
-        <v>43</v>
+        <v>169</v>
       </c>
       <c r="N51" s="15" t="n">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O51" s="15" t="n">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="P51" s="15" t="n">
-        <v>171</v>
+        <v>251</v>
       </c>
       <c r="Q51" s="15" t="n">
-        <v>251</v>
-      </c>
-      <c r="R51" s="15" t="n">
         <v>258</v>
+      </c>
+      <c r="R51" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="S51" s="15" t="s">
         <v>56</v>
@@ -9195,13 +9195,13 @@
       </c>
       <c r="D52" s="12"/>
       <c r="E52" s="12" t="n">
-        <v>455</v>
+        <v>87</v>
       </c>
       <c r="F52" s="12" t="n">
-        <v>87</v>
+        <v>241</v>
       </c>
       <c r="G52" s="12" t="n">
-        <v>241</v>
+        <v>0</v>
       </c>
       <c r="H52" s="12" t="n">
         <v>0</v>
@@ -9210,31 +9210,31 @@
         <v>0</v>
       </c>
       <c r="J52" s="12" t="n">
-        <v>0</v>
+        <v>704</v>
       </c>
       <c r="K52" s="12" t="n">
-        <v>704</v>
+        <v>196</v>
       </c>
       <c r="L52" s="12" t="n">
-        <v>196</v>
+        <v>36</v>
       </c>
       <c r="M52" s="12" t="n">
-        <v>36</v>
+        <v>337</v>
       </c>
       <c r="N52" s="12" t="n">
-        <v>337</v>
+        <v>202</v>
       </c>
       <c r="O52" s="12" t="n">
-        <v>202</v>
+        <v>16</v>
       </c>
       <c r="P52" s="12" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="Q52" s="12" t="n">
-        <v>11</v>
-      </c>
-      <c r="R52" s="12" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R52" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="S52" s="12" t="s">
         <v>56</v>
@@ -9356,8 +9356,8 @@
       <c r="E53" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="F53" s="15" t="n">
-        <v>0</v>
+      <c r="F53" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="G53" s="15" t="s">
         <v>56</v>
@@ -9551,116 +9551,116 @@
       <c r="Q54" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="R54" s="12" t="s">
-        <v>56</v>
+      <c r="R54" s="12" t="n">
+        <v>2148</v>
       </c>
       <c r="S54" s="12" t="n">
-        <v>2148</v>
+        <v>1809</v>
       </c>
       <c r="T54" s="12" t="n">
-        <v>1809</v>
+        <v>1981</v>
       </c>
       <c r="U54" s="12" t="n">
-        <v>1981</v>
+        <v>2286</v>
       </c>
       <c r="V54" s="12" t="n">
-        <v>2286</v>
+        <v>1728</v>
       </c>
       <c r="W54" s="12" t="n">
-        <v>1728</v>
+        <v>2059</v>
       </c>
       <c r="X54" s="12" t="n">
-        <v>2059</v>
+        <v>1906</v>
       </c>
       <c r="Y54" s="12" t="n">
-        <v>1906</v>
+        <v>1664</v>
       </c>
       <c r="Z54" s="12" t="n">
-        <v>1664</v>
+        <v>1632</v>
       </c>
       <c r="AA54" s="12" t="n">
-        <v>1632</v>
+        <v>2038</v>
       </c>
       <c r="AB54" s="12" t="n">
-        <v>2038</v>
+        <v>1995</v>
       </c>
       <c r="AC54" s="12" t="n">
-        <v>1995</v>
+        <v>1734</v>
       </c>
       <c r="AD54" s="12" t="n">
-        <v>1734</v>
+        <v>1529</v>
       </c>
       <c r="AE54" s="12" t="n">
-        <v>1529</v>
+        <v>1506</v>
       </c>
       <c r="AF54" s="12" t="n">
-        <v>1506</v>
+        <v>2083</v>
       </c>
       <c r="AG54" s="12" t="n">
-        <v>2083</v>
+        <v>1564</v>
       </c>
       <c r="AH54" s="12" t="n">
-        <v>1564</v>
+        <v>1165</v>
       </c>
       <c r="AI54" s="12" t="n">
-        <v>1165</v>
+        <v>1685</v>
       </c>
       <c r="AJ54" s="12" t="n">
-        <v>1685</v>
+        <v>895</v>
       </c>
       <c r="AK54" s="12" t="n">
-        <v>895</v>
+        <v>1453</v>
       </c>
       <c r="AL54" s="12" t="n">
-        <v>1453</v>
+        <v>1201</v>
       </c>
       <c r="AM54" s="12" t="n">
-        <v>1201</v>
+        <v>1451</v>
       </c>
       <c r="AN54" s="12" t="n">
-        <v>1451</v>
+        <v>1496</v>
       </c>
       <c r="AO54" s="12" t="n">
-        <v>1496</v>
+        <v>2242</v>
       </c>
       <c r="AP54" s="12" t="n">
-        <v>2242</v>
+        <v>1562</v>
       </c>
       <c r="AQ54" s="12" t="n">
-        <v>1562</v>
+        <v>1580</v>
       </c>
       <c r="AR54" s="12" t="n">
-        <v>1580</v>
+        <v>1279</v>
       </c>
       <c r="AS54" s="12" t="n">
-        <v>1279</v>
+        <v>910</v>
       </c>
       <c r="AT54" s="12" t="n">
-        <v>910</v>
+        <v>996</v>
       </c>
       <c r="AU54" s="12" t="n">
-        <v>996</v>
+        <v>1866</v>
       </c>
       <c r="AV54" s="12" t="n">
-        <v>1866</v>
+        <v>1722</v>
       </c>
       <c r="AW54" s="12" t="n">
-        <v>1722</v>
+        <v>1616</v>
       </c>
       <c r="AX54" s="12" t="n">
-        <v>1616</v>
+        <v>1363</v>
       </c>
       <c r="AY54" s="12" t="n">
-        <v>1363</v>
+        <v>929</v>
       </c>
       <c r="AZ54" s="12" t="n">
-        <v>929</v>
+        <v>1029</v>
       </c>
       <c r="BA54" s="12" t="n">
-        <v>1029</v>
+        <v>2355</v>
       </c>
       <c r="BB54" s="12" t="n">
-        <v>2355</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9710,116 +9710,116 @@
       <c r="Q55" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="R55" s="15" t="s">
-        <v>56</v>
+      <c r="R55" s="15" t="n">
+        <v>3059</v>
       </c>
       <c r="S55" s="15" t="n">
-        <v>3059</v>
+        <v>2267</v>
       </c>
       <c r="T55" s="15" t="n">
-        <v>2267</v>
+        <v>2981</v>
       </c>
       <c r="U55" s="15" t="n">
-        <v>2981</v>
+        <v>2912</v>
       </c>
       <c r="V55" s="15" t="n">
-        <v>2912</v>
+        <v>3247</v>
       </c>
       <c r="W55" s="15" t="n">
-        <v>3247</v>
+        <v>2939</v>
       </c>
       <c r="X55" s="15" t="n">
-        <v>2939</v>
+        <v>2606</v>
       </c>
       <c r="Y55" s="15" t="n">
-        <v>2606</v>
+        <v>2382</v>
       </c>
       <c r="Z55" s="15" t="n">
-        <v>2382</v>
+        <v>2721</v>
       </c>
       <c r="AA55" s="15" t="n">
-        <v>2721</v>
+        <v>2462</v>
       </c>
       <c r="AB55" s="15" t="n">
-        <v>2462</v>
+        <v>1586</v>
       </c>
       <c r="AC55" s="15" t="n">
-        <v>1586</v>
+        <v>2729</v>
       </c>
       <c r="AD55" s="15" t="n">
-        <v>2729</v>
+        <v>3122</v>
       </c>
       <c r="AE55" s="15" t="n">
-        <v>3122</v>
+        <v>3573</v>
       </c>
       <c r="AF55" s="15" t="n">
-        <v>3573</v>
+        <v>2442</v>
       </c>
       <c r="AG55" s="15" t="n">
-        <v>2442</v>
+        <v>2152</v>
       </c>
       <c r="AH55" s="15" t="n">
-        <v>2152</v>
+        <v>1232</v>
       </c>
       <c r="AI55" s="15" t="n">
-        <v>1232</v>
+        <v>2961</v>
       </c>
       <c r="AJ55" s="15" t="n">
-        <v>2961</v>
+        <v>1799</v>
       </c>
       <c r="AK55" s="15" t="n">
-        <v>1799</v>
+        <v>1458</v>
       </c>
       <c r="AL55" s="15" t="n">
-        <v>1458</v>
+        <v>1312</v>
       </c>
       <c r="AM55" s="15" t="n">
-        <v>1312</v>
+        <v>1028</v>
       </c>
       <c r="AN55" s="15" t="n">
-        <v>1028</v>
+        <v>985</v>
       </c>
       <c r="AO55" s="15" t="n">
-        <v>985</v>
+        <v>1412</v>
       </c>
       <c r="AP55" s="15" t="n">
-        <v>1412</v>
+        <v>1381</v>
       </c>
       <c r="AQ55" s="15" t="n">
-        <v>1381</v>
+        <v>1332</v>
       </c>
       <c r="AR55" s="15" t="n">
-        <v>1332</v>
+        <v>1292</v>
       </c>
       <c r="AS55" s="15" t="n">
-        <v>1292</v>
+        <v>586</v>
       </c>
       <c r="AT55" s="15" t="n">
-        <v>586</v>
+        <v>715</v>
       </c>
       <c r="AU55" s="15" t="n">
-        <v>715</v>
+        <v>1016</v>
       </c>
       <c r="AV55" s="15" t="n">
-        <v>1016</v>
+        <v>1406</v>
       </c>
       <c r="AW55" s="15" t="n">
-        <v>1406</v>
+        <v>1167</v>
       </c>
       <c r="AX55" s="15" t="n">
-        <v>1167</v>
+        <v>1696</v>
       </c>
       <c r="AY55" s="15" t="n">
-        <v>1696</v>
+        <v>685</v>
       </c>
       <c r="AZ55" s="15" t="n">
-        <v>685</v>
+        <v>1131</v>
       </c>
       <c r="BA55" s="15" t="n">
-        <v>1131</v>
+        <v>1713</v>
       </c>
       <c r="BB55" s="15" t="n">
-        <v>1713</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9831,8 +9831,8 @@
       <c r="E56" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="F56" s="12" t="s">
-        <v>56</v>
+      <c r="F56" s="12" t="n">
+        <v>0</v>
       </c>
       <c r="G56" s="12" t="n">
         <v>0</v>
@@ -9867,8 +9867,8 @@
       <c r="Q56" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="R56" s="12" t="n">
-        <v>0</v>
+      <c r="R56" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="S56" s="12" t="s">
         <v>56</v>
@@ -10086,56 +10086,56 @@
       <c r="AK57" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AL57" s="15" t="s">
-        <v>56</v>
+      <c r="AL57" s="15" t="n">
+        <v>992</v>
       </c>
       <c r="AM57" s="15" t="n">
-        <v>992</v>
+        <v>1650</v>
       </c>
       <c r="AN57" s="15" t="n">
-        <v>1650</v>
+        <v>1959</v>
       </c>
       <c r="AO57" s="15" t="n">
-        <v>1959</v>
+        <v>1628</v>
       </c>
       <c r="AP57" s="15" t="n">
-        <v>1628</v>
+        <v>1161</v>
       </c>
       <c r="AQ57" s="15" t="n">
-        <v>1161</v>
+        <v>1312</v>
       </c>
       <c r="AR57" s="15" t="n">
-        <v>1312</v>
+        <v>1513</v>
       </c>
       <c r="AS57" s="15" t="n">
-        <v>1513</v>
+        <v>657</v>
       </c>
       <c r="AT57" s="15" t="n">
-        <v>657</v>
+        <v>1510</v>
       </c>
       <c r="AU57" s="15" t="n">
-        <v>1510</v>
+        <v>1499</v>
       </c>
       <c r="AV57" s="15" t="n">
-        <v>1499</v>
+        <v>1383</v>
       </c>
       <c r="AW57" s="15" t="n">
-        <v>1383</v>
+        <v>44</v>
       </c>
       <c r="AX57" s="15" t="n">
-        <v>44</v>
+        <v>579</v>
       </c>
       <c r="AY57" s="15" t="n">
-        <v>579</v>
+        <v>1632</v>
       </c>
       <c r="AZ57" s="15" t="n">
-        <v>1632</v>
+        <v>586</v>
       </c>
       <c r="BA57" s="15" t="n">
-        <v>586</v>
+        <v>1302</v>
       </c>
       <c r="BB57" s="15" t="n">
-        <v>1302</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10276,11 +10276,11 @@
       <c r="AC59" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="AD59" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE59" s="12" t="n">
-        <v>0</v>
+      <c r="AD59" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE59" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="AF59" s="12" t="s">
         <v>56</v>
@@ -10306,11 +10306,11 @@
       <c r="AM59" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="AN59" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="AO59" s="12" t="n">
-        <v>0</v>
+      <c r="AN59" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO59" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="AP59" s="12" t="s">
         <v>56</v>
@@ -10433,11 +10433,11 @@
       <c r="AC60" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AD60" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE60" s="15" t="n">
-        <v>0</v>
+      <c r="AD60" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE60" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="AF60" s="15" t="s">
         <v>56</v>
@@ -10463,11 +10463,11 @@
       <c r="AM60" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AN60" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="AO60" s="15" t="n">
-        <v>0</v>
+      <c r="AN60" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO60" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="AP60" s="15" t="s">
         <v>56</v>
@@ -10563,8 +10563,8 @@
       <c r="T61" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="U61" s="18" t="s">
-        <v>56</v>
+      <c r="U61" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="V61" s="18" t="n">
         <v>0</v>
@@ -10777,8 +10777,8 @@
       <c r="T63" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="U63" s="18" t="s">
-        <v>56</v>
+      <c r="U63" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="V63" s="18" t="n">
         <v>0</v>
@@ -10887,154 +10887,154 @@
       <c r="C64" s="20"/>
       <c r="D64" s="20"/>
       <c r="E64" s="20" t="n">
-        <v>4736</v>
+        <v>4633</v>
       </c>
       <c r="F64" s="20" t="n">
-        <v>4633</v>
+        <v>6672</v>
       </c>
       <c r="G64" s="20" t="n">
-        <v>6672</v>
+        <v>4790</v>
       </c>
       <c r="H64" s="20" t="n">
-        <v>4790</v>
+        <v>5439</v>
       </c>
       <c r="I64" s="20" t="n">
-        <v>5439</v>
+        <v>4920</v>
       </c>
       <c r="J64" s="20" t="n">
-        <v>4920</v>
+        <v>5640</v>
       </c>
       <c r="K64" s="20" t="n">
-        <v>5640</v>
+        <v>5172</v>
       </c>
       <c r="L64" s="20" t="n">
-        <v>5172</v>
+        <v>4877</v>
       </c>
       <c r="M64" s="20" t="n">
-        <v>4877</v>
+        <v>4821</v>
       </c>
       <c r="N64" s="20" t="n">
-        <v>4821</v>
+        <v>3915</v>
       </c>
       <c r="O64" s="20" t="n">
-        <v>3915</v>
+        <v>2752</v>
       </c>
       <c r="P64" s="20" t="n">
-        <v>2752</v>
+        <v>2514</v>
       </c>
       <c r="Q64" s="20" t="n">
-        <v>2514</v>
+        <v>4438</v>
       </c>
       <c r="R64" s="20" t="n">
-        <v>4438</v>
+        <v>5207</v>
       </c>
       <c r="S64" s="20" t="n">
-        <v>5207</v>
+        <v>4076</v>
       </c>
       <c r="T64" s="20" t="n">
-        <v>4076</v>
+        <v>4962</v>
       </c>
       <c r="U64" s="20" t="n">
-        <v>4962</v>
+        <v>5198</v>
       </c>
       <c r="V64" s="20" t="n">
-        <v>5198</v>
+        <v>4975</v>
       </c>
       <c r="W64" s="20" t="n">
-        <v>4975</v>
+        <v>4998</v>
       </c>
       <c r="X64" s="20" t="n">
-        <v>4998</v>
+        <v>4512</v>
       </c>
       <c r="Y64" s="20" t="n">
-        <v>4512</v>
+        <v>4046</v>
       </c>
       <c r="Z64" s="20" t="n">
-        <v>4046</v>
+        <v>4353</v>
       </c>
       <c r="AA64" s="20" t="n">
-        <v>4353</v>
+        <v>4500</v>
       </c>
       <c r="AB64" s="20" t="n">
-        <v>4500</v>
+        <v>3581</v>
       </c>
       <c r="AC64" s="20" t="n">
-        <v>3581</v>
+        <v>4463</v>
       </c>
       <c r="AD64" s="20" t="n">
-        <v>4463</v>
+        <v>4651</v>
       </c>
       <c r="AE64" s="20" t="n">
-        <v>4651</v>
+        <v>5079</v>
       </c>
       <c r="AF64" s="20" t="n">
-        <v>5079</v>
+        <v>4525</v>
       </c>
       <c r="AG64" s="20" t="n">
-        <v>4525</v>
+        <v>3716</v>
       </c>
       <c r="AH64" s="20" t="n">
-        <v>3716</v>
+        <v>2586</v>
       </c>
       <c r="AI64" s="20" t="n">
-        <v>2586</v>
+        <v>4701</v>
       </c>
       <c r="AJ64" s="20" t="n">
-        <v>4701</v>
+        <v>2694</v>
       </c>
       <c r="AK64" s="20" t="n">
-        <v>2694</v>
+        <v>2911</v>
       </c>
       <c r="AL64" s="20" t="n">
-        <v>2911</v>
+        <v>3505</v>
       </c>
       <c r="AM64" s="20" t="n">
-        <v>3505</v>
+        <v>4129</v>
       </c>
       <c r="AN64" s="20" t="n">
-        <v>4129</v>
+        <v>4440</v>
       </c>
       <c r="AO64" s="20" t="n">
-        <v>4440</v>
+        <v>5282</v>
       </c>
       <c r="AP64" s="20" t="n">
-        <v>5282</v>
+        <v>4104</v>
       </c>
       <c r="AQ64" s="20" t="n">
-        <v>4104</v>
+        <v>4224</v>
       </c>
       <c r="AR64" s="20" t="n">
-        <v>4224</v>
+        <v>4084</v>
       </c>
       <c r="AS64" s="20" t="n">
-        <v>4084</v>
+        <v>2153</v>
       </c>
       <c r="AT64" s="20" t="n">
-        <v>2153</v>
+        <v>3221</v>
       </c>
       <c r="AU64" s="20" t="n">
-        <v>3221</v>
+        <v>4381</v>
       </c>
       <c r="AV64" s="20" t="n">
-        <v>4381</v>
+        <v>4511</v>
       </c>
       <c r="AW64" s="20" t="n">
-        <v>4511</v>
+        <v>2827</v>
       </c>
       <c r="AX64" s="20" t="n">
-        <v>2827</v>
+        <v>3638</v>
       </c>
       <c r="AY64" s="20" t="n">
-        <v>3638</v>
+        <v>3246</v>
       </c>
       <c r="AZ64" s="20" t="n">
-        <v>3246</v>
+        <v>2746</v>
       </c>
       <c r="BA64" s="20" t="n">
-        <v>2746</v>
+        <v>5370</v>
       </c>
       <c r="BB64" s="20" t="n">
-        <v>5370</v>
+        <v>4501</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11554,80 +11554,80 @@
       <c r="AC71" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="AD71" s="12" t="s">
-        <v>56</v>
+      <c r="AD71" s="12" t="n">
+        <v>0</v>
       </c>
       <c r="AE71" s="12" t="n">
         <v>0</v>
       </c>
       <c r="AF71" s="12" t="n">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="AG71" s="12" t="n">
-        <v>232</v>
+        <v>0</v>
       </c>
       <c r="AH71" s="12" t="n">
-        <v>0</v>
+        <v>3209</v>
       </c>
       <c r="AI71" s="12" t="n">
-        <v>3209</v>
+        <v>699</v>
       </c>
       <c r="AJ71" s="12" t="n">
-        <v>699</v>
+        <v>2268</v>
       </c>
       <c r="AK71" s="12" t="n">
-        <v>2268</v>
+        <v>67</v>
       </c>
       <c r="AL71" s="12" t="n">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="AM71" s="12" t="n">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="AN71" s="12" t="n">
-        <v>87</v>
+        <v>1</v>
       </c>
       <c r="AO71" s="12" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AP71" s="12" t="n">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="AQ71" s="12" t="n">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="AR71" s="12" t="n">
-        <v>117</v>
+        <v>4</v>
       </c>
       <c r="AS71" s="12" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="AT71" s="12" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AU71" s="12" t="n">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="AV71" s="12" t="n">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="AW71" s="12" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AX71" s="12" t="n">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="AY71" s="12" t="n">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="AZ71" s="12" t="n">
-        <v>13</v>
+        <v>198</v>
       </c>
       <c r="BA71" s="12" t="n">
-        <v>198</v>
+        <v>36</v>
       </c>
       <c r="BB71" s="12" t="n">
-        <v>36</v>
+        <v>61</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11641,8 +11641,8 @@
       <c r="E72" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="F72" s="15" t="n">
-        <v>0</v>
+      <c r="F72" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="G72" s="15" t="s">
         <v>56</v>
@@ -11798,46 +11798,46 @@
       </c>
       <c r="D73" s="12"/>
       <c r="E73" s="12" t="n">
-        <v>33914</v>
+        <v>28444</v>
       </c>
       <c r="F73" s="12" t="n">
-        <v>28444</v>
+        <v>66483</v>
       </c>
       <c r="G73" s="12" t="n">
-        <v>66483</v>
+        <v>43626</v>
       </c>
       <c r="H73" s="12" t="n">
-        <v>43626</v>
+        <v>63730</v>
       </c>
       <c r="I73" s="12" t="n">
-        <v>63730</v>
+        <v>46814</v>
       </c>
       <c r="J73" s="12" t="n">
-        <v>46814</v>
+        <v>54195</v>
       </c>
       <c r="K73" s="12" t="n">
-        <v>54195</v>
+        <v>58003</v>
       </c>
       <c r="L73" s="12" t="n">
-        <v>58003</v>
+        <v>51406</v>
       </c>
       <c r="M73" s="12" t="n">
-        <v>51406</v>
+        <v>69111</v>
       </c>
       <c r="N73" s="12" t="n">
-        <v>69111</v>
+        <v>43103</v>
       </c>
       <c r="O73" s="12" t="n">
-        <v>43103</v>
+        <v>25479</v>
       </c>
       <c r="P73" s="12" t="n">
-        <v>25479</v>
+        <v>42289</v>
       </c>
       <c r="Q73" s="12" t="n">
-        <v>42289</v>
-      </c>
-      <c r="R73" s="12" t="n">
         <v>44658</v>
+      </c>
+      <c r="R73" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="S73" s="12" t="s">
         <v>56</v>
@@ -11957,46 +11957,46 @@
       </c>
       <c r="D74" s="15"/>
       <c r="E74" s="15" t="n">
-        <v>6</v>
-      </c>
-      <c r="F74" s="15" t="n">
         <v>117</v>
       </c>
+      <c r="F74" s="15" t="s">
+        <v>56</v>
+      </c>
       <c r="G74" s="15" t="s">
         <v>56</v>
       </c>
       <c r="H74" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="I74" s="15" t="s">
-        <v>56</v>
+      <c r="I74" s="15" t="n">
+        <v>785</v>
       </c>
       <c r="J74" s="15" t="n">
-        <v>785</v>
+        <v>0</v>
       </c>
       <c r="K74" s="15" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="L74" s="15" t="n">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="M74" s="15" t="n">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="N74" s="15" t="n">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="O74" s="15" t="n">
-        <v>106</v>
+        <v>590</v>
       </c>
       <c r="P74" s="15" t="n">
-        <v>590</v>
+        <v>28</v>
       </c>
       <c r="Q74" s="15" t="n">
-        <v>28</v>
-      </c>
-      <c r="R74" s="15" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R74" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="S74" s="15" t="s">
         <v>56</v>
@@ -12116,46 +12116,46 @@
       </c>
       <c r="D75" s="12"/>
       <c r="E75" s="12" t="n">
-        <v>6</v>
+        <v>122</v>
       </c>
       <c r="F75" s="12" t="n">
+        <v>46</v>
+      </c>
+      <c r="G75" s="12" t="n">
+        <v>107</v>
+      </c>
+      <c r="H75" s="12" t="n">
         <v>122</v>
       </c>
-      <c r="G75" s="12" t="n">
-        <v>46</v>
-      </c>
-      <c r="H75" s="12" t="n">
-        <v>107</v>
-      </c>
       <c r="I75" s="12" t="n">
-        <v>122</v>
+        <v>458</v>
       </c>
       <c r="J75" s="12" t="n">
-        <v>458</v>
+        <v>228</v>
       </c>
       <c r="K75" s="12" t="n">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="L75" s="12" t="n">
-        <v>246</v>
+        <v>61</v>
       </c>
       <c r="M75" s="12" t="n">
-        <v>61</v>
+        <v>139</v>
       </c>
       <c r="N75" s="12" t="n">
-        <v>139</v>
+        <v>49</v>
       </c>
       <c r="O75" s="12" t="n">
-        <v>49</v>
+        <v>156</v>
       </c>
       <c r="P75" s="12" t="n">
-        <v>156</v>
+        <v>218</v>
       </c>
       <c r="Q75" s="12" t="n">
-        <v>218</v>
-      </c>
-      <c r="R75" s="12" t="n">
         <v>50</v>
+      </c>
+      <c r="R75" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="S75" s="12" t="s">
         <v>56</v>
@@ -12275,46 +12275,46 @@
       </c>
       <c r="D76" s="15"/>
       <c r="E76" s="15" t="n">
-        <v>40914</v>
+        <v>65937</v>
       </c>
       <c r="F76" s="15" t="n">
-        <v>65937</v>
+        <v>68567</v>
       </c>
       <c r="G76" s="15" t="n">
-        <v>68567</v>
+        <v>66345</v>
       </c>
       <c r="H76" s="15" t="n">
-        <v>66345</v>
+        <v>72154</v>
       </c>
       <c r="I76" s="15" t="n">
-        <v>72154</v>
+        <v>70173</v>
       </c>
       <c r="J76" s="15" t="n">
-        <v>70173</v>
+        <v>54267</v>
       </c>
       <c r="K76" s="15" t="n">
-        <v>54267</v>
+        <v>73087</v>
       </c>
       <c r="L76" s="15" t="n">
-        <v>73087</v>
+        <v>66895</v>
       </c>
       <c r="M76" s="15" t="n">
-        <v>66895</v>
+        <v>61491</v>
       </c>
       <c r="N76" s="15" t="n">
-        <v>61491</v>
+        <v>63058</v>
       </c>
       <c r="O76" s="15" t="n">
-        <v>63058</v>
+        <v>50234</v>
       </c>
       <c r="P76" s="15" t="n">
-        <v>50234</v>
+        <v>23122</v>
       </c>
       <c r="Q76" s="15" t="n">
-        <v>23122</v>
-      </c>
-      <c r="R76" s="15" t="n">
         <v>68965</v>
+      </c>
+      <c r="R76" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="S76" s="15" t="s">
         <v>56</v>
@@ -12434,22 +12434,22 @@
       </c>
       <c r="D77" s="12"/>
       <c r="E77" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F77" s="12" t="n">
         <v>432</v>
       </c>
+      <c r="F77" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="G77" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="H77" s="12" t="s">
-        <v>56</v>
+      <c r="H77" s="12" t="n">
+        <v>0</v>
       </c>
       <c r="I77" s="12" t="n">
-        <v>0</v>
+        <v>3160</v>
       </c>
       <c r="J77" s="12" t="n">
-        <v>3160</v>
+        <v>0</v>
       </c>
       <c r="K77" s="12" t="n">
         <v>0</v>
@@ -12472,8 +12472,8 @@
       <c r="Q77" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="R77" s="12" t="n">
-        <v>0</v>
+      <c r="R77" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="S77" s="12" t="s">
         <v>56</v>
@@ -12595,8 +12595,8 @@
       <c r="E78" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="F78" s="15" t="n">
-        <v>0</v>
+      <c r="F78" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="G78" s="15" t="s">
         <v>56</v>
@@ -12752,82 +12752,82 @@
       </c>
       <c r="D79" s="12"/>
       <c r="E79" s="12" t="n">
-        <v>1135</v>
+        <v>3298</v>
       </c>
       <c r="F79" s="12" t="n">
-        <v>3298</v>
+        <v>76</v>
       </c>
       <c r="G79" s="12" t="n">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="H79" s="12" t="n">
-        <v>139</v>
+        <v>2258</v>
       </c>
       <c r="I79" s="12" t="n">
-        <v>2258</v>
+        <v>6922</v>
       </c>
       <c r="J79" s="12" t="n">
-        <v>6922</v>
+        <v>1524</v>
       </c>
       <c r="K79" s="12" t="n">
-        <v>1524</v>
+        <v>88</v>
       </c>
       <c r="L79" s="12" t="n">
-        <v>88</v>
+        <v>16937</v>
       </c>
       <c r="M79" s="12" t="n">
-        <v>16937</v>
+        <v>42879</v>
       </c>
       <c r="N79" s="12" t="n">
-        <v>42879</v>
+        <v>24347</v>
       </c>
       <c r="O79" s="12" t="n">
-        <v>24347</v>
+        <v>145</v>
       </c>
       <c r="P79" s="12" t="n">
-        <v>145</v>
+        <v>303</v>
       </c>
       <c r="Q79" s="12" t="n">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="R79" s="12" t="n">
-        <v>276</v>
+        <v>27</v>
       </c>
       <c r="S79" s="12" t="n">
-        <v>27</v>
+        <v>4433</v>
       </c>
       <c r="T79" s="12" t="n">
-        <v>4433</v>
+        <v>160</v>
       </c>
       <c r="U79" s="12" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="V79" s="12" t="n">
-        <v>0</v>
+        <v>23500</v>
       </c>
       <c r="W79" s="12" t="n">
-        <v>23500</v>
+        <v>17</v>
       </c>
       <c r="X79" s="12" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="Y79" s="12" t="n">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="Z79" s="12" t="n">
-        <v>107</v>
+        <v>8360</v>
       </c>
       <c r="AA79" s="12" t="n">
-        <v>8360</v>
+        <v>1878</v>
       </c>
       <c r="AB79" s="12" t="n">
-        <v>1878</v>
+        <v>56</v>
       </c>
       <c r="AC79" s="12" t="n">
-        <v>56</v>
-      </c>
-      <c r="AD79" s="12" t="n">
         <v>80</v>
+      </c>
+      <c r="AD79" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="AE79" s="12" t="s">
         <v>56</v>
@@ -12913,8 +12913,8 @@
       <c r="E80" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="F80" s="15" t="n">
-        <v>0</v>
+      <c r="F80" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="G80" s="15" t="s">
         <v>56</v>
@@ -13070,46 +13070,46 @@
       </c>
       <c r="D81" s="12"/>
       <c r="E81" s="12" t="n">
-        <v>2454</v>
+        <v>1802</v>
       </c>
       <c r="F81" s="12" t="n">
-        <v>1802</v>
+        <v>664</v>
       </c>
       <c r="G81" s="12" t="n">
-        <v>664</v>
+        <v>1933</v>
       </c>
       <c r="H81" s="12" t="n">
-        <v>1933</v>
+        <v>505</v>
       </c>
       <c r="I81" s="12" t="n">
-        <v>505</v>
+        <v>3548</v>
       </c>
       <c r="J81" s="12" t="n">
-        <v>3548</v>
+        <v>122</v>
       </c>
       <c r="K81" s="12" t="n">
-        <v>122</v>
+        <v>1381</v>
       </c>
       <c r="L81" s="12" t="n">
-        <v>1381</v>
+        <v>353</v>
       </c>
       <c r="M81" s="12" t="n">
-        <v>353</v>
+        <v>780</v>
       </c>
       <c r="N81" s="12" t="n">
-        <v>780</v>
+        <v>1770</v>
       </c>
       <c r="O81" s="12" t="n">
-        <v>1770</v>
+        <v>533</v>
       </c>
       <c r="P81" s="12" t="n">
-        <v>533</v>
+        <v>1780</v>
       </c>
       <c r="Q81" s="12" t="n">
-        <v>1780</v>
-      </c>
-      <c r="R81" s="12" t="n">
         <v>1175</v>
+      </c>
+      <c r="R81" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="S81" s="12" t="s">
         <v>56</v>
@@ -13229,46 +13229,46 @@
       </c>
       <c r="D82" s="15"/>
       <c r="E82" s="15" t="n">
-        <v>3186</v>
+        <v>3573</v>
       </c>
       <c r="F82" s="15" t="n">
-        <v>3573</v>
+        <v>5242</v>
       </c>
       <c r="G82" s="15" t="n">
-        <v>5242</v>
+        <v>6818</v>
       </c>
       <c r="H82" s="15" t="n">
-        <v>6818</v>
+        <v>3668</v>
       </c>
       <c r="I82" s="15" t="n">
-        <v>3668</v>
+        <v>920</v>
       </c>
       <c r="J82" s="15" t="n">
-        <v>920</v>
+        <v>4236</v>
       </c>
       <c r="K82" s="15" t="n">
-        <v>4236</v>
+        <v>1984</v>
       </c>
       <c r="L82" s="15" t="n">
-        <v>1984</v>
+        <v>1124</v>
       </c>
       <c r="M82" s="15" t="n">
-        <v>1124</v>
+        <v>2575</v>
       </c>
       <c r="N82" s="15" t="n">
-        <v>2575</v>
+        <v>3346</v>
       </c>
       <c r="O82" s="15" t="n">
-        <v>3346</v>
+        <v>3830</v>
       </c>
       <c r="P82" s="15" t="n">
-        <v>3830</v>
+        <v>5571</v>
       </c>
       <c r="Q82" s="15" t="n">
-        <v>5571</v>
-      </c>
-      <c r="R82" s="15" t="n">
         <v>5948</v>
+      </c>
+      <c r="R82" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="S82" s="15" t="s">
         <v>56</v>
@@ -13388,13 +13388,13 @@
       </c>
       <c r="D83" s="12"/>
       <c r="E83" s="12" t="n">
-        <v>8158</v>
+        <v>1638</v>
       </c>
       <c r="F83" s="12" t="n">
-        <v>1638</v>
+        <v>5538</v>
       </c>
       <c r="G83" s="12" t="n">
-        <v>5538</v>
+        <v>0</v>
       </c>
       <c r="H83" s="12" t="n">
         <v>0</v>
@@ -13403,31 +13403,31 @@
         <v>0</v>
       </c>
       <c r="J83" s="12" t="n">
-        <v>0</v>
+        <v>19390</v>
       </c>
       <c r="K83" s="12" t="n">
-        <v>19390</v>
+        <v>2335</v>
       </c>
       <c r="L83" s="12" t="n">
-        <v>2335</v>
+        <v>1680</v>
       </c>
       <c r="M83" s="12" t="n">
-        <v>1680</v>
+        <v>13085</v>
       </c>
       <c r="N83" s="12" t="n">
-        <v>13085</v>
+        <v>7381</v>
       </c>
       <c r="O83" s="12" t="n">
-        <v>7381</v>
+        <v>650</v>
       </c>
       <c r="P83" s="12" t="n">
-        <v>650</v>
+        <v>472</v>
       </c>
       <c r="Q83" s="12" t="n">
-        <v>472</v>
-      </c>
-      <c r="R83" s="12" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R83" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="S83" s="12" t="s">
         <v>56</v>
@@ -13547,10 +13547,10 @@
       </c>
       <c r="D84" s="15"/>
       <c r="E84" s="15" t="n">
-        <v>4112</v>
-      </c>
-      <c r="F84" s="15" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F84" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="G84" s="15" t="s">
         <v>56</v>
@@ -13744,116 +13744,116 @@
       <c r="Q85" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="R85" s="12" t="s">
-        <v>56</v>
+      <c r="R85" s="12" t="n">
+        <v>94011</v>
       </c>
       <c r="S85" s="12" t="n">
-        <v>94011</v>
+        <v>73945</v>
       </c>
       <c r="T85" s="12" t="n">
-        <v>73945</v>
+        <v>79937</v>
       </c>
       <c r="U85" s="12" t="n">
-        <v>79937</v>
+        <v>95548</v>
       </c>
       <c r="V85" s="12" t="n">
-        <v>95548</v>
+        <v>82113</v>
       </c>
       <c r="W85" s="12" t="n">
-        <v>82113</v>
+        <v>96648</v>
       </c>
       <c r="X85" s="12" t="n">
-        <v>96648</v>
+        <v>93449</v>
       </c>
       <c r="Y85" s="12" t="n">
-        <v>93449</v>
+        <v>78069</v>
       </c>
       <c r="Z85" s="12" t="n">
-        <v>78069</v>
+        <v>87642</v>
       </c>
       <c r="AA85" s="12" t="n">
-        <v>87642</v>
+        <v>113109</v>
       </c>
       <c r="AB85" s="12" t="n">
-        <v>113109</v>
+        <v>106505</v>
       </c>
       <c r="AC85" s="12" t="n">
-        <v>106505</v>
+        <v>88485</v>
       </c>
       <c r="AD85" s="12" t="n">
-        <v>88485</v>
+        <v>100316</v>
       </c>
       <c r="AE85" s="12" t="n">
-        <v>100316</v>
+        <v>121252</v>
       </c>
       <c r="AF85" s="12" t="n">
-        <v>121252</v>
+        <v>163838</v>
       </c>
       <c r="AG85" s="12" t="n">
-        <v>163838</v>
+        <v>132081</v>
       </c>
       <c r="AH85" s="12" t="n">
-        <v>132081</v>
+        <v>93840</v>
       </c>
       <c r="AI85" s="12" t="n">
-        <v>93840</v>
+        <v>144235</v>
       </c>
       <c r="AJ85" s="12" t="n">
-        <v>144235</v>
+        <v>84545</v>
       </c>
       <c r="AK85" s="12" t="n">
-        <v>84545</v>
+        <v>112058</v>
       </c>
       <c r="AL85" s="12" t="n">
-        <v>112058</v>
+        <v>121188</v>
       </c>
       <c r="AM85" s="12" t="n">
-        <v>121188</v>
+        <v>205854</v>
       </c>
       <c r="AN85" s="12" t="n">
-        <v>205854</v>
+        <v>198388</v>
       </c>
       <c r="AO85" s="12" t="n">
-        <v>198388</v>
+        <v>247488</v>
       </c>
       <c r="AP85" s="12" t="n">
-        <v>247488</v>
+        <v>231122</v>
       </c>
       <c r="AQ85" s="12" t="n">
-        <v>231122</v>
+        <v>249075</v>
       </c>
       <c r="AR85" s="12" t="n">
-        <v>249075</v>
+        <v>184744</v>
       </c>
       <c r="AS85" s="12" t="n">
-        <v>184744</v>
+        <v>129067</v>
       </c>
       <c r="AT85" s="12" t="n">
-        <v>129067</v>
+        <v>143575</v>
       </c>
       <c r="AU85" s="12" t="n">
-        <v>143575</v>
+        <v>280420</v>
       </c>
       <c r="AV85" s="12" t="n">
-        <v>280420</v>
+        <v>262114</v>
       </c>
       <c r="AW85" s="12" t="n">
-        <v>262114</v>
+        <v>241008</v>
       </c>
       <c r="AX85" s="12" t="n">
-        <v>241008</v>
+        <v>198431</v>
       </c>
       <c r="AY85" s="12" t="n">
-        <v>198431</v>
+        <v>146356</v>
       </c>
       <c r="AZ85" s="12" t="n">
-        <v>146356</v>
+        <v>158671</v>
       </c>
       <c r="BA85" s="12" t="n">
-        <v>158671</v>
+        <v>371910</v>
       </c>
       <c r="BB85" s="12" t="n">
-        <v>371910</v>
+        <v>257172</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13903,116 +13903,116 @@
       <c r="Q86" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="R86" s="15" t="s">
-        <v>56</v>
+      <c r="R86" s="15" t="n">
+        <v>76715</v>
       </c>
       <c r="S86" s="15" t="n">
-        <v>76715</v>
+        <v>57529</v>
       </c>
       <c r="T86" s="15" t="n">
-        <v>57529</v>
+        <v>83026</v>
       </c>
       <c r="U86" s="15" t="n">
-        <v>83026</v>
+        <v>82971</v>
       </c>
       <c r="V86" s="15" t="n">
-        <v>82971</v>
+        <v>102665</v>
       </c>
       <c r="W86" s="15" t="n">
-        <v>102665</v>
+        <v>121223</v>
       </c>
       <c r="X86" s="15" t="n">
-        <v>121223</v>
+        <v>84959</v>
       </c>
       <c r="Y86" s="15" t="n">
-        <v>84959</v>
+        <v>79579</v>
       </c>
       <c r="Z86" s="15" t="n">
-        <v>79579</v>
+        <v>99804</v>
       </c>
       <c r="AA86" s="15" t="n">
-        <v>99804</v>
+        <v>84884</v>
       </c>
       <c r="AB86" s="15" t="n">
-        <v>84884</v>
+        <v>55835</v>
       </c>
       <c r="AC86" s="15" t="n">
-        <v>55835</v>
+        <v>98828</v>
       </c>
       <c r="AD86" s="15" t="n">
-        <v>98828</v>
+        <v>165657</v>
       </c>
       <c r="AE86" s="15" t="n">
-        <v>165657</v>
+        <v>179585</v>
       </c>
       <c r="AF86" s="15" t="n">
-        <v>179585</v>
+        <v>115945</v>
       </c>
       <c r="AG86" s="15" t="n">
-        <v>115945</v>
+        <v>115065</v>
       </c>
       <c r="AH86" s="15" t="n">
-        <v>115065</v>
+        <v>61421</v>
       </c>
       <c r="AI86" s="15" t="n">
-        <v>61421</v>
+        <v>135126</v>
       </c>
       <c r="AJ86" s="15" t="n">
-        <v>135126</v>
+        <v>71677</v>
       </c>
       <c r="AK86" s="15" t="n">
-        <v>71677</v>
+        <v>65301</v>
       </c>
       <c r="AL86" s="15" t="n">
-        <v>65301</v>
+        <v>98477</v>
       </c>
       <c r="AM86" s="15" t="n">
-        <v>98477</v>
+        <v>74436</v>
       </c>
       <c r="AN86" s="15" t="n">
-        <v>74436</v>
+        <v>73649</v>
       </c>
       <c r="AO86" s="15" t="n">
-        <v>73649</v>
+        <v>96443</v>
       </c>
       <c r="AP86" s="15" t="n">
-        <v>96443</v>
+        <v>136975</v>
       </c>
       <c r="AQ86" s="15" t="n">
-        <v>136975</v>
+        <v>132620</v>
       </c>
       <c r="AR86" s="15" t="n">
-        <v>132620</v>
+        <v>128120</v>
       </c>
       <c r="AS86" s="15" t="n">
-        <v>128120</v>
+        <v>62055</v>
       </c>
       <c r="AT86" s="15" t="n">
-        <v>62055</v>
+        <v>68661</v>
       </c>
       <c r="AU86" s="15" t="n">
-        <v>68661</v>
+        <v>96641</v>
       </c>
       <c r="AV86" s="15" t="n">
-        <v>96641</v>
+        <v>136364</v>
       </c>
       <c r="AW86" s="15" t="n">
-        <v>136364</v>
+        <v>113045</v>
       </c>
       <c r="AX86" s="15" t="n">
-        <v>113045</v>
+        <v>162370</v>
       </c>
       <c r="AY86" s="15" t="n">
-        <v>162370</v>
+        <v>71304</v>
       </c>
       <c r="AZ86" s="15" t="n">
-        <v>71304</v>
+        <v>111970</v>
       </c>
       <c r="BA86" s="15" t="n">
-        <v>111970</v>
+        <v>174162</v>
       </c>
       <c r="BB86" s="15" t="n">
-        <v>174162</v>
+        <v>154821</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14026,26 +14026,26 @@
       <c r="E87" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="F87" s="12" t="s">
-        <v>56</v>
+      <c r="F87" s="12" t="n">
+        <v>4377</v>
       </c>
       <c r="G87" s="12" t="n">
-        <v>4377</v>
+        <v>0</v>
       </c>
       <c r="H87" s="12" t="n">
-        <v>0</v>
+        <v>2424</v>
       </c>
       <c r="I87" s="12" t="n">
-        <v>2424</v>
+        <v>0</v>
       </c>
       <c r="J87" s="12" t="n">
         <v>0</v>
       </c>
       <c r="K87" s="12" t="n">
-        <v>0</v>
+        <v>9630</v>
       </c>
       <c r="L87" s="12" t="n">
-        <v>9630</v>
+        <v>0</v>
       </c>
       <c r="M87" s="12" t="n">
         <v>0</v>
@@ -14062,8 +14062,8 @@
       <c r="Q87" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="R87" s="12" t="n">
-        <v>0</v>
+      <c r="R87" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="S87" s="12" t="s">
         <v>56</v>
@@ -14281,56 +14281,56 @@
       <c r="AK88" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AL88" s="15" t="s">
-        <v>56</v>
+      <c r="AL88" s="15" t="n">
+        <v>10914</v>
       </c>
       <c r="AM88" s="15" t="n">
-        <v>10914</v>
+        <v>18152</v>
       </c>
       <c r="AN88" s="15" t="n">
-        <v>18152</v>
+        <v>21550</v>
       </c>
       <c r="AO88" s="15" t="n">
-        <v>21550</v>
+        <v>17904</v>
       </c>
       <c r="AP88" s="15" t="n">
-        <v>17904</v>
+        <v>17299</v>
       </c>
       <c r="AQ88" s="15" t="n">
-        <v>17299</v>
+        <v>19557</v>
       </c>
       <c r="AR88" s="15" t="n">
-        <v>19557</v>
+        <v>22545</v>
       </c>
       <c r="AS88" s="15" t="n">
-        <v>22545</v>
+        <v>9790</v>
       </c>
       <c r="AT88" s="15" t="n">
-        <v>9790</v>
+        <v>22505</v>
       </c>
       <c r="AU88" s="15" t="n">
-        <v>22505</v>
+        <v>22342</v>
       </c>
       <c r="AV88" s="15" t="n">
-        <v>22342</v>
+        <v>20610</v>
       </c>
       <c r="AW88" s="15" t="n">
-        <v>20610</v>
+        <v>2210</v>
       </c>
       <c r="AX88" s="15" t="n">
-        <v>2210</v>
+        <v>11289</v>
       </c>
       <c r="AY88" s="15" t="n">
-        <v>11289</v>
+        <v>31819</v>
       </c>
       <c r="AZ88" s="15" t="n">
-        <v>31819</v>
+        <v>11437</v>
       </c>
       <c r="BA88" s="15" t="n">
-        <v>11437</v>
+        <v>25397</v>
       </c>
       <c r="BB88" s="15" t="n">
-        <v>25397</v>
+        <v>32089</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14473,8 +14473,8 @@
       <c r="AC90" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="AD90" s="12" t="s">
-        <v>56</v>
+      <c r="AD90" s="12" t="n">
+        <v>0</v>
       </c>
       <c r="AE90" s="12" t="n">
         <v>0</v>
@@ -14632,8 +14632,8 @@
       <c r="AC91" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AD91" s="15" t="s">
-        <v>56</v>
+      <c r="AD91" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="AE91" s="15" t="n">
         <v>0</v>
@@ -14764,8 +14764,8 @@
       <c r="T92" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="U92" s="18" t="s">
-        <v>56</v>
+      <c r="U92" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V92" s="23" t="n">
         <v>0</v>
@@ -14980,8 +14980,8 @@
       <c r="T94" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="U94" s="18" t="s">
-        <v>56</v>
+      <c r="U94" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V94" s="23" t="n">
         <v>0</v>
@@ -15196,8 +15196,8 @@
       <c r="T96" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="U96" s="12" t="s">
-        <v>56</v>
+      <c r="U96" s="12" t="n">
+        <v>0</v>
       </c>
       <c r="V96" s="12" t="n">
         <v>0</v>
@@ -15306,154 +15306,154 @@
       <c r="C97" s="20"/>
       <c r="D97" s="20"/>
       <c r="E97" s="20" t="n">
-        <v>93885</v>
+        <v>105363</v>
       </c>
       <c r="F97" s="20" t="n">
-        <v>105363</v>
+        <v>150993</v>
       </c>
       <c r="G97" s="20" t="n">
-        <v>150993</v>
+        <v>118968</v>
       </c>
       <c r="H97" s="20" t="n">
-        <v>118968</v>
+        <v>144861</v>
       </c>
       <c r="I97" s="20" t="n">
-        <v>144861</v>
+        <v>132780</v>
       </c>
       <c r="J97" s="20" t="n">
-        <v>132780</v>
+        <v>133962</v>
       </c>
       <c r="K97" s="20" t="n">
-        <v>133962</v>
+        <v>146838</v>
       </c>
       <c r="L97" s="20" t="n">
-        <v>146838</v>
+        <v>138480</v>
       </c>
       <c r="M97" s="20" t="n">
-        <v>138480</v>
+        <v>190115</v>
       </c>
       <c r="N97" s="20" t="n">
-        <v>190115</v>
+        <v>143160</v>
       </c>
       <c r="O97" s="20" t="n">
-        <v>143160</v>
+        <v>81617</v>
       </c>
       <c r="P97" s="20" t="n">
-        <v>81617</v>
+        <v>73783</v>
       </c>
       <c r="Q97" s="20" t="n">
-        <v>73783</v>
+        <v>121072</v>
       </c>
       <c r="R97" s="20" t="n">
-        <v>121072</v>
+        <v>170753</v>
       </c>
       <c r="S97" s="20" t="n">
-        <v>170753</v>
+        <v>135907</v>
       </c>
       <c r="T97" s="20" t="n">
-        <v>135907</v>
+        <v>163123</v>
       </c>
       <c r="U97" s="20" t="n">
-        <v>163123</v>
+        <v>178519</v>
       </c>
       <c r="V97" s="20" t="n">
-        <v>178519</v>
+        <v>208278</v>
       </c>
       <c r="W97" s="20" t="n">
-        <v>208278</v>
+        <v>217888</v>
       </c>
       <c r="X97" s="20" t="n">
-        <v>217888</v>
+        <v>178438</v>
       </c>
       <c r="Y97" s="20" t="n">
-        <v>178438</v>
+        <v>157755</v>
       </c>
       <c r="Z97" s="20" t="n">
-        <v>157755</v>
+        <v>195806</v>
       </c>
       <c r="AA97" s="20" t="n">
-        <v>195806</v>
+        <v>199871</v>
       </c>
       <c r="AB97" s="20" t="n">
-        <v>199871</v>
+        <v>162396</v>
       </c>
       <c r="AC97" s="20" t="n">
-        <v>162396</v>
+        <v>187393</v>
       </c>
       <c r="AD97" s="20" t="n">
-        <v>187393</v>
+        <v>265973</v>
       </c>
       <c r="AE97" s="20" t="n">
-        <v>265973</v>
+        <v>300837</v>
       </c>
       <c r="AF97" s="20" t="n">
-        <v>300837</v>
+        <v>280015</v>
       </c>
       <c r="AG97" s="20" t="n">
-        <v>280015</v>
+        <v>247146</v>
       </c>
       <c r="AH97" s="20" t="n">
-        <v>247146</v>
+        <v>158470</v>
       </c>
       <c r="AI97" s="20" t="n">
-        <v>158470</v>
+        <v>280060</v>
       </c>
       <c r="AJ97" s="20" t="n">
-        <v>280060</v>
+        <v>158490</v>
       </c>
       <c r="AK97" s="20" t="n">
-        <v>158490</v>
+        <v>177426</v>
       </c>
       <c r="AL97" s="20" t="n">
-        <v>177426</v>
+        <v>230683</v>
       </c>
       <c r="AM97" s="20" t="n">
-        <v>230683</v>
+        <v>298529</v>
       </c>
       <c r="AN97" s="20" t="n">
-        <v>298529</v>
+        <v>293588</v>
       </c>
       <c r="AO97" s="20" t="n">
-        <v>293588</v>
+        <v>361844</v>
       </c>
       <c r="AP97" s="20" t="n">
-        <v>361844</v>
+        <v>385436</v>
       </c>
       <c r="AQ97" s="20" t="n">
-        <v>385436</v>
+        <v>401369</v>
       </c>
       <c r="AR97" s="20" t="n">
-        <v>401369</v>
+        <v>335413</v>
       </c>
       <c r="AS97" s="20" t="n">
-        <v>335413</v>
+        <v>200936</v>
       </c>
       <c r="AT97" s="20" t="n">
-        <v>200936</v>
+        <v>234768</v>
       </c>
       <c r="AU97" s="20" t="n">
-        <v>234768</v>
+        <v>399471</v>
       </c>
       <c r="AV97" s="20" t="n">
-        <v>399471</v>
+        <v>419118</v>
       </c>
       <c r="AW97" s="20" t="n">
-        <v>419118</v>
+        <v>356289</v>
       </c>
       <c r="AX97" s="20" t="n">
-        <v>356289</v>
+        <v>372153</v>
       </c>
       <c r="AY97" s="20" t="n">
-        <v>372153</v>
+        <v>249492</v>
       </c>
       <c r="AZ97" s="20" t="n">
-        <v>249492</v>
+        <v>282276</v>
       </c>
       <c r="BA97" s="20" t="n">
-        <v>282276</v>
+        <v>571505</v>
       </c>
       <c r="BB97" s="20" t="n">
-        <v>571505</v>
+        <v>444143</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15985,14 +15985,14 @@
       <c r="AG104" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="AH104" s="12" t="s">
-        <v>56</v>
+      <c r="AH104" s="12" t="n">
+        <v>16978836</v>
       </c>
       <c r="AI104" s="12" t="n">
-        <v>16978836</v>
-      </c>
-      <c r="AJ104" s="12" t="n">
         <v>12709091</v>
+      </c>
+      <c r="AJ104" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="AK104" s="12" t="s">
         <v>56</v>
@@ -16060,8 +16060,8 @@
       <c r="E105" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="F105" s="15" t="n">
-        <v>0</v>
+      <c r="F105" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="G105" s="15" t="s">
         <v>56</v>
@@ -16217,46 +16217,46 @@
       </c>
       <c r="D106" s="12"/>
       <c r="E106" s="12" t="n">
-        <v>15599816</v>
+        <v>15935014</v>
       </c>
       <c r="F106" s="12" t="n">
-        <v>15935014</v>
+        <v>17537061</v>
       </c>
       <c r="G106" s="12" t="n">
-        <v>17537061</v>
+        <v>18731644</v>
       </c>
       <c r="H106" s="12" t="n">
-        <v>18731644</v>
+        <v>18461761</v>
       </c>
       <c r="I106" s="12" t="n">
-        <v>18461761</v>
+        <v>19336638</v>
       </c>
       <c r="J106" s="12" t="n">
-        <v>19336638</v>
+        <v>18125418</v>
       </c>
       <c r="K106" s="12" t="n">
-        <v>18125418</v>
+        <v>19483708</v>
       </c>
       <c r="L106" s="12" t="n">
-        <v>19483708</v>
+        <v>18087966</v>
       </c>
       <c r="M106" s="12" t="n">
-        <v>18087966</v>
+        <v>26499617</v>
       </c>
       <c r="N106" s="12" t="n">
-        <v>26499617</v>
+        <v>23298919</v>
       </c>
       <c r="O106" s="12" t="n">
-        <v>23298919</v>
+        <v>25251734</v>
       </c>
       <c r="P106" s="12" t="n">
-        <v>25251734</v>
+        <v>24875882</v>
       </c>
       <c r="Q106" s="12" t="n">
-        <v>24875882</v>
-      </c>
-      <c r="R106" s="12" t="n">
         <v>23174883</v>
+      </c>
+      <c r="R106" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="S106" s="12" t="s">
         <v>56</v>
@@ -16376,46 +16376,46 @@
       </c>
       <c r="D107" s="15"/>
       <c r="E107" s="15" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="F107" s="15" t="n">
         <v>16714286</v>
       </c>
+      <c r="F107" s="15" t="s">
+        <v>56</v>
+      </c>
       <c r="G107" s="15" t="s">
         <v>56</v>
       </c>
       <c r="H107" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="I107" s="15" t="s">
-        <v>56</v>
+      <c r="I107" s="15" t="n">
+        <v>21216216</v>
       </c>
       <c r="J107" s="15" t="n">
-        <v>21216216</v>
+        <v>0</v>
       </c>
       <c r="K107" s="15" t="n">
-        <v>0</v>
+        <v>21000000</v>
       </c>
       <c r="L107" s="15" t="n">
-        <v>21000000</v>
+        <v>24000000</v>
       </c>
       <c r="M107" s="15" t="n">
-        <v>24000000</v>
+        <v>27500000</v>
       </c>
       <c r="N107" s="15" t="n">
-        <v>27500000</v>
+        <v>21200000</v>
       </c>
       <c r="O107" s="15" t="n">
-        <v>21200000</v>
+        <v>21851852</v>
       </c>
       <c r="P107" s="15" t="n">
-        <v>21851852</v>
+        <v>28000000</v>
       </c>
       <c r="Q107" s="15" t="n">
-        <v>28000000</v>
-      </c>
-      <c r="R107" s="15" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R107" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="S107" s="15" t="s">
         <v>56</v>
@@ -16535,46 +16535,46 @@
       </c>
       <c r="D108" s="12"/>
       <c r="E108" s="12" t="n">
-        <v>6000000</v>
+        <v>12200000</v>
       </c>
       <c r="F108" s="12" t="n">
-        <v>12200000</v>
+        <v>11500000</v>
       </c>
       <c r="G108" s="12" t="n">
-        <v>11500000</v>
+        <v>13375000</v>
       </c>
       <c r="H108" s="12" t="n">
-        <v>13375000</v>
+        <v>13555556</v>
       </c>
       <c r="I108" s="12" t="n">
-        <v>13555556</v>
+        <v>13878788</v>
       </c>
       <c r="J108" s="12" t="n">
-        <v>13878788</v>
+        <v>13411765</v>
       </c>
       <c r="K108" s="12" t="n">
-        <v>13411765</v>
+        <v>15375000</v>
       </c>
       <c r="L108" s="12" t="n">
-        <v>15375000</v>
+        <v>15250000</v>
       </c>
       <c r="M108" s="12" t="n">
-        <v>15250000</v>
+        <v>13900000</v>
       </c>
       <c r="N108" s="12" t="n">
-        <v>13900000</v>
+        <v>16333333</v>
       </c>
       <c r="O108" s="12" t="n">
-        <v>16333333</v>
+        <v>14181818</v>
       </c>
       <c r="P108" s="12" t="n">
-        <v>14181818</v>
+        <v>14533333</v>
       </c>
       <c r="Q108" s="12" t="n">
-        <v>14533333</v>
-      </c>
-      <c r="R108" s="12" t="n">
         <v>12500000</v>
+      </c>
+      <c r="R108" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="S108" s="12" t="s">
         <v>56</v>
@@ -16694,46 +16694,46 @@
       </c>
       <c r="D109" s="15"/>
       <c r="E109" s="15" t="n">
-        <v>24152302</v>
+        <v>27892132</v>
       </c>
       <c r="F109" s="15" t="n">
-        <v>27892132</v>
+        <v>32807177</v>
       </c>
       <c r="G109" s="15" t="n">
-        <v>32807177</v>
+        <v>37272472</v>
       </c>
       <c r="H109" s="15" t="n">
-        <v>37272472</v>
+        <v>41136830</v>
       </c>
       <c r="I109" s="15" t="n">
-        <v>41136830</v>
+        <v>30549848</v>
       </c>
       <c r="J109" s="15" t="n">
-        <v>30549848</v>
+        <v>31921765</v>
       </c>
       <c r="K109" s="15" t="n">
-        <v>31921765</v>
+        <v>39421251</v>
       </c>
       <c r="L109" s="15" t="n">
-        <v>39421251</v>
+        <v>34393316</v>
       </c>
       <c r="M109" s="15" t="n">
-        <v>34393316</v>
+        <v>36865108</v>
       </c>
       <c r="N109" s="15" t="n">
-        <v>36865108</v>
+        <v>37895433</v>
       </c>
       <c r="O109" s="15" t="n">
-        <v>37895433</v>
+        <v>33114041</v>
       </c>
       <c r="P109" s="15" t="n">
-        <v>33114041</v>
+        <v>44295019</v>
       </c>
       <c r="Q109" s="15" t="n">
-        <v>44295019</v>
-      </c>
-      <c r="R109" s="15" t="n">
         <v>30856823</v>
+      </c>
+      <c r="R109" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="S109" s="15" t="s">
         <v>56</v>
@@ -16853,22 +16853,22 @@
       </c>
       <c r="D110" s="12"/>
       <c r="E110" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F110" s="12" t="n">
         <v>54000000</v>
       </c>
+      <c r="F110" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="G110" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="H110" s="12" t="s">
-        <v>56</v>
+      <c r="H110" s="12" t="n">
+        <v>0</v>
       </c>
       <c r="I110" s="12" t="n">
-        <v>0</v>
+        <v>150476190</v>
       </c>
       <c r="J110" s="12" t="n">
-        <v>150476190</v>
+        <v>0</v>
       </c>
       <c r="K110" s="12" t="n">
         <v>0</v>
@@ -16891,8 +16891,8 @@
       <c r="Q110" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="R110" s="12" t="n">
-        <v>0</v>
+      <c r="R110" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="S110" s="12" t="s">
         <v>56</v>
@@ -17014,8 +17014,8 @@
       <c r="E111" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="F111" s="15" t="n">
-        <v>0</v>
+      <c r="F111" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="G111" s="15" t="s">
         <v>56</v>
@@ -17209,8 +17209,8 @@
       <c r="Q112" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="R112" s="12" t="n">
-        <v>0</v>
+      <c r="R112" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="S112" s="12" t="s">
         <v>56</v>
@@ -17332,8 +17332,8 @@
       <c r="E113" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="F113" s="15" t="n">
-        <v>0</v>
+      <c r="F113" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="G113" s="15" t="s">
         <v>56</v>
@@ -17489,46 +17489,46 @@
       </c>
       <c r="D114" s="12"/>
       <c r="E114" s="12" t="n">
-        <v>25562500</v>
+        <v>35333333</v>
       </c>
       <c r="F114" s="12" t="n">
-        <v>35333333</v>
+        <v>30181818</v>
       </c>
       <c r="G114" s="12" t="n">
-        <v>30181818</v>
+        <v>64433333</v>
       </c>
       <c r="H114" s="12" t="n">
-        <v>64433333</v>
+        <v>63125000</v>
       </c>
       <c r="I114" s="12" t="n">
-        <v>63125000</v>
+        <v>58163934</v>
       </c>
       <c r="J114" s="12" t="n">
-        <v>58163934</v>
+        <v>61000000</v>
       </c>
       <c r="K114" s="12" t="n">
-        <v>61000000</v>
+        <v>60043478</v>
       </c>
       <c r="L114" s="12" t="n">
-        <v>60043478</v>
+        <v>58833333</v>
       </c>
       <c r="M114" s="12" t="n">
-        <v>58833333</v>
+        <v>28888889</v>
       </c>
       <c r="N114" s="12" t="n">
-        <v>28888889</v>
+        <v>73750000</v>
       </c>
       <c r="O114" s="12" t="n">
-        <v>73750000</v>
+        <v>533000000</v>
       </c>
       <c r="P114" s="12" t="n">
-        <v>533000000</v>
+        <v>127142857</v>
       </c>
       <c r="Q114" s="12" t="n">
-        <v>127142857</v>
-      </c>
-      <c r="R114" s="12" t="n">
         <v>83928571</v>
+      </c>
+      <c r="R114" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="S114" s="12" t="s">
         <v>56</v>
@@ -17648,46 +17648,46 @@
       </c>
       <c r="D115" s="15"/>
       <c r="E115" s="15" t="n">
-        <v>10146497</v>
+        <v>11130841</v>
       </c>
       <c r="F115" s="15" t="n">
-        <v>11130841</v>
+        <v>10003817</v>
       </c>
       <c r="G115" s="15" t="n">
-        <v>10003817</v>
+        <v>10603421</v>
       </c>
       <c r="H115" s="15" t="n">
-        <v>10603421</v>
+        <v>16981481</v>
       </c>
       <c r="I115" s="15" t="n">
-        <v>16981481</v>
+        <v>18400000</v>
       </c>
       <c r="J115" s="15" t="n">
-        <v>18400000</v>
+        <v>18660793</v>
       </c>
       <c r="K115" s="15" t="n">
-        <v>18660793</v>
+        <v>19450980</v>
       </c>
       <c r="L115" s="15" t="n">
-        <v>19450980</v>
+        <v>26139535</v>
       </c>
       <c r="M115" s="15" t="n">
-        <v>26139535</v>
+        <v>15236686</v>
       </c>
       <c r="N115" s="15" t="n">
-        <v>15236686</v>
+        <v>20035928</v>
       </c>
       <c r="O115" s="15" t="n">
-        <v>20035928</v>
+        <v>22397661</v>
       </c>
       <c r="P115" s="15" t="n">
-        <v>22397661</v>
+        <v>22195219</v>
       </c>
       <c r="Q115" s="15" t="n">
-        <v>22195219</v>
-      </c>
-      <c r="R115" s="15" t="n">
         <v>23054264</v>
+      </c>
+      <c r="R115" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="S115" s="15" t="s">
         <v>56</v>
@@ -17807,13 +17807,13 @@
       </c>
       <c r="D116" s="12"/>
       <c r="E116" s="12" t="n">
-        <v>17929670</v>
+        <v>18827586</v>
       </c>
       <c r="F116" s="12" t="n">
-        <v>18827586</v>
+        <v>22979253</v>
       </c>
       <c r="G116" s="12" t="n">
-        <v>22979253</v>
+        <v>0</v>
       </c>
       <c r="H116" s="12" t="n">
         <v>0</v>
@@ -17822,31 +17822,31 @@
         <v>0</v>
       </c>
       <c r="J116" s="12" t="n">
-        <v>0</v>
+        <v>27542614</v>
       </c>
       <c r="K116" s="12" t="n">
-        <v>27542614</v>
+        <v>11913265</v>
       </c>
       <c r="L116" s="12" t="n">
-        <v>11913265</v>
+        <v>46666667</v>
       </c>
       <c r="M116" s="12" t="n">
-        <v>46666667</v>
+        <v>38827893</v>
       </c>
       <c r="N116" s="12" t="n">
-        <v>38827893</v>
+        <v>36539604</v>
       </c>
       <c r="O116" s="12" t="n">
-        <v>36539604</v>
+        <v>40625000</v>
       </c>
       <c r="P116" s="12" t="n">
-        <v>40625000</v>
+        <v>42909091</v>
       </c>
       <c r="Q116" s="12" t="n">
-        <v>42909091</v>
-      </c>
-      <c r="R116" s="12" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R116" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="S116" s="12" t="s">
         <v>56</v>
@@ -17968,8 +17968,8 @@
       <c r="E117" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="F117" s="15" t="n">
-        <v>0</v>
+      <c r="F117" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="G117" s="15" t="s">
         <v>56</v>
@@ -18163,116 +18163,116 @@
       <c r="Q118" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="R118" s="12" t="s">
-        <v>56</v>
+      <c r="R118" s="12" t="n">
+        <v>43766760</v>
       </c>
       <c r="S118" s="12" t="n">
-        <v>43766760</v>
+        <v>40876175</v>
       </c>
       <c r="T118" s="12" t="n">
-        <v>40876175</v>
+        <v>40351843</v>
       </c>
       <c r="U118" s="12" t="n">
-        <v>40351843</v>
+        <v>41797025</v>
       </c>
       <c r="V118" s="12" t="n">
-        <v>41797025</v>
+        <v>47519097</v>
       </c>
       <c r="W118" s="12" t="n">
-        <v>47519097</v>
+        <v>46939291</v>
       </c>
       <c r="X118" s="12" t="n">
-        <v>46939291</v>
+        <v>49028856</v>
       </c>
       <c r="Y118" s="12" t="n">
-        <v>49028856</v>
+        <v>46916466</v>
       </c>
       <c r="Z118" s="12" t="n">
-        <v>46916466</v>
+        <v>53702206</v>
       </c>
       <c r="AA118" s="12" t="n">
-        <v>53702206</v>
+        <v>55500000</v>
       </c>
       <c r="AB118" s="12" t="n">
-        <v>55500000</v>
+        <v>53385965</v>
       </c>
       <c r="AC118" s="12" t="n">
-        <v>53385965</v>
+        <v>51029412</v>
       </c>
       <c r="AD118" s="12" t="n">
-        <v>51029412</v>
+        <v>65608895</v>
       </c>
       <c r="AE118" s="12" t="n">
-        <v>65608895</v>
+        <v>80512616</v>
       </c>
       <c r="AF118" s="12" t="n">
-        <v>80512616</v>
+        <v>78654825</v>
       </c>
       <c r="AG118" s="12" t="n">
-        <v>78654825</v>
+        <v>84450767</v>
       </c>
       <c r="AH118" s="12" t="n">
-        <v>84450767</v>
+        <v>80549356</v>
       </c>
       <c r="AI118" s="12" t="n">
-        <v>80549356</v>
+        <v>85599407</v>
       </c>
       <c r="AJ118" s="12" t="n">
-        <v>85599407</v>
+        <v>94463687</v>
       </c>
       <c r="AK118" s="12" t="n">
-        <v>94463687</v>
+        <v>77121817</v>
       </c>
       <c r="AL118" s="12" t="n">
-        <v>77121817</v>
+        <v>100905912</v>
       </c>
       <c r="AM118" s="12" t="n">
-        <v>100905912</v>
+        <v>141870434</v>
       </c>
       <c r="AN118" s="12" t="n">
-        <v>141870434</v>
+        <v>132612299</v>
       </c>
       <c r="AO118" s="12" t="n">
-        <v>132612299</v>
+        <v>110387154</v>
       </c>
       <c r="AP118" s="12" t="n">
-        <v>110387154</v>
+        <v>147965429</v>
       </c>
       <c r="AQ118" s="12" t="n">
-        <v>147965429</v>
+        <v>157642405</v>
       </c>
       <c r="AR118" s="12" t="n">
-        <v>157642405</v>
+        <v>144444097</v>
       </c>
       <c r="AS118" s="12" t="n">
-        <v>144444097</v>
+        <v>141831868</v>
       </c>
       <c r="AT118" s="12" t="n">
-        <v>141831868</v>
+        <v>144151606</v>
       </c>
       <c r="AU118" s="12" t="n">
-        <v>144151606</v>
+        <v>150278671</v>
       </c>
       <c r="AV118" s="12" t="n">
-        <v>150278671</v>
+        <v>152214866</v>
       </c>
       <c r="AW118" s="12" t="n">
-        <v>152214866</v>
+        <v>149138614</v>
       </c>
       <c r="AX118" s="12" t="n">
-        <v>149138614</v>
+        <v>145584006</v>
       </c>
       <c r="AY118" s="12" t="n">
-        <v>145584006</v>
+        <v>157541442</v>
       </c>
       <c r="AZ118" s="12" t="n">
-        <v>157541442</v>
+        <v>154199223</v>
       </c>
       <c r="BA118" s="12" t="n">
-        <v>154199223</v>
+        <v>157923567</v>
       </c>
       <c r="BB118" s="12" t="n">
-        <v>157923567</v>
+        <v>176872077</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18322,116 +18322,116 @@
       <c r="Q119" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="R119" s="15" t="s">
-        <v>56</v>
+      <c r="R119" s="15" t="n">
+        <v>25078457</v>
       </c>
       <c r="S119" s="15" t="n">
-        <v>25078457</v>
+        <v>25376709</v>
       </c>
       <c r="T119" s="15" t="n">
-        <v>25376709</v>
+        <v>27851728</v>
       </c>
       <c r="U119" s="15" t="n">
-        <v>27851728</v>
+        <v>28492788</v>
       </c>
       <c r="V119" s="15" t="n">
-        <v>28492788</v>
+        <v>31618417</v>
       </c>
       <c r="W119" s="15" t="n">
-        <v>31618417</v>
+        <v>41246342</v>
       </c>
       <c r="X119" s="15" t="n">
-        <v>41246342</v>
+        <v>32601305</v>
       </c>
       <c r="Y119" s="15" t="n">
-        <v>32601305</v>
+        <v>33408480</v>
       </c>
       <c r="Z119" s="15" t="n">
-        <v>33408480</v>
+        <v>36679162</v>
       </c>
       <c r="AA119" s="15" t="n">
-        <v>36679162</v>
+        <v>34477660</v>
       </c>
       <c r="AB119" s="15" t="n">
-        <v>34477660</v>
+        <v>35204918</v>
       </c>
       <c r="AC119" s="15" t="n">
-        <v>35204918</v>
+        <v>36213998</v>
       </c>
       <c r="AD119" s="15" t="n">
-        <v>36213998</v>
+        <v>53061179</v>
       </c>
       <c r="AE119" s="15" t="n">
-        <v>53061179</v>
+        <v>50261685</v>
       </c>
       <c r="AF119" s="15" t="n">
-        <v>50261685</v>
+        <v>47479525</v>
       </c>
       <c r="AG119" s="15" t="n">
-        <v>47479525</v>
+        <v>53468866</v>
       </c>
       <c r="AH119" s="15" t="n">
-        <v>53468866</v>
+        <v>49854708</v>
       </c>
       <c r="AI119" s="15" t="n">
-        <v>49854708</v>
+        <v>45635258</v>
       </c>
       <c r="AJ119" s="15" t="n">
-        <v>45635258</v>
+        <v>39842690</v>
       </c>
       <c r="AK119" s="15" t="n">
-        <v>39842690</v>
+        <v>44788066</v>
       </c>
       <c r="AL119" s="15" t="n">
-        <v>44788066</v>
+        <v>75058689</v>
       </c>
       <c r="AM119" s="15" t="n">
-        <v>75058689</v>
+        <v>72408560</v>
       </c>
       <c r="AN119" s="15" t="n">
-        <v>72408560</v>
+        <v>74770558</v>
       </c>
       <c r="AO119" s="15" t="n">
-        <v>74770558</v>
+        <v>68302408</v>
       </c>
       <c r="AP119" s="15" t="n">
-        <v>68302408</v>
+        <v>99185373</v>
       </c>
       <c r="AQ119" s="15" t="n">
-        <v>99185373</v>
+        <v>99564565</v>
       </c>
       <c r="AR119" s="15" t="n">
-        <v>99564565</v>
+        <v>99164087</v>
       </c>
       <c r="AS119" s="15" t="n">
-        <v>99164087</v>
+        <v>105895904</v>
       </c>
       <c r="AT119" s="15" t="n">
-        <v>105895904</v>
+        <v>96029371</v>
       </c>
       <c r="AU119" s="15" t="n">
-        <v>96029371</v>
+        <v>95119094</v>
       </c>
       <c r="AV119" s="15" t="n">
-        <v>95119094</v>
+        <v>96987198</v>
       </c>
       <c r="AW119" s="15" t="n">
-        <v>96987198</v>
+        <v>96868038</v>
       </c>
       <c r="AX119" s="15" t="n">
-        <v>96868038</v>
+        <v>95737028</v>
       </c>
       <c r="AY119" s="15" t="n">
-        <v>95737028</v>
+        <v>104093431</v>
       </c>
       <c r="AZ119" s="15" t="n">
-        <v>104093431</v>
+        <v>99000884</v>
       </c>
       <c r="BA119" s="15" t="n">
-        <v>99000884</v>
+        <v>101670753</v>
       </c>
       <c r="BB119" s="15" t="n">
-        <v>101670753</v>
+        <v>97494332</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18445,8 +18445,8 @@
       <c r="E120" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="F120" s="12" t="s">
-        <v>56</v>
+      <c r="F120" s="12" t="n">
+        <v>0</v>
       </c>
       <c r="G120" s="12" t="n">
         <v>0</v>
@@ -18481,8 +18481,8 @@
       <c r="Q120" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="R120" s="12" t="n">
-        <v>0</v>
+      <c r="R120" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="S120" s="12" t="s">
         <v>56</v>
@@ -18700,56 +18700,56 @@
       <c r="AK121" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AL121" s="15" t="s">
-        <v>56</v>
+      <c r="AL121" s="15" t="n">
+        <v>11002016</v>
       </c>
       <c r="AM121" s="15" t="n">
-        <v>11002016</v>
+        <v>11001212</v>
       </c>
       <c r="AN121" s="15" t="n">
-        <v>11001212</v>
+        <v>11000510</v>
       </c>
       <c r="AO121" s="15" t="n">
-        <v>11000510</v>
+        <v>10997543</v>
       </c>
       <c r="AP121" s="15" t="n">
-        <v>10997543</v>
+        <v>14900086</v>
       </c>
       <c r="AQ121" s="15" t="n">
-        <v>14900086</v>
+        <v>14906250</v>
       </c>
       <c r="AR121" s="15" t="n">
-        <v>14906250</v>
+        <v>14900859</v>
       </c>
       <c r="AS121" s="15" t="n">
-        <v>14900859</v>
+        <v>14901065</v>
       </c>
       <c r="AT121" s="15" t="n">
-        <v>14901065</v>
+        <v>14903974</v>
       </c>
       <c r="AU121" s="15" t="n">
-        <v>14903974</v>
+        <v>14904603</v>
       </c>
       <c r="AV121" s="15" t="n">
-        <v>14904603</v>
+        <v>14902386</v>
       </c>
       <c r="AW121" s="15" t="n">
-        <v>14902386</v>
+        <v>50227273</v>
       </c>
       <c r="AX121" s="15" t="n">
-        <v>50227273</v>
+        <v>19497409</v>
       </c>
       <c r="AY121" s="15" t="n">
-        <v>19497409</v>
+        <v>19496936</v>
       </c>
       <c r="AZ121" s="15" t="n">
-        <v>19496936</v>
+        <v>19517065</v>
       </c>
       <c r="BA121" s="15" t="n">
-        <v>19517065</v>
+        <v>19506144</v>
       </c>
       <c r="BB121" s="15" t="n">
-        <v>19506144</v>
+        <v>21993831</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18892,8 +18892,8 @@
       <c r="AC123" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="AD123" s="12" t="s">
-        <v>56</v>
+      <c r="AD123" s="12" t="n">
+        <v>0</v>
       </c>
       <c r="AE123" s="12" t="n">
         <v>0</v>
@@ -19051,8 +19051,8 @@
       <c r="AC124" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AD124" s="15" t="s">
-        <v>56</v>
+      <c r="AD124" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="AE124" s="15" t="n">
         <v>0</v>
